--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>217</v>
+        <v>216.1</v>
       </c>
       <c r="C2" t="n">
-        <v>217.9</v>
+        <v>216.1</v>
       </c>
       <c r="D2" t="n">
-        <v>218.4</v>
+        <v>216.1</v>
       </c>
       <c r="E2" t="n">
-        <v>217</v>
+        <v>216.1</v>
       </c>
       <c r="F2" t="n">
-        <v>763.5901</v>
+        <v>108.8421</v>
       </c>
       <c r="G2" t="n">
-        <v>212.3633333333333</v>
+        <v>212.315</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>216.8</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>216.8</v>
+        <v>217.9</v>
       </c>
       <c r="D3" t="n">
-        <v>216.8</v>
+        <v>218.4</v>
       </c>
       <c r="E3" t="n">
-        <v>216.8</v>
+        <v>217</v>
       </c>
       <c r="F3" t="n">
-        <v>10.36</v>
+        <v>763.5901</v>
       </c>
       <c r="G3" t="n">
-        <v>212.3933333333333</v>
+        <v>212.3633333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>216.8</v>
       </c>
       <c r="F4" t="n">
-        <v>6.585</v>
+        <v>10.36</v>
       </c>
       <c r="G4" t="n">
-        <v>212.4733333333333</v>
+        <v>212.3933333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>215.5</v>
+        <v>216.8</v>
       </c>
       <c r="C5" t="n">
-        <v>215.5</v>
+        <v>216.8</v>
       </c>
       <c r="D5" t="n">
-        <v>215.5</v>
+        <v>216.8</v>
       </c>
       <c r="E5" t="n">
-        <v>215.5</v>
+        <v>216.8</v>
       </c>
       <c r="F5" t="n">
-        <v>4.033</v>
+        <v>6.585</v>
       </c>
       <c r="G5" t="n">
-        <v>212.5316666666666</v>
+        <v>212.4733333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>215.5</v>
       </c>
       <c r="F6" t="n">
-        <v>9.791</v>
+        <v>4.033</v>
       </c>
       <c r="G6" t="n">
-        <v>212.6216666666666</v>
+        <v>212.5316666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>215.5</v>
       </c>
       <c r="F7" t="n">
-        <v>14.915</v>
+        <v>9.791</v>
       </c>
       <c r="G7" t="n">
-        <v>212.6799999999999</v>
+        <v>212.6216666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>215.5</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>14.915</v>
       </c>
       <c r="G8" t="n">
-        <v>212.7549999999999</v>
+        <v>212.6799999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>215.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1391.0945</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>212.7683333333333</v>
+        <v>212.7549999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>215.5</v>
       </c>
       <c r="F10" t="n">
-        <v>357.4</v>
+        <v>1391.0945</v>
       </c>
       <c r="G10" t="n">
-        <v>212.8583333333332</v>
+        <v>212.7683333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>214.5</v>
+        <v>215.5</v>
       </c>
       <c r="C11" t="n">
-        <v>214.5</v>
+        <v>215.5</v>
       </c>
       <c r="D11" t="n">
-        <v>214.5</v>
+        <v>215.5</v>
       </c>
       <c r="E11" t="n">
-        <v>214.5</v>
+        <v>215.5</v>
       </c>
       <c r="F11" t="n">
-        <v>254.3749</v>
+        <v>357.4</v>
       </c>
       <c r="G11" t="n">
-        <v>212.8499999999999</v>
+        <v>212.8583333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>215.5</v>
+        <v>214.5</v>
       </c>
       <c r="C12" t="n">
-        <v>215.5</v>
+        <v>214.5</v>
       </c>
       <c r="D12" t="n">
-        <v>215.5</v>
+        <v>214.5</v>
       </c>
       <c r="E12" t="n">
-        <v>215.5</v>
+        <v>214.5</v>
       </c>
       <c r="F12" t="n">
-        <v>5.6368</v>
+        <v>254.3749</v>
       </c>
       <c r="G12" t="n">
-        <v>212.8583333333332</v>
+        <v>212.8499999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="C13" t="n">
-        <v>214</v>
+        <v>215.5</v>
       </c>
       <c r="D13" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="E13" t="n">
-        <v>214</v>
+        <v>215.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1016.1334</v>
+        <v>5.6368</v>
       </c>
       <c r="G13" t="n">
-        <v>212.8416666666666</v>
+        <v>212.8583333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C14" t="n">
         <v>214</v>
       </c>
       <c r="D14" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" t="n">
         <v>214</v>
       </c>
       <c r="F14" t="n">
-        <v>1666.943</v>
+        <v>1016.1334</v>
       </c>
       <c r="G14" t="n">
-        <v>212.8083333333333</v>
+        <v>212.8416666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>214</v>
       </c>
       <c r="F15" t="n">
-        <v>87.08969999999999</v>
+        <v>1666.943</v>
       </c>
       <c r="G15" t="n">
-        <v>212.7733333333332</v>
+        <v>212.8083333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>214</v>
       </c>
       <c r="C16" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D16" t="n">
         <v>214</v>
       </c>
       <c r="E16" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F16" t="n">
-        <v>5239.344</v>
+        <v>87.08969999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>212.6549999999999</v>
+        <v>212.7733333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>214</v>
       </c>
       <c r="C17" t="n">
-        <v>210.1</v>
+        <v>209</v>
       </c>
       <c r="D17" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17" t="n">
-        <v>210.1</v>
+        <v>209</v>
       </c>
       <c r="F17" t="n">
-        <v>3610.33</v>
+        <v>5239.344</v>
       </c>
       <c r="G17" t="n">
-        <v>212.5549999999999</v>
+        <v>212.6549999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>210.1</v>
+        <v>214</v>
       </c>
       <c r="C18" t="n">
         <v>210.1</v>
@@ -1005,10 +1005,10 @@
         <v>210.1</v>
       </c>
       <c r="F18" t="n">
-        <v>6403.068</v>
+        <v>3610.33</v>
       </c>
       <c r="G18" t="n">
-        <v>212.4399999999999</v>
+        <v>212.5549999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>210.1</v>
       </c>
       <c r="D19" t="n">
-        <v>210.1</v>
+        <v>215</v>
       </c>
       <c r="E19" t="n">
         <v>210.1</v>
       </c>
       <c r="F19" t="n">
-        <v>7686.613</v>
+        <v>6403.068</v>
       </c>
       <c r="G19" t="n">
-        <v>212.3916666666666</v>
+        <v>212.4399999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>210.1</v>
       </c>
       <c r="C20" t="n">
-        <v>210.2</v>
+        <v>210.1</v>
       </c>
       <c r="D20" t="n">
-        <v>215</v>
+        <v>210.1</v>
       </c>
       <c r="E20" t="n">
         <v>210.1</v>
       </c>
       <c r="F20" t="n">
-        <v>23195.8268</v>
+        <v>7686.613</v>
       </c>
       <c r="G20" t="n">
-        <v>212.3016666666666</v>
+        <v>212.3916666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>212.1</v>
+        <v>210.1</v>
       </c>
       <c r="C21" t="n">
-        <v>212.1</v>
+        <v>210.2</v>
       </c>
       <c r="D21" t="n">
-        <v>212.1</v>
+        <v>215</v>
       </c>
       <c r="E21" t="n">
-        <v>212.1</v>
+        <v>210.1</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>23195.8268</v>
       </c>
       <c r="G21" t="n">
-        <v>212.3033333333333</v>
+        <v>212.3016666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>215</v>
+        <v>212.1</v>
       </c>
       <c r="C22" t="n">
-        <v>215</v>
+        <v>212.1</v>
       </c>
       <c r="D22" t="n">
-        <v>215</v>
+        <v>212.1</v>
       </c>
       <c r="E22" t="n">
-        <v>215</v>
+        <v>212.1</v>
       </c>
       <c r="F22" t="n">
-        <v>105.1873</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>212.3199999999999</v>
+        <v>212.3033333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>215</v>
       </c>
       <c r="F23" t="n">
-        <v>5980.2041</v>
+        <v>105.1873</v>
       </c>
       <c r="G23" t="n">
-        <v>212.3699999999999</v>
+        <v>212.3199999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>215</v>
       </c>
       <c r="F24" t="n">
-        <v>3869.87</v>
+        <v>5980.2041</v>
       </c>
       <c r="G24" t="n">
-        <v>212.4233333333333</v>
+        <v>212.3699999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>215</v>
       </c>
       <c r="F25" t="n">
-        <v>618.4324</v>
+        <v>3869.87</v>
       </c>
       <c r="G25" t="n">
-        <v>212.4766666666666</v>
+        <v>212.4233333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>213.3</v>
+        <v>215</v>
       </c>
       <c r="C26" t="n">
-        <v>210.4</v>
+        <v>215</v>
       </c>
       <c r="D26" t="n">
-        <v>213.3</v>
+        <v>215</v>
       </c>
       <c r="E26" t="n">
-        <v>210.4</v>
+        <v>215</v>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>618.4324</v>
       </c>
       <c r="G26" t="n">
-        <v>212.4699999999999</v>
+        <v>212.4766666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>214</v>
+        <v>213.3</v>
       </c>
       <c r="C27" t="n">
-        <v>215</v>
+        <v>210.4</v>
       </c>
       <c r="D27" t="n">
-        <v>215</v>
+        <v>213.3</v>
       </c>
       <c r="E27" t="n">
-        <v>214</v>
+        <v>210.4</v>
       </c>
       <c r="F27" t="n">
-        <v>413.3</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>212.5516666666666</v>
+        <v>212.4699999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" t="n">
         <v>215</v>
@@ -1352,13 +1352,13 @@
         <v>215</v>
       </c>
       <c r="E28" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F28" t="n">
-        <v>189.3</v>
+        <v>413.3</v>
       </c>
       <c r="G28" t="n">
-        <v>212.605</v>
+        <v>212.5516666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>215</v>
       </c>
       <c r="F29" t="n">
-        <v>5591.5352</v>
+        <v>189.3</v>
       </c>
       <c r="G29" t="n">
-        <v>212.6716666666666</v>
+        <v>212.605</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" t="n">
-        <v>219.4</v>
+        <v>215</v>
       </c>
       <c r="D30" t="n">
-        <v>219.4</v>
+        <v>215</v>
       </c>
       <c r="E30" t="n">
         <v>215</v>
       </c>
       <c r="F30" t="n">
-        <v>5672.5514</v>
+        <v>5591.5352</v>
       </c>
       <c r="G30" t="n">
-        <v>212.8116666666666</v>
+        <v>212.6716666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>216.4</v>
+        <v>216</v>
       </c>
       <c r="C31" t="n">
-        <v>216.3</v>
+        <v>219.4</v>
       </c>
       <c r="D31" t="n">
-        <v>216.4</v>
+        <v>219.4</v>
       </c>
       <c r="E31" t="n">
-        <v>216.3</v>
+        <v>215</v>
       </c>
       <c r="F31" t="n">
-        <v>3000</v>
+        <v>5672.5514</v>
       </c>
       <c r="G31" t="n">
-        <v>212.8999999999999</v>
+        <v>212.8116666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>219.9</v>
+        <v>216.4</v>
       </c>
       <c r="C32" t="n">
-        <v>219.9</v>
+        <v>216.3</v>
       </c>
       <c r="D32" t="n">
-        <v>219.9</v>
+        <v>216.4</v>
       </c>
       <c r="E32" t="n">
-        <v>219.9</v>
+        <v>216.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1568.853</v>
+        <v>3000</v>
       </c>
       <c r="G32" t="n">
-        <v>213.0349999999999</v>
+        <v>212.8999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>220</v>
+        <v>219.9</v>
       </c>
       <c r="C33" t="n">
-        <v>220</v>
+        <v>219.9</v>
       </c>
       <c r="D33" t="n">
-        <v>220</v>
+        <v>219.9</v>
       </c>
       <c r="E33" t="n">
-        <v>220</v>
+        <v>219.9</v>
       </c>
       <c r="F33" t="n">
-        <v>189.3262</v>
+        <v>1568.853</v>
       </c>
       <c r="G33" t="n">
-        <v>213.235</v>
+        <v>213.0349999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>221.6</v>
+        <v>220</v>
       </c>
       <c r="C34" t="n">
-        <v>220.1</v>
+        <v>220</v>
       </c>
       <c r="D34" t="n">
-        <v>221.9</v>
+        <v>220</v>
       </c>
       <c r="E34" t="n">
         <v>220</v>
       </c>
       <c r="F34" t="n">
-        <v>20676.0311</v>
+        <v>189.3262</v>
       </c>
       <c r="G34" t="n">
-        <v>213.4333333333333</v>
+        <v>213.235</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="C35" t="n">
         <v>220.1</v>
       </c>
-      <c r="C35" t="n">
-        <v>222</v>
-      </c>
       <c r="D35" t="n">
-        <v>222</v>
+        <v>221.9</v>
       </c>
       <c r="E35" t="n">
-        <v>220.1</v>
+        <v>220</v>
       </c>
       <c r="F35" t="n">
-        <v>13011.956</v>
+        <v>20676.0311</v>
       </c>
       <c r="G35" t="n">
-        <v>213.5366666666666</v>
+        <v>213.4333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="C36" t="n">
         <v>222</v>
-      </c>
-      <c r="C36" t="n">
-        <v>221.9</v>
       </c>
       <c r="D36" t="n">
         <v>222</v>
       </c>
       <c r="E36" t="n">
-        <v>221.9</v>
+        <v>220.1</v>
       </c>
       <c r="F36" t="n">
-        <v>4406.1673</v>
+        <v>13011.956</v>
       </c>
       <c r="G36" t="n">
-        <v>213.7633333333333</v>
+        <v>213.5366666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>221.9</v>
+        <v>222</v>
       </c>
       <c r="C37" t="n">
         <v>221.9</v>
       </c>
       <c r="D37" t="n">
-        <v>221.9</v>
+        <v>222</v>
       </c>
       <c r="E37" t="n">
         <v>221.9</v>
       </c>
       <c r="F37" t="n">
-        <v>26588.6478</v>
+        <v>4406.1673</v>
       </c>
       <c r="G37" t="n">
-        <v>213.895</v>
+        <v>213.7633333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>221.9</v>
       </c>
       <c r="C38" t="n">
-        <v>222.1</v>
+        <v>221.9</v>
       </c>
       <c r="D38" t="n">
-        <v>222.1</v>
+        <v>221.9</v>
       </c>
       <c r="E38" t="n">
         <v>221.9</v>
       </c>
       <c r="F38" t="n">
-        <v>5137.5049</v>
+        <v>26588.6478</v>
       </c>
       <c r="G38" t="n">
-        <v>214.0299999999999</v>
+        <v>213.895</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>221.9</v>
       </c>
       <c r="C39" t="n">
-        <v>221.9</v>
+        <v>222.1</v>
       </c>
       <c r="D39" t="n">
-        <v>221.9</v>
+        <v>222.1</v>
       </c>
       <c r="E39" t="n">
         <v>221.9</v>
       </c>
       <c r="F39" t="n">
-        <v>831.3898</v>
+        <v>5137.5049</v>
       </c>
       <c r="G39" t="n">
-        <v>214.195</v>
+        <v>214.0299999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,16 +1775,16 @@
         <v>221.9</v>
       </c>
       <c r="F40" t="n">
-        <v>28152.6715</v>
+        <v>831.3898</v>
       </c>
       <c r="G40" t="n">
-        <v>214.4266666666666</v>
+        <v>214.195</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>219.9</v>
+        <v>221.9</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9</v>
+        <v>221.9</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9</v>
+        <v>221.9</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9</v>
+        <v>221.9</v>
       </c>
       <c r="F41" t="n">
-        <v>7620.5451</v>
+        <v>28152.6715</v>
       </c>
       <c r="G41" t="n">
-        <v>214.6249999999999</v>
+        <v>214.4266666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>219.9</v>
       </c>
       <c r="F42" t="n">
-        <v>2041.2787</v>
+        <v>7620.5451</v>
       </c>
       <c r="G42" t="n">
-        <v>214.8233333333333</v>
+        <v>214.6249999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>219.9</v>
       </c>
       <c r="F43" t="n">
-        <v>490.0644</v>
+        <v>2041.2787</v>
       </c>
       <c r="G43" t="n">
-        <v>215.0216666666666</v>
+        <v>214.8233333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>219.9</v>
       </c>
       <c r="F44" t="n">
-        <v>321.4628</v>
+        <v>490.0644</v>
       </c>
       <c r="G44" t="n">
-        <v>215.2033333333333</v>
+        <v>215.0216666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>219.9</v>
       </c>
       <c r="F45" t="n">
-        <v>358.7476</v>
+        <v>321.4628</v>
       </c>
       <c r="G45" t="n">
-        <v>215.3849999999999</v>
+        <v>215.2033333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>222.1</v>
+        <v>219.9</v>
       </c>
       <c r="C46" t="n">
-        <v>222.1</v>
+        <v>219.9</v>
       </c>
       <c r="D46" t="n">
-        <v>222.1</v>
+        <v>219.9</v>
       </c>
       <c r="E46" t="n">
-        <v>222.1</v>
+        <v>219.9</v>
       </c>
       <c r="F46" t="n">
-        <v>7803.849</v>
+        <v>358.7476</v>
       </c>
       <c r="G46" t="n">
-        <v>215.6033333333333</v>
+        <v>215.3849999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>220</v>
+        <v>222.1</v>
       </c>
       <c r="C47" t="n">
-        <v>220</v>
+        <v>222.1</v>
       </c>
       <c r="D47" t="n">
-        <v>220</v>
+        <v>222.1</v>
       </c>
       <c r="E47" t="n">
-        <v>220</v>
+        <v>222.1</v>
       </c>
       <c r="F47" t="n">
-        <v>7000</v>
+        <v>7803.849</v>
       </c>
       <c r="G47" t="n">
-        <v>215.7849999999999</v>
+        <v>215.6033333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>220</v>
       </c>
       <c r="C48" t="n">
-        <v>219.9</v>
+        <v>220</v>
       </c>
       <c r="D48" t="n">
         <v>220</v>
       </c>
       <c r="E48" t="n">
-        <v>219.9</v>
+        <v>220</v>
       </c>
       <c r="F48" t="n">
-        <v>2560</v>
+        <v>7000</v>
       </c>
       <c r="G48" t="n">
-        <v>215.8999999999999</v>
+        <v>215.7849999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>219.9</v>
+        <v>220</v>
       </c>
       <c r="C49" t="n">
         <v>219.9</v>
       </c>
       <c r="D49" t="n">
-        <v>219.9</v>
+        <v>220</v>
       </c>
       <c r="E49" t="n">
         <v>219.9</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8804</v>
+        <v>2560</v>
       </c>
       <c r="G49" t="n">
-        <v>216.0316666666666</v>
+        <v>215.8999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>217</v>
+        <v>219.9</v>
       </c>
       <c r="C50" t="n">
-        <v>215.2</v>
+        <v>219.9</v>
       </c>
       <c r="D50" t="n">
-        <v>217</v>
+        <v>219.9</v>
       </c>
       <c r="E50" t="n">
-        <v>215.2</v>
+        <v>219.9</v>
       </c>
       <c r="F50" t="n">
-        <v>5396.1973</v>
+        <v>0.8804</v>
       </c>
       <c r="G50" t="n">
-        <v>216.0683333333332</v>
+        <v>216.0316666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C51" t="n">
-        <v>215.3</v>
+        <v>215.2</v>
       </c>
       <c r="D51" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E51" t="n">
-        <v>215.3</v>
+        <v>215.2</v>
       </c>
       <c r="F51" t="n">
-        <v>440.99</v>
+        <v>5396.1973</v>
       </c>
       <c r="G51" t="n">
-        <v>216.0899999999999</v>
+        <v>216.0683333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>215.3</v>
+        <v>216</v>
       </c>
       <c r="C52" t="n">
         <v>215.3</v>
       </c>
       <c r="D52" t="n">
-        <v>215.3</v>
+        <v>216</v>
       </c>
       <c r="E52" t="n">
         <v>215.3</v>
       </c>
       <c r="F52" t="n">
-        <v>618.4324</v>
+        <v>440.99</v>
       </c>
       <c r="G52" t="n">
-        <v>216.1116666666666</v>
+        <v>216.0899999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,31 +2218,35 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>219.9</v>
+        <v>215.3</v>
       </c>
       <c r="C53" t="n">
-        <v>219.9</v>
+        <v>215.3</v>
       </c>
       <c r="D53" t="n">
-        <v>219.9</v>
+        <v>215.3</v>
       </c>
       <c r="E53" t="n">
-        <v>219.9</v>
+        <v>215.3</v>
       </c>
       <c r="F53" t="n">
-        <v>2.3</v>
+        <v>618.4324</v>
       </c>
       <c r="G53" t="n">
-        <v>216.2433333333332</v>
+        <v>216.1116666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>215.3</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2253,32 +2257,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>216</v>
+        <v>219.9</v>
       </c>
       <c r="C54" t="n">
-        <v>216</v>
+        <v>219.9</v>
       </c>
       <c r="D54" t="n">
-        <v>216</v>
+        <v>219.9</v>
       </c>
       <c r="E54" t="n">
-        <v>216</v>
+        <v>219.9</v>
       </c>
       <c r="F54" t="n">
-        <v>91.9444</v>
+        <v>2.3</v>
       </c>
       <c r="G54" t="n">
-        <v>216.3649999999999</v>
+        <v>216.2433333333332</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,32 +2300,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>216</v>
+      </c>
+      <c r="C55" t="n">
+        <v>216</v>
+      </c>
+      <c r="D55" t="n">
+        <v>216</v>
+      </c>
+      <c r="E55" t="n">
+        <v>216</v>
+      </c>
+      <c r="F55" t="n">
+        <v>91.9444</v>
+      </c>
+      <c r="G55" t="n">
+        <v>216.3649999999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
         <v>215.3</v>
       </c>
-      <c r="C55" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>129.635</v>
-      </c>
-      <c r="G55" t="n">
-        <v>216.4199999999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="C56" t="n">
-        <v>215</v>
+        <v>215.3</v>
       </c>
       <c r="D56" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="E56" t="n">
-        <v>215</v>
+        <v>215.3</v>
       </c>
       <c r="F56" t="n">
-        <v>45420.7023</v>
+        <v>129.635</v>
       </c>
       <c r="G56" t="n">
-        <v>216.4716666666665</v>
+        <v>216.4199999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>211.3</v>
+        <v>215.4</v>
       </c>
       <c r="C57" t="n">
-        <v>211.3</v>
+        <v>215</v>
       </c>
       <c r="D57" t="n">
-        <v>211.3</v>
+        <v>215.4</v>
       </c>
       <c r="E57" t="n">
-        <v>211.3</v>
+        <v>215</v>
       </c>
       <c r="F57" t="n">
-        <v>328.382</v>
+        <v>45420.7023</v>
       </c>
       <c r="G57" t="n">
-        <v>216.4433333333332</v>
+        <v>216.4716666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>214.7</v>
+        <v>211.3</v>
       </c>
       <c r="C58" t="n">
-        <v>214.7</v>
+        <v>211.3</v>
       </c>
       <c r="D58" t="n">
-        <v>214.7</v>
+        <v>211.3</v>
       </c>
       <c r="E58" t="n">
-        <v>214.7</v>
+        <v>211.3</v>
       </c>
       <c r="F58" t="n">
-        <v>3537.2246</v>
+        <v>328.382</v>
       </c>
       <c r="G58" t="n">
-        <v>216.4216666666665</v>
+        <v>216.4433333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>216.9</v>
+        <v>214.7</v>
       </c>
       <c r="C59" t="n">
-        <v>216.9</v>
+        <v>214.7</v>
       </c>
       <c r="D59" t="n">
-        <v>216.9</v>
+        <v>214.7</v>
       </c>
       <c r="E59" t="n">
-        <v>216.9</v>
+        <v>214.7</v>
       </c>
       <c r="F59" t="n">
-        <v>805.9008</v>
+        <v>3537.2246</v>
       </c>
       <c r="G59" t="n">
-        <v>216.4866666666665</v>
+        <v>216.4216666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>212.3</v>
+        <v>216.9</v>
       </c>
       <c r="C60" t="n">
-        <v>212.3</v>
+        <v>216.9</v>
       </c>
       <c r="D60" t="n">
-        <v>212.3</v>
+        <v>216.9</v>
       </c>
       <c r="E60" t="n">
-        <v>212.3</v>
+        <v>216.9</v>
       </c>
       <c r="F60" t="n">
-        <v>164.1</v>
+        <v>805.9008</v>
       </c>
       <c r="G60" t="n">
-        <v>216.4266666666665</v>
+        <v>216.4866666666665</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>209.2</v>
+        <v>212.3</v>
       </c>
       <c r="C61" t="n">
-        <v>209.2</v>
+        <v>212.3</v>
       </c>
       <c r="D61" t="n">
-        <v>209.2</v>
+        <v>212.3</v>
       </c>
       <c r="E61" t="n">
-        <v>209.2</v>
+        <v>212.3</v>
       </c>
       <c r="F61" t="n">
-        <v>455.7142</v>
+        <v>164.1</v>
       </c>
       <c r="G61" t="n">
-        <v>216.3116666666665</v>
+        <v>216.4266666666665</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,31 +2551,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>214</v>
+        <v>209.2</v>
       </c>
       <c r="C62" t="n">
-        <v>214</v>
+        <v>209.2</v>
       </c>
       <c r="D62" t="n">
-        <v>214</v>
+        <v>209.2</v>
       </c>
       <c r="E62" t="n">
-        <v>214</v>
+        <v>209.2</v>
       </c>
       <c r="F62" t="n">
-        <v>4304.4918</v>
+        <v>455.7142</v>
       </c>
       <c r="G62" t="n">
-        <v>216.2466666666665</v>
+        <v>216.3116666666665</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2571,29 +2593,37 @@
         <v>214</v>
       </c>
       <c r="C63" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D63" t="n">
         <v>214</v>
       </c>
       <c r="E63" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F63" t="n">
-        <v>8706.247600000001</v>
+        <v>4304.4918</v>
       </c>
       <c r="G63" t="n">
-        <v>216.1333333333332</v>
+        <v>216.2466666666665</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,32 +2633,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>210.2</v>
+        <v>214</v>
       </c>
       <c r="C64" t="n">
-        <v>210.2</v>
+        <v>210</v>
       </c>
       <c r="D64" t="n">
-        <v>210.2</v>
+        <v>214</v>
       </c>
       <c r="E64" t="n">
-        <v>210.2</v>
+        <v>210</v>
       </c>
       <c r="F64" t="n">
-        <v>24.5516</v>
+        <v>8706.247600000001</v>
       </c>
       <c r="G64" t="n">
-        <v>216.0233333333332</v>
+        <v>216.1333333333332</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>214</v>
+      </c>
+      <c r="K64" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2688,10 @@
         <v>210.2</v>
       </c>
       <c r="F65" t="n">
-        <v>8.4533</v>
+        <v>24.5516</v>
       </c>
       <c r="G65" t="n">
-        <v>215.9349999999999</v>
+        <v>216.0233333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,32 +2717,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>213.8</v>
+        <v>210.2</v>
       </c>
       <c r="C66" t="n">
-        <v>213.9</v>
+        <v>210.2</v>
       </c>
       <c r="D66" t="n">
-        <v>213.9</v>
+        <v>210.2</v>
       </c>
       <c r="E66" t="n">
-        <v>213.8</v>
+        <v>210.2</v>
       </c>
       <c r="F66" t="n">
-        <v>1956.8894</v>
+        <v>8.4533</v>
       </c>
       <c r="G66" t="n">
-        <v>215.9083333333332</v>
+        <v>215.9349999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2711,19 +2763,19 @@
         <v>213.8</v>
       </c>
       <c r="C67" t="n">
-        <v>213.8</v>
+        <v>213.9</v>
       </c>
       <c r="D67" t="n">
-        <v>213.8</v>
+        <v>213.9</v>
       </c>
       <c r="E67" t="n">
         <v>213.8</v>
       </c>
       <c r="F67" t="n">
-        <v>6754.9111</v>
+        <v>1956.8894</v>
       </c>
       <c r="G67" t="n">
-        <v>215.8799999999999</v>
+        <v>215.9083333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2801,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>215.4</v>
+        <v>213.8</v>
       </c>
       <c r="C68" t="n">
-        <v>215.4</v>
+        <v>213.8</v>
       </c>
       <c r="D68" t="n">
-        <v>215.4</v>
+        <v>213.8</v>
       </c>
       <c r="E68" t="n">
-        <v>215.4</v>
+        <v>213.8</v>
       </c>
       <c r="F68" t="n">
-        <v>4304.4918</v>
+        <v>6754.9111</v>
       </c>
       <c r="G68" t="n">
-        <v>215.8783333333332</v>
+        <v>215.8799999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2842,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>219.9</v>
+        <v>215.4</v>
       </c>
       <c r="C69" t="n">
-        <v>219.9</v>
+        <v>215.4</v>
       </c>
       <c r="D69" t="n">
-        <v>219.9</v>
+        <v>215.4</v>
       </c>
       <c r="E69" t="n">
-        <v>219.9</v>
+        <v>215.4</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>4304.4918</v>
       </c>
       <c r="G69" t="n">
-        <v>215.9516666666665</v>
+        <v>215.8783333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2883,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>219</v>
+        <v>219.9</v>
       </c>
       <c r="C70" t="n">
-        <v>219</v>
+        <v>219.9</v>
       </c>
       <c r="D70" t="n">
-        <v>219</v>
+        <v>219.9</v>
       </c>
       <c r="E70" t="n">
-        <v>219</v>
+        <v>219.9</v>
       </c>
       <c r="F70" t="n">
         <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>216.0099999999999</v>
+        <v>215.9516666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2907,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2927,19 @@
         <v>219</v>
       </c>
       <c r="C71" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D71" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E71" t="n">
         <v>219</v>
       </c>
       <c r="F71" t="n">
-        <v>514.5386179185521</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>216.1183333333332</v>
+        <v>216.0099999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2965,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C72" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D72" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E72" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F72" t="n">
-        <v>603.5784</v>
+        <v>514.5386179185521</v>
       </c>
       <c r="G72" t="n">
-        <v>216.1599999999999</v>
+        <v>216.1183333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +3018,10 @@
         <v>218</v>
       </c>
       <c r="F73" t="n">
-        <v>1130.3368</v>
+        <v>603.5784</v>
       </c>
       <c r="G73" t="n">
-        <v>216.2266666666665</v>
+        <v>216.1599999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3047,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C74" t="n">
-        <v>212.6</v>
+        <v>218</v>
       </c>
       <c r="D74" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E74" t="n">
-        <v>212.6</v>
+        <v>218</v>
       </c>
       <c r="F74" t="n">
-        <v>1261</v>
+        <v>1130.3368</v>
       </c>
       <c r="G74" t="n">
-        <v>216.2033333333332</v>
+        <v>216.2266666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2991,16 +3091,16 @@
         <v>215</v>
       </c>
       <c r="C75" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="D75" t="n">
         <v>215</v>
       </c>
       <c r="E75" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="F75" t="n">
-        <v>1213.512</v>
+        <v>1261</v>
       </c>
       <c r="G75" t="n">
         <v>216.2033333333332</v>
@@ -3012,8 +3112,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3129,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>212.6</v>
+        <v>215</v>
       </c>
       <c r="C76" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="D76" t="n">
-        <v>212.6</v>
+        <v>215</v>
       </c>
       <c r="E76" t="n">
-        <v>212.6</v>
+        <v>214</v>
       </c>
       <c r="F76" t="n">
-        <v>2514.7967</v>
+        <v>1213.512</v>
       </c>
       <c r="G76" t="n">
-        <v>216.2633333333332</v>
+        <v>216.2033333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3170,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="C77" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="D77" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="E77" t="n">
-        <v>214</v>
+        <v>212.6</v>
       </c>
       <c r="F77" t="n">
-        <v>514.5386</v>
+        <v>2514.7967</v>
       </c>
       <c r="G77" t="n">
-        <v>216.3283333333332</v>
+        <v>216.2633333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3211,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" t="n">
-        <v>214.1</v>
+        <v>214</v>
       </c>
       <c r="D78" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E78" t="n">
-        <v>214.1</v>
+        <v>214</v>
       </c>
       <c r="F78" t="n">
-        <v>328.382</v>
+        <v>514.5386</v>
       </c>
       <c r="G78" t="n">
-        <v>216.3949999999999</v>
+        <v>216.3283333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3252,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>218.9</v>
+        <v>215</v>
       </c>
       <c r="C79" t="n">
-        <v>218.9</v>
+        <v>214.1</v>
       </c>
       <c r="D79" t="n">
-        <v>218.9</v>
+        <v>215</v>
       </c>
       <c r="E79" t="n">
-        <v>218.9</v>
+        <v>214.1</v>
       </c>
       <c r="F79" t="n">
-        <v>662.8819999999999</v>
+        <v>328.382</v>
       </c>
       <c r="G79" t="n">
-        <v>216.5416666666665</v>
+        <v>216.3949999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3305,10 @@
         <v>218.9</v>
       </c>
       <c r="F80" t="n">
-        <v>521.8676</v>
+        <v>662.8819999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>216.6866666666665</v>
+        <v>216.5416666666665</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3334,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>220</v>
+        <v>218.9</v>
       </c>
       <c r="C81" t="n">
-        <v>220</v>
+        <v>218.9</v>
       </c>
       <c r="D81" t="n">
-        <v>220</v>
+        <v>218.9</v>
       </c>
       <c r="E81" t="n">
-        <v>220</v>
+        <v>218.9</v>
       </c>
       <c r="F81" t="n">
-        <v>260.4676</v>
+        <v>521.8676</v>
       </c>
       <c r="G81" t="n">
-        <v>216.8183333333332</v>
+        <v>216.6866666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3375,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
       <c r="C82" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
       <c r="D82" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
       <c r="E82" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
       <c r="F82" t="n">
-        <v>6</v>
+        <v>260.4676</v>
       </c>
       <c r="G82" t="n">
-        <v>216.9116666666665</v>
+        <v>216.8183333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3399,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3428,10 @@
         <v>220.6</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>217.0049999999999</v>
+        <v>216.9116666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3457,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>218.9</v>
+        <v>220.6</v>
       </c>
       <c r="C84" t="n">
-        <v>218.9</v>
+        <v>220.6</v>
       </c>
       <c r="D84" t="n">
-        <v>218.9</v>
+        <v>220.6</v>
       </c>
       <c r="E84" t="n">
-        <v>218.9</v>
+        <v>220.6</v>
       </c>
       <c r="F84" t="n">
-        <v>260.4676</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>217.0699999999999</v>
+        <v>217.0049999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3510,10 @@
         <v>218.9</v>
       </c>
       <c r="F85" t="n">
-        <v>7283.1914</v>
+        <v>260.4676</v>
       </c>
       <c r="G85" t="n">
-        <v>217.1349999999998</v>
+        <v>217.0699999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3551,10 @@
         <v>218.9</v>
       </c>
       <c r="F86" t="n">
-        <v>396</v>
+        <v>7283.1914</v>
       </c>
       <c r="G86" t="n">
-        <v>217.2766666666665</v>
+        <v>217.1349999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3592,10 @@
         <v>218.9</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5483</v>
+        <v>396</v>
       </c>
       <c r="G87" t="n">
-        <v>217.3416666666665</v>
+        <v>217.2766666666665</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3621,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>218</v>
+        <v>218.9</v>
       </c>
       <c r="C88" t="n">
-        <v>218</v>
+        <v>218.9</v>
       </c>
       <c r="D88" t="n">
-        <v>218</v>
+        <v>218.9</v>
       </c>
       <c r="E88" t="n">
-        <v>218</v>
+        <v>218.9</v>
       </c>
       <c r="F88" t="n">
-        <v>31.4057</v>
+        <v>0.5483</v>
       </c>
       <c r="G88" t="n">
-        <v>217.3916666666665</v>
+        <v>217.3416666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3645,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3662,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C89" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D89" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F89" t="n">
-        <v>130.7756</v>
+        <v>31.4057</v>
       </c>
       <c r="G89" t="n">
-        <v>217.4583333333332</v>
+        <v>217.3916666666665</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3703,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C90" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D90" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E90" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F90" t="n">
-        <v>4329.0732</v>
+        <v>130.7756</v>
       </c>
       <c r="G90" t="n">
-        <v>217.4349999999999</v>
+        <v>217.4583333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3756,10 @@
         <v>218</v>
       </c>
       <c r="F91" t="n">
-        <v>46</v>
+        <v>4329.0732</v>
       </c>
       <c r="G91" t="n">
-        <v>217.4633333333332</v>
+        <v>217.4349999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3797,10 @@
         <v>218</v>
       </c>
       <c r="F92" t="n">
-        <v>725.0515</v>
+        <v>46</v>
       </c>
       <c r="G92" t="n">
-        <v>217.4316666666665</v>
+        <v>217.4633333333332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3838,10 @@
         <v>218</v>
       </c>
       <c r="F93" t="n">
-        <v>3368.4558</v>
+        <v>725.0515</v>
       </c>
       <c r="G93" t="n">
-        <v>217.3983333333332</v>
+        <v>217.4316666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3850,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,19 +3870,19 @@
         <v>218</v>
       </c>
       <c r="C94" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" t="n">
         <v>218</v>
       </c>
       <c r="E94" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F94" t="n">
-        <v>5000</v>
+        <v>3368.4558</v>
       </c>
       <c r="G94" t="n">
-        <v>217.3466666666665</v>
+        <v>217.3983333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3908,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95" t="n">
         <v>217</v>
       </c>
       <c r="D95" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E95" t="n">
         <v>217</v>
       </c>
       <c r="F95" t="n">
-        <v>53.8834</v>
+        <v>5000</v>
       </c>
       <c r="G95" t="n">
-        <v>217.2633333333332</v>
+        <v>217.3466666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3932,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3726,19 +3952,19 @@
         <v>217</v>
       </c>
       <c r="C96" t="n">
-        <v>214.3</v>
+        <v>217</v>
       </c>
       <c r="D96" t="n">
         <v>217</v>
       </c>
       <c r="E96" t="n">
-        <v>214.3</v>
+        <v>217</v>
       </c>
       <c r="F96" t="n">
-        <v>5489.8025</v>
+        <v>53.8834</v>
       </c>
       <c r="G96" t="n">
-        <v>217.1366666666665</v>
+        <v>217.2633333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +3973,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3990,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C97" t="n">
-        <v>214.1</v>
+        <v>214.3</v>
       </c>
       <c r="D97" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E97" t="n">
-        <v>214.1</v>
+        <v>214.3</v>
       </c>
       <c r="F97" t="n">
-        <v>5702.9457</v>
+        <v>5489.8025</v>
       </c>
       <c r="G97" t="n">
-        <v>217.0066666666665</v>
+        <v>217.1366666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4014,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3796,19 +4034,19 @@
         <v>215</v>
       </c>
       <c r="C98" t="n">
-        <v>215</v>
+        <v>214.1</v>
       </c>
       <c r="D98" t="n">
         <v>215</v>
       </c>
       <c r="E98" t="n">
-        <v>215</v>
+        <v>214.1</v>
       </c>
       <c r="F98" t="n">
-        <v>4742.6316</v>
+        <v>5702.9457</v>
       </c>
       <c r="G98" t="n">
-        <v>216.8883333333332</v>
+        <v>217.0066666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4072,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="C99" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="D99" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="E99" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="F99" t="n">
-        <v>7529.4093</v>
+        <v>4742.6316</v>
       </c>
       <c r="G99" t="n">
-        <v>216.7583333333332</v>
+        <v>216.8883333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4113,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>212.9</v>
+        <v>214.1</v>
       </c>
       <c r="C100" t="n">
-        <v>212.9</v>
+        <v>214.1</v>
       </c>
       <c r="D100" t="n">
-        <v>212.9</v>
+        <v>214.1</v>
       </c>
       <c r="E100" t="n">
-        <v>212.9</v>
+        <v>214.1</v>
       </c>
       <c r="F100" t="n">
-        <v>370</v>
+        <v>7529.4093</v>
       </c>
       <c r="G100" t="n">
-        <v>216.6083333333332</v>
+        <v>216.7583333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4137,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4154,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>213</v>
+        <v>212.9</v>
       </c>
       <c r="C101" t="n">
-        <v>213</v>
+        <v>212.9</v>
       </c>
       <c r="D101" t="n">
-        <v>213</v>
+        <v>212.9</v>
       </c>
       <c r="E101" t="n">
-        <v>213</v>
+        <v>212.9</v>
       </c>
       <c r="F101" t="n">
-        <v>1659.9888</v>
+        <v>370</v>
       </c>
       <c r="G101" t="n">
-        <v>216.4933333333332</v>
+        <v>216.6083333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4195,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>213.3</v>
+        <v>213</v>
       </c>
       <c r="C102" t="n">
-        <v>213.3</v>
+        <v>213</v>
       </c>
       <c r="D102" t="n">
-        <v>213.3</v>
+        <v>213</v>
       </c>
       <c r="E102" t="n">
-        <v>213.3</v>
+        <v>213</v>
       </c>
       <c r="F102" t="n">
-        <v>2900</v>
+        <v>1659.9888</v>
       </c>
       <c r="G102" t="n">
-        <v>216.3833333333332</v>
+        <v>216.4933333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4219,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4236,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>213.4</v>
+        <v>213.3</v>
       </c>
       <c r="C103" t="n">
-        <v>213.4</v>
+        <v>213.3</v>
       </c>
       <c r="D103" t="n">
-        <v>213.4</v>
+        <v>213.3</v>
       </c>
       <c r="E103" t="n">
-        <v>213.4</v>
+        <v>213.3</v>
       </c>
       <c r="F103" t="n">
-        <v>5844.4458</v>
+        <v>2900</v>
       </c>
       <c r="G103" t="n">
-        <v>216.2749999999999</v>
+        <v>216.3833333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4260,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4277,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>213.5</v>
+        <v>213.4</v>
       </c>
       <c r="C104" t="n">
-        <v>213.5</v>
+        <v>213.4</v>
       </c>
       <c r="D104" t="n">
-        <v>213.5</v>
+        <v>213.4</v>
       </c>
       <c r="E104" t="n">
-        <v>213.5</v>
+        <v>213.4</v>
       </c>
       <c r="F104" t="n">
-        <v>2340.0049</v>
+        <v>5844.4458</v>
       </c>
       <c r="G104" t="n">
-        <v>216.1683333333332</v>
+        <v>216.2749999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4318,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>216.9</v>
+        <v>213.5</v>
       </c>
       <c r="C105" t="n">
-        <v>216.9</v>
+        <v>213.5</v>
       </c>
       <c r="D105" t="n">
-        <v>216.9</v>
+        <v>213.5</v>
       </c>
       <c r="E105" t="n">
-        <v>216.9</v>
+        <v>213.5</v>
       </c>
       <c r="F105" t="n">
-        <v>43.6534</v>
+        <v>2340.0049</v>
       </c>
       <c r="G105" t="n">
-        <v>216.1183333333332</v>
+        <v>216.1683333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4359,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>213.4</v>
+        <v>216.9</v>
       </c>
       <c r="C106" t="n">
-        <v>213.4</v>
+        <v>216.9</v>
       </c>
       <c r="D106" t="n">
-        <v>213.4</v>
+        <v>216.9</v>
       </c>
       <c r="E106" t="n">
-        <v>213.4</v>
+        <v>216.9</v>
       </c>
       <c r="F106" t="n">
-        <v>3504.4409</v>
+        <v>43.6534</v>
       </c>
       <c r="G106" t="n">
-        <v>215.9733333333332</v>
+        <v>216.1183333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4400,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>213.9</v>
+        <v>213.4</v>
       </c>
       <c r="C107" t="n">
-        <v>213.9</v>
+        <v>213.4</v>
       </c>
       <c r="D107" t="n">
-        <v>213.9</v>
+        <v>213.4</v>
       </c>
       <c r="E107" t="n">
-        <v>213.9</v>
+        <v>213.4</v>
       </c>
       <c r="F107" t="n">
-        <v>2068.1903</v>
+        <v>3504.4409</v>
       </c>
       <c r="G107" t="n">
-        <v>215.8716666666665</v>
+        <v>215.9733333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4441,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>214</v>
+        <v>213.9</v>
       </c>
       <c r="C108" t="n">
-        <v>214</v>
+        <v>213.9</v>
       </c>
       <c r="D108" t="n">
-        <v>214</v>
+        <v>213.9</v>
       </c>
       <c r="E108" t="n">
-        <v>214</v>
+        <v>213.9</v>
       </c>
       <c r="F108" t="n">
-        <v>7010.724</v>
+        <v>2068.1903</v>
       </c>
       <c r="G108" t="n">
-        <v>215.7733333333332</v>
+        <v>215.8716666666665</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4482,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>214.1</v>
+        <v>214</v>
       </c>
       <c r="C109" t="n">
-        <v>214.1</v>
+        <v>214</v>
       </c>
       <c r="D109" t="n">
-        <v>214.1</v>
+        <v>214</v>
       </c>
       <c r="E109" t="n">
-        <v>214.1</v>
+        <v>214</v>
       </c>
       <c r="F109" t="n">
-        <v>4239.37</v>
+        <v>7010.724</v>
       </c>
       <c r="G109" t="n">
-        <v>215.6766666666666</v>
+        <v>215.7733333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4506,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4523,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>216.9</v>
+        <v>214.1</v>
       </c>
       <c r="C110" t="n">
-        <v>216.9</v>
+        <v>214.1</v>
       </c>
       <c r="D110" t="n">
-        <v>216.9</v>
+        <v>214.1</v>
       </c>
       <c r="E110" t="n">
-        <v>216.9</v>
+        <v>214.1</v>
       </c>
       <c r="F110" t="n">
-        <v>25</v>
+        <v>4239.37</v>
       </c>
       <c r="G110" t="n">
-        <v>215.7049999999999</v>
+        <v>215.6766666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4564,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>214.1</v>
+        <v>216.9</v>
       </c>
       <c r="C111" t="n">
-        <v>214</v>
+        <v>216.9</v>
       </c>
       <c r="D111" t="n">
-        <v>214.1</v>
+        <v>216.9</v>
       </c>
       <c r="E111" t="n">
-        <v>214</v>
+        <v>216.9</v>
       </c>
       <c r="F111" t="n">
-        <v>6983.374</v>
+        <v>25</v>
       </c>
       <c r="G111" t="n">
-        <v>215.6833333333332</v>
+        <v>215.7049999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4605,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>214.9</v>
+        <v>214.1</v>
       </c>
       <c r="C112" t="n">
-        <v>214.9</v>
+        <v>214</v>
       </c>
       <c r="D112" t="n">
-        <v>214.9</v>
+        <v>214.1</v>
       </c>
       <c r="E112" t="n">
-        <v>214.9</v>
+        <v>214</v>
       </c>
       <c r="F112" t="n">
-        <v>766.4841</v>
+        <v>6983.374</v>
       </c>
       <c r="G112" t="n">
-        <v>215.6766666666666</v>
+        <v>215.6833333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4321,33 +4649,33 @@
         <v>214.9</v>
       </c>
       <c r="C113" t="n">
-        <v>215</v>
+        <v>214.9</v>
       </c>
       <c r="D113" t="n">
-        <v>215</v>
+        <v>214.9</v>
       </c>
       <c r="E113" t="n">
         <v>214.9</v>
       </c>
       <c r="F113" t="n">
-        <v>923.5448</v>
+        <v>766.4841</v>
       </c>
       <c r="G113" t="n">
-        <v>215.5949999999999</v>
+        <v>215.6766666666666</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -4359,7 +4687,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>215</v>
+        <v>214.9</v>
       </c>
       <c r="C114" t="n">
         <v>215</v>
@@ -4368,24 +4696,24 @@
         <v>215</v>
       </c>
       <c r="E114" t="n">
-        <v>215</v>
+        <v>214.9</v>
       </c>
       <c r="F114" t="n">
-        <v>121.4964</v>
+        <v>923.5448</v>
       </c>
       <c r="G114" t="n">
-        <v>215.5783333333332</v>
+        <v>215.5949999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>215</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4403,19 +4731,19 @@
         <v>215</v>
       </c>
       <c r="C115" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="D115" t="n">
         <v>215</v>
       </c>
       <c r="E115" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="F115" t="n">
-        <v>1085</v>
+        <v>121.4964</v>
       </c>
       <c r="G115" t="n">
-        <v>215.5583333333333</v>
+        <v>215.5783333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4424,7 +4752,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4439,22 +4769,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>215.9</v>
+        <v>215</v>
       </c>
       <c r="C116" t="n">
-        <v>215.9</v>
+        <v>214.1</v>
       </c>
       <c r="D116" t="n">
-        <v>215.9</v>
+        <v>215</v>
       </c>
       <c r="E116" t="n">
-        <v>215.9</v>
+        <v>214.1</v>
       </c>
       <c r="F116" t="n">
-        <v>2262.266</v>
+        <v>1085</v>
       </c>
       <c r="G116" t="n">
-        <v>215.5733333333332</v>
+        <v>215.5583333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,7 +4793,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,22 +4810,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>216</v>
+        <v>215.9</v>
       </c>
       <c r="C117" t="n">
-        <v>216.5</v>
+        <v>215.9</v>
       </c>
       <c r="D117" t="n">
-        <v>216.5</v>
+        <v>215.9</v>
       </c>
       <c r="E117" t="n">
-        <v>216</v>
+        <v>215.9</v>
       </c>
       <c r="F117" t="n">
-        <v>5866.2265</v>
+        <v>2262.266</v>
       </c>
       <c r="G117" t="n">
-        <v>215.6599999999999</v>
+        <v>215.5733333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4502,7 +4834,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,22 +4851,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C118" t="n">
-        <v>215</v>
+        <v>216.5</v>
       </c>
       <c r="D118" t="n">
-        <v>215</v>
+        <v>216.5</v>
       </c>
       <c r="E118" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F118" t="n">
-        <v>137.2283</v>
+        <v>5866.2265</v>
       </c>
       <c r="G118" t="n">
-        <v>215.6649999999999</v>
+        <v>215.6599999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4541,7 +4875,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,22 +4892,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>214.2</v>
+        <v>215</v>
       </c>
       <c r="C119" t="n">
-        <v>214.2</v>
+        <v>215</v>
       </c>
       <c r="D119" t="n">
-        <v>214.2</v>
+        <v>215</v>
       </c>
       <c r="E119" t="n">
-        <v>214.2</v>
+        <v>215</v>
       </c>
       <c r="F119" t="n">
-        <v>5625.5011</v>
+        <v>137.2283</v>
       </c>
       <c r="G119" t="n">
-        <v>215.6199999999999</v>
+        <v>215.6649999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4580,7 +4916,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,33 +4933,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>215.9</v>
+        <v>214.2</v>
       </c>
       <c r="C120" t="n">
-        <v>215.9</v>
+        <v>214.2</v>
       </c>
       <c r="D120" t="n">
-        <v>215.9</v>
+        <v>214.2</v>
       </c>
       <c r="E120" t="n">
-        <v>215.9</v>
+        <v>214.2</v>
       </c>
       <c r="F120" t="n">
-        <v>5.1672</v>
+        <v>5625.5011</v>
       </c>
       <c r="G120" t="n">
-        <v>215.6799999999999</v>
+        <v>215.6199999999999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,33 +4974,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>214.6</v>
+        <v>215.9</v>
       </c>
       <c r="C121" t="n">
-        <v>214.4</v>
+        <v>215.9</v>
       </c>
       <c r="D121" t="n">
-        <v>214.6</v>
+        <v>215.9</v>
       </c>
       <c r="E121" t="n">
-        <v>214.4</v>
+        <v>215.9</v>
       </c>
       <c r="F121" t="n">
-        <v>7052.895</v>
+        <v>5.1672</v>
       </c>
       <c r="G121" t="n">
-        <v>215.7666666666666</v>
+        <v>215.6799999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,22 +5015,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>214.5</v>
+        <v>214.6</v>
       </c>
       <c r="C122" t="n">
         <v>214.4</v>
       </c>
       <c r="D122" t="n">
-        <v>214.5</v>
+        <v>214.6</v>
       </c>
       <c r="E122" t="n">
         <v>214.4</v>
       </c>
       <c r="F122" t="n">
-        <v>553.2405</v>
+        <v>7052.895</v>
       </c>
       <c r="G122" t="n">
-        <v>215.7733333333332</v>
+        <v>215.7666666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4701,7 +5039,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,22 +5056,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>214.4</v>
+        <v>214.5</v>
       </c>
       <c r="C123" t="n">
         <v>214.4</v>
       </c>
       <c r="D123" t="n">
-        <v>214.4</v>
+        <v>214.5</v>
       </c>
       <c r="E123" t="n">
         <v>214.4</v>
       </c>
       <c r="F123" t="n">
-        <v>1412.8076</v>
+        <v>553.2405</v>
       </c>
       <c r="G123" t="n">
-        <v>215.8466666666666</v>
+        <v>215.7733333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4740,7 +5080,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4767,10 +5109,10 @@
         <v>214.4</v>
       </c>
       <c r="F124" t="n">
-        <v>1087.9469</v>
+        <v>1412.8076</v>
       </c>
       <c r="G124" t="n">
-        <v>215.9166666666665</v>
+        <v>215.8466666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4779,7 +5121,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,19 +5141,19 @@
         <v>214.4</v>
       </c>
       <c r="C125" t="n">
-        <v>215.8</v>
+        <v>214.4</v>
       </c>
       <c r="D125" t="n">
-        <v>215.8</v>
+        <v>214.4</v>
       </c>
       <c r="E125" t="n">
         <v>214.4</v>
       </c>
       <c r="F125" t="n">
-        <v>4135.2324</v>
+        <v>1087.9469</v>
       </c>
       <c r="G125" t="n">
-        <v>216.0099999999998</v>
+        <v>215.9166666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4818,7 +5162,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,22 +5179,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>215.1</v>
+        <v>214.4</v>
       </c>
       <c r="C126" t="n">
-        <v>215.1</v>
+        <v>215.8</v>
       </c>
       <c r="D126" t="n">
-        <v>215.1</v>
+        <v>215.8</v>
       </c>
       <c r="E126" t="n">
-        <v>215.1</v>
+        <v>214.4</v>
       </c>
       <c r="F126" t="n">
-        <v>1105.6619</v>
+        <v>4135.2324</v>
       </c>
       <c r="G126" t="n">
-        <v>216.0299999999999</v>
+        <v>216.0099999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4857,7 +5203,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,10 +5232,10 @@
         <v>215.1</v>
       </c>
       <c r="F127" t="n">
-        <v>7.8298</v>
+        <v>1105.6619</v>
       </c>
       <c r="G127" t="n">
-        <v>216.0516666666666</v>
+        <v>216.0299999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4896,7 +5244,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,33 +5261,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>216.5</v>
+        <v>215.1</v>
       </c>
       <c r="C128" t="n">
-        <v>216.9</v>
+        <v>215.1</v>
       </c>
       <c r="D128" t="n">
-        <v>216.9</v>
+        <v>215.1</v>
       </c>
       <c r="E128" t="n">
-        <v>216.5</v>
+        <v>215.1</v>
       </c>
       <c r="F128" t="n">
-        <v>2146</v>
+        <v>7.8298</v>
       </c>
       <c r="G128" t="n">
-        <v>216.0766666666665</v>
+        <v>216.0516666666666</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4952,33 +5302,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>216.9</v>
+        <v>216.5</v>
       </c>
       <c r="C129" t="n">
         <v>216.9</v>
       </c>
       <c r="D129" t="n">
-        <v>217</v>
+        <v>216.9</v>
       </c>
       <c r="E129" t="n">
-        <v>216.9</v>
+        <v>216.5</v>
       </c>
       <c r="F129" t="n">
-        <v>141.759</v>
+        <v>2146</v>
       </c>
       <c r="G129" t="n">
-        <v>216.0266666666666</v>
+        <v>216.0766666666665</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4999,16 +5349,16 @@
         <v>216.9</v>
       </c>
       <c r="D130" t="n">
-        <v>216.9</v>
+        <v>217</v>
       </c>
       <c r="E130" t="n">
         <v>216.9</v>
       </c>
       <c r="F130" t="n">
-        <v>127.3891</v>
+        <v>141.759</v>
       </c>
       <c r="G130" t="n">
-        <v>215.9916666666665</v>
+        <v>216.0266666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5017,7 +5367,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,22 +5384,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="C131" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="D131" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="E131" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="F131" t="n">
-        <v>22.93577981651376</v>
+        <v>127.3891</v>
       </c>
       <c r="G131" t="n">
-        <v>215.9416666666665</v>
+        <v>215.9916666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5056,7 +5408,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,19 +5428,19 @@
         <v>218</v>
       </c>
       <c r="C132" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D132" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E132" t="n">
         <v>218</v>
       </c>
       <c r="F132" t="n">
-        <v>16000</v>
+        <v>22.93577981651376</v>
       </c>
       <c r="G132" t="n">
-        <v>215.9749999999999</v>
+        <v>215.9416666666665</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5095,7 +5449,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,16 +5469,16 @@
         <v>218</v>
       </c>
       <c r="C133" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D133" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E133" t="n">
         <v>218</v>
       </c>
       <c r="F133" t="n">
-        <v>1450</v>
+        <v>16000</v>
       </c>
       <c r="G133" t="n">
         <v>215.9749999999999</v>
@@ -5134,7 +5490,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,10 +5519,10 @@
         <v>218</v>
       </c>
       <c r="F134" t="n">
-        <v>6656.6732</v>
+        <v>1450</v>
       </c>
       <c r="G134" t="n">
-        <v>216.0649999999999</v>
+        <v>215.9749999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5173,7 +5531,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,22 +5548,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>219.5</v>
+        <v>218</v>
       </c>
       <c r="C135" t="n">
-        <v>219.5</v>
+        <v>218</v>
       </c>
       <c r="D135" t="n">
-        <v>219.5</v>
+        <v>218</v>
       </c>
       <c r="E135" t="n">
-        <v>219.5</v>
+        <v>218</v>
       </c>
       <c r="F135" t="n">
-        <v>1036.1807</v>
+        <v>6656.6732</v>
       </c>
       <c r="G135" t="n">
-        <v>216.1566666666666</v>
+        <v>216.0649999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5212,7 +5572,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5227,22 +5589,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>220</v>
+        <v>219.5</v>
       </c>
       <c r="C136" t="n">
-        <v>220</v>
+        <v>219.5</v>
       </c>
       <c r="D136" t="n">
-        <v>220</v>
+        <v>219.5</v>
       </c>
       <c r="E136" t="n">
-        <v>220</v>
+        <v>219.5</v>
       </c>
       <c r="F136" t="n">
-        <v>819</v>
+        <v>1036.1807</v>
       </c>
       <c r="G136" t="n">
-        <v>216.2799999999999</v>
+        <v>216.1566666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5251,7 +5613,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,19 +5633,19 @@
         <v>220</v>
       </c>
       <c r="C137" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
       <c r="D137" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
       <c r="E137" t="n">
         <v>220</v>
       </c>
       <c r="F137" t="n">
-        <v>4563</v>
+        <v>819</v>
       </c>
       <c r="G137" t="n">
-        <v>216.3899999999999</v>
+        <v>216.2799999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5290,7 +5654,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,22 +5671,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>220</v>
+      </c>
+      <c r="C138" t="n">
         <v>220.6</v>
       </c>
-      <c r="C138" t="n">
-        <v>222.2</v>
-      </c>
       <c r="D138" t="n">
-        <v>222.2</v>
+        <v>220.6</v>
       </c>
       <c r="E138" t="n">
-        <v>220.6</v>
+        <v>220</v>
       </c>
       <c r="F138" t="n">
-        <v>21000</v>
+        <v>4563</v>
       </c>
       <c r="G138" t="n">
-        <v>216.5249999999999</v>
+        <v>216.3899999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5329,7 +5695,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,22 +5712,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>221.5</v>
+        <v>220.6</v>
       </c>
       <c r="C139" t="n">
-        <v>219.5</v>
+        <v>222.2</v>
       </c>
       <c r="D139" t="n">
-        <v>221.5</v>
+        <v>222.2</v>
       </c>
       <c r="E139" t="n">
-        <v>219.5</v>
+        <v>220.6</v>
       </c>
       <c r="F139" t="n">
-        <v>36</v>
+        <v>21000</v>
       </c>
       <c r="G139" t="n">
-        <v>216.5349999999999</v>
+        <v>216.5249999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5368,7 +5736,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,19 +5756,19 @@
         <v>221.5</v>
       </c>
       <c r="C140" t="n">
-        <v>221.5</v>
+        <v>219.5</v>
       </c>
       <c r="D140" t="n">
         <v>221.5</v>
       </c>
       <c r="E140" t="n">
-        <v>221.5</v>
+        <v>219.5</v>
       </c>
       <c r="F140" t="n">
-        <v>482</v>
+        <v>36</v>
       </c>
       <c r="G140" t="n">
-        <v>216.5783333333332</v>
+        <v>216.5349999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5407,7 +5777,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>212.3</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5422,37 +5794,80 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>482</v>
+      </c>
+      <c r="G141" t="n">
+        <v>216.5783333333332</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>222.1</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C142" t="n">
         <v>222.1</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D142" t="n">
         <v>222.1</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E142" t="n">
         <v>222.1</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F142" t="n">
         <v>4657.4165</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G142" t="n">
         <v>216.6133333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>108.8421</v>
       </c>
       <c r="G2" t="n">
+        <v>212.9133333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>212.315</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>763.5901</v>
       </c>
       <c r="G3" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="H3" t="n">
         <v>212.3633333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>10.36</v>
       </c>
       <c r="G4" t="n">
+        <v>213.7533333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>212.3933333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>6.585</v>
       </c>
       <c r="G5" t="n">
+        <v>214.0733333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>212.4733333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>4.033</v>
       </c>
       <c r="G6" t="n">
+        <v>214.2400000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>212.5316666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>9.791</v>
       </c>
       <c r="G7" t="n">
+        <v>214.3400000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>212.6216666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>14.915</v>
       </c>
       <c r="G8" t="n">
+        <v>214.4400000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>212.6799999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
+        <v>214.6733333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>212.7549999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1391.0945</v>
       </c>
       <c r="G10" t="n">
+        <v>215.1266666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>212.7683333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>357.4</v>
       </c>
       <c r="G11" t="n">
+        <v>215.3600000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>212.8583333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>254.3749</v>
       </c>
       <c r="G12" t="n">
+        <v>215.5333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>212.8499999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5.6368</v>
       </c>
       <c r="G13" t="n">
+        <v>215.7000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>212.8583333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1016.1334</v>
       </c>
       <c r="G14" t="n">
+        <v>215.5666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>212.8416666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,25 @@
         <v>1666.943</v>
       </c>
       <c r="G15" t="n">
+        <v>215.6333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>212.8083333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>214</v>
+      </c>
+      <c r="L15" t="n">
+        <v>214</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +989,29 @@
         <v>87.08969999999999</v>
       </c>
       <c r="G16" t="n">
+        <v>215.5066666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>212.7733333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>214</v>
+      </c>
+      <c r="L16" t="n">
+        <v>214</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1035,29 @@
         <v>5239.344</v>
       </c>
       <c r="G17" t="n">
+        <v>215.0333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>212.6549999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>214</v>
+      </c>
+      <c r="L17" t="n">
+        <v>214</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1081,27 @@
         <v>3610.33</v>
       </c>
       <c r="G18" t="n">
+        <v>214.5133333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>212.5549999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>214</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1125,27 @@
         <v>6403.068</v>
       </c>
       <c r="G19" t="n">
+        <v>214.0666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>212.4399999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>214</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1169,27 @@
         <v>7686.613</v>
       </c>
       <c r="G20" t="n">
+        <v>213.62</v>
+      </c>
+      <c r="H20" t="n">
         <v>212.3916666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>214</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1213,29 @@
         <v>23195.8268</v>
       </c>
       <c r="G21" t="n">
+        <v>213.2666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>212.3016666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>214</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1259,27 @@
         <v>3</v>
       </c>
       <c r="G22" t="n">
+        <v>213.04</v>
+      </c>
+      <c r="H22" t="n">
         <v>212.3033333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>214</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1303,27 @@
         <v>105.1873</v>
       </c>
       <c r="G23" t="n">
+        <v>213.0066666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>212.3199999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>214</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1347,27 @@
         <v>5980.2041</v>
       </c>
       <c r="G24" t="n">
+        <v>212.9733333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>212.3699999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>214</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1391,27 @@
         <v>3869.87</v>
       </c>
       <c r="G25" t="n">
+        <v>212.94</v>
+      </c>
+      <c r="H25" t="n">
         <v>212.4233333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>214</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1435,27 @@
         <v>618.4324</v>
       </c>
       <c r="G26" t="n">
+        <v>212.9066666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>212.4766666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>214</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1479,27 @@
         <v>4000</v>
       </c>
       <c r="G27" t="n">
+        <v>212.6333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>212.4699999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>214</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1523,27 @@
         <v>413.3</v>
       </c>
       <c r="G28" t="n">
+        <v>212.6</v>
+      </c>
+      <c r="H28" t="n">
         <v>212.5516666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>214</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1567,27 @@
         <v>189.3</v>
       </c>
       <c r="G29" t="n">
+        <v>212.6666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>212.605</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>214</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1611,27 @@
         <v>5591.5352</v>
       </c>
       <c r="G30" t="n">
+        <v>212.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>212.6716666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>214</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1655,27 @@
         <v>5672.5514</v>
       </c>
       <c r="G31" t="n">
+        <v>213.0933333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>212.8116666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>214</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1699,27 @@
         <v>3000</v>
       </c>
       <c r="G32" t="n">
+        <v>213.58</v>
+      </c>
+      <c r="H32" t="n">
         <v>212.8999999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>214</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1743,27 @@
         <v>1568.853</v>
       </c>
       <c r="G33" t="n">
+        <v>214.2333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>213.0349999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>214</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1787,27 @@
         <v>189.3262</v>
       </c>
       <c r="G34" t="n">
+        <v>214.8933333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>213.235</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>214</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1831,27 @@
         <v>20676.0311</v>
       </c>
       <c r="G35" t="n">
+        <v>215.56</v>
+      </c>
+      <c r="H35" t="n">
         <v>213.4333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>214</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1875,27 @@
         <v>13011.956</v>
       </c>
       <c r="G36" t="n">
+        <v>216.3466666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>213.5366666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>214</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1919,27 @@
         <v>4406.1673</v>
       </c>
       <c r="G37" t="n">
+        <v>217.0000000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>213.7633333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>214</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1963,27 @@
         <v>26588.6478</v>
       </c>
       <c r="G38" t="n">
+        <v>217.4600000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>213.895</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>214</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2007,27 @@
         <v>5137.5049</v>
       </c>
       <c r="G39" t="n">
+        <v>217.9333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>214.0299999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>214</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2051,27 @@
         <v>831.3898</v>
       </c>
       <c r="G40" t="n">
+        <v>218.3933333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>214.195</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>214</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2095,27 @@
         <v>28152.6715</v>
       </c>
       <c r="G41" t="n">
+        <v>218.8533333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>214.4266666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>214</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2139,27 @@
         <v>7620.5451</v>
       </c>
       <c r="G42" t="n">
+        <v>219.4866666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>214.6249999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>214</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2183,27 @@
         <v>2041.2787</v>
       </c>
       <c r="G43" t="n">
+        <v>219.8133333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>214.8233333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>214</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2227,27 @@
         <v>490.0644</v>
       </c>
       <c r="G44" t="n">
+        <v>220.1400000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>215.0216666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>214</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2271,27 @@
         <v>321.4628</v>
       </c>
       <c r="G45" t="n">
+        <v>220.4666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>215.2033333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>214</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2315,27 @@
         <v>358.7476</v>
       </c>
       <c r="G46" t="n">
+        <v>220.5000000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>215.3849999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>214</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2359,27 @@
         <v>7803.849</v>
       </c>
       <c r="G47" t="n">
+        <v>220.8866666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>215.6033333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>214</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2403,27 @@
         <v>7000</v>
       </c>
       <c r="G48" t="n">
+        <v>220.8933333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>215.7849999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>214</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2447,27 @@
         <v>2560</v>
       </c>
       <c r="G49" t="n">
+        <v>220.8866666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>215.8999999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>214</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2491,27 @@
         <v>0.8804</v>
       </c>
       <c r="G50" t="n">
+        <v>220.8733333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>216.0316666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>214</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2535,27 @@
         <v>5396.1973</v>
       </c>
       <c r="G51" t="n">
+        <v>220.4200000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>216.0683333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>214</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2579,27 @@
         <v>440.99</v>
       </c>
       <c r="G52" t="n">
+        <v>219.9800000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>216.0899999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>214</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,22 +2623,27 @@
         <v>618.4324</v>
       </c>
       <c r="G53" t="n">
+        <v>219.5400000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>216.1116666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>214</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2272,26 +2667,27 @@
         <v>2.3</v>
       </c>
       <c r="G54" t="n">
+        <v>219.3933333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>216.2433333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="K54" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>214</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2315,24 +2711,27 @@
         <v>91.9444</v>
       </c>
       <c r="G55" t="n">
+        <v>219.0000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>216.3649999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>214</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2755,27 @@
         <v>129.635</v>
       </c>
       <c r="G56" t="n">
+        <v>218.5600000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>216.4199999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>214</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2799,27 @@
         <v>45420.7023</v>
       </c>
       <c r="G57" t="n">
+        <v>218.2333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>216.4716666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>214</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2843,27 @@
         <v>328.382</v>
       </c>
       <c r="G58" t="n">
+        <v>217.6600000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>216.4433333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>214</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2887,27 @@
         <v>3537.2246</v>
       </c>
       <c r="G59" t="n">
+        <v>217.3133333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>216.4216666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>214</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2931,27 @@
         <v>805.9008</v>
       </c>
       <c r="G60" t="n">
+        <v>217.1133333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>216.4866666666665</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>214</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2975,27 @@
         <v>164.1</v>
       </c>
       <c r="G61" t="n">
+        <v>216.6066666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>216.4266666666665</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>214</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,22 +3019,27 @@
         <v>455.7142</v>
       </c>
       <c r="G62" t="n">
+        <v>215.7466666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>216.3116666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>214</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2605,26 +3063,27 @@
         <v>4304.4918</v>
       </c>
       <c r="G63" t="n">
+        <v>215.3466666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>216.2466666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>209.2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>214</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,26 +3107,27 @@
         <v>8706.247600000001</v>
       </c>
       <c r="G64" t="n">
+        <v>214.6866666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>216.1333333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>214</v>
-      </c>
-      <c r="K64" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>214</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2691,24 +3151,27 @@
         <v>24.5516</v>
       </c>
       <c r="G65" t="n">
+        <v>214.04</v>
+      </c>
+      <c r="H65" t="n">
         <v>216.0233333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>214</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,26 +3195,27 @@
         <v>8.4533</v>
       </c>
       <c r="G66" t="n">
+        <v>213.7066666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>215.9349999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="K66" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>214</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2775,24 +3239,27 @@
         <v>1956.8894</v>
       </c>
       <c r="G67" t="n">
+        <v>213.6133333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>215.9083333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>214</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,24 +3283,27 @@
         <v>6754.9111</v>
       </c>
       <c r="G68" t="n">
+        <v>213.5133333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>215.8799999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>214</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2857,24 +3327,27 @@
         <v>4304.4918</v>
       </c>
       <c r="G69" t="n">
+        <v>213.2133333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>215.8783333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>214</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,24 +3371,27 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>213.4733333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>215.9516666666665</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>214</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,24 +3415,27 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
+        <v>213.7200000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>216.0099999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>214</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,24 +3459,27 @@
         <v>514.5386179185521</v>
       </c>
       <c r="G72" t="n">
+        <v>214.12</v>
+      </c>
+      <c r="H72" t="n">
         <v>216.1183333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>214</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,24 +3503,27 @@
         <v>603.5784</v>
       </c>
       <c r="G73" t="n">
+        <v>214.5666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>216.1599999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>214</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,24 +3547,27 @@
         <v>1130.3368</v>
       </c>
       <c r="G74" t="n">
+        <v>214.7866666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>216.2266666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>214</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3103,24 +3591,27 @@
         <v>1261</v>
       </c>
       <c r="G75" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="H75" t="n">
         <v>216.2033333333332</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>214</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,24 +3635,27 @@
         <v>1213.512</v>
       </c>
       <c r="G76" t="n">
+        <v>214.6133333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>216.2033333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>214</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3185,24 +3679,27 @@
         <v>2514.7967</v>
       </c>
       <c r="G77" t="n">
+        <v>214.84</v>
+      </c>
+      <c r="H77" t="n">
         <v>216.2633333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>214</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,24 +3723,27 @@
         <v>514.5386</v>
       </c>
       <c r="G78" t="n">
+        <v>214.84</v>
+      </c>
+      <c r="H78" t="n">
         <v>216.3283333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>214</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3267,24 +3767,27 @@
         <v>328.382</v>
       </c>
       <c r="G79" t="n">
+        <v>215.1133333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>216.3949999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>214</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,24 +3811,27 @@
         <v>662.8819999999999</v>
       </c>
       <c r="G80" t="n">
+        <v>215.6933333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>216.5416666666665</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>214</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3349,24 +3855,27 @@
         <v>521.8676</v>
       </c>
       <c r="G81" t="n">
+        <v>216.2733333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>216.6866666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>214</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,24 +3899,27 @@
         <v>260.4676</v>
       </c>
       <c r="G82" t="n">
+        <v>216.68</v>
+      </c>
+      <c r="H82" t="n">
         <v>216.8183333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>214</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,24 +3943,27 @@
         <v>6</v>
       </c>
       <c r="G83" t="n">
+        <v>217.1333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>216.9116666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>214</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3472,24 +3987,27 @@
         <v>3</v>
       </c>
       <c r="G84" t="n">
+        <v>217.48</v>
+      </c>
+      <c r="H84" t="n">
         <v>217.0049999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>214</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,24 +4031,27 @@
         <v>260.4676</v>
       </c>
       <c r="G85" t="n">
+        <v>217.4133333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>217.0699999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>214</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,24 +4075,27 @@
         <v>7283.1914</v>
       </c>
       <c r="G86" t="n">
+        <v>217.4066666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>217.1349999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>214</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3595,24 +4119,27 @@
         <v>396</v>
       </c>
       <c r="G87" t="n">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>217.2766666666665</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>214</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,24 +4163,27 @@
         <v>0.5483</v>
       </c>
       <c r="G88" t="n">
+        <v>217.3266666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>217.3416666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>214</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,24 +4207,27 @@
         <v>31.4057</v>
       </c>
       <c r="G89" t="n">
+        <v>217.3266666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>217.3916666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>214</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,24 +4251,27 @@
         <v>130.7756</v>
       </c>
       <c r="G90" t="n">
+        <v>217.7533333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>217.4583333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>214</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,24 +4295,27 @@
         <v>4329.0732</v>
       </c>
       <c r="G91" t="n">
+        <v>218.02</v>
+      </c>
+      <c r="H91" t="n">
         <v>217.4349999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>214</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,24 +4339,27 @@
         <v>46</v>
       </c>
       <c r="G92" t="n">
+        <v>218.3800000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>217.4633333333332</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>214</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3841,24 +4383,27 @@
         <v>725.0515</v>
       </c>
       <c r="G93" t="n">
+        <v>218.6466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>217.4316666666665</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>214</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,24 +4427,27 @@
         <v>3368.4558</v>
       </c>
       <c r="G94" t="n">
+        <v>218.9066666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>217.3983333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>214</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,24 +4471,27 @@
         <v>5000</v>
       </c>
       <c r="G95" t="n">
+        <v>218.7800000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>217.3466666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>214</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,24 +4515,27 @@
         <v>53.8834</v>
       </c>
       <c r="G96" t="n">
+        <v>218.6533333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>217.2633333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>214</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4005,24 +4559,27 @@
         <v>5489.8025</v>
       </c>
       <c r="G97" t="n">
+        <v>218.2733333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>217.1366666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>214</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,24 +4603,27 @@
         <v>5702.9457</v>
       </c>
       <c r="G98" t="n">
+        <v>217.8400000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>217.0066666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>214</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,24 +4647,27 @@
         <v>4742.6316</v>
       </c>
       <c r="G99" t="n">
+        <v>217.4666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>216.8883333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>214</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,24 +4691,27 @@
         <v>7529.4093</v>
       </c>
       <c r="G100" t="n">
+        <v>217.1466666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>216.7583333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>214</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,24 +4735,27 @@
         <v>370</v>
       </c>
       <c r="G101" t="n">
+        <v>216.7466666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>216.6083333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>214</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,24 +4779,27 @@
         <v>1659.9888</v>
       </c>
       <c r="G102" t="n">
+        <v>216.3533333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>216.4933333333332</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>214</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4251,24 +4823,27 @@
         <v>2900</v>
       </c>
       <c r="G103" t="n">
+        <v>215.98</v>
+      </c>
+      <c r="H103" t="n">
         <v>216.3833333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>214</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,24 +4867,27 @@
         <v>5844.4458</v>
       </c>
       <c r="G104" t="n">
+        <v>215.6733333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>216.2749999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>214</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,24 +4911,27 @@
         <v>2340.0049</v>
       </c>
       <c r="G105" t="n">
+        <v>215.3066666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>216.1683333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>214</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,24 +4955,27 @@
         <v>43.6534</v>
       </c>
       <c r="G106" t="n">
+        <v>215.2333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>216.1183333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>214</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4415,24 +4999,27 @@
         <v>3504.4409</v>
       </c>
       <c r="G107" t="n">
+        <v>214.9266666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>215.9733333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>214</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,24 +5043,27 @@
         <v>2068.1903</v>
       </c>
       <c r="G108" t="n">
+        <v>214.6533333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>215.8716666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>214</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4497,24 +5087,27 @@
         <v>7010.724</v>
       </c>
       <c r="G109" t="n">
+        <v>214.3866666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>215.7733333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>214</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,24 +5131,27 @@
         <v>4239.37</v>
       </c>
       <c r="G110" t="n">
+        <v>214.1933333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>215.6766666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>214</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,24 +5175,27 @@
         <v>25</v>
       </c>
       <c r="G111" t="n">
+        <v>214.1866666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>215.7049999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>214</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,24 +5219,27 @@
         <v>6983.374</v>
       </c>
       <c r="G112" t="n">
+        <v>214.1666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>215.6833333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>214</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4661,24 +5263,27 @@
         <v>766.4841</v>
       </c>
       <c r="G113" t="n">
+        <v>214.2200000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>215.6766666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>214</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,24 +5307,27 @@
         <v>923.5448</v>
       </c>
       <c r="G114" t="n">
+        <v>214.2200000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>215.5949999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>214</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,24 +5351,27 @@
         <v>121.4964</v>
       </c>
       <c r="G115" t="n">
+        <v>214.2800000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>215.5783333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>214</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,24 +5395,27 @@
         <v>1085</v>
       </c>
       <c r="G116" t="n">
+        <v>214.3600000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>215.5583333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>214</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4825,24 +5439,27 @@
         <v>2262.266</v>
       </c>
       <c r="G117" t="n">
+        <v>214.5533333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>215.5733333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>214</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,24 +5483,27 @@
         <v>5866.2265</v>
       </c>
       <c r="G118" t="n">
+        <v>214.7666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>215.6599999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>214</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4907,24 +5527,27 @@
         <v>137.2283</v>
       </c>
       <c r="G119" t="n">
+        <v>214.8733333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>215.6649999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>214</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,24 +5571,27 @@
         <v>5625.5011</v>
       </c>
       <c r="G120" t="n">
+        <v>214.92</v>
+      </c>
+      <c r="H120" t="n">
         <v>215.6199999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>214</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,24 +5615,27 @@
         <v>5.1672</v>
       </c>
       <c r="G121" t="n">
+        <v>214.8533333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>215.6799999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>214</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,24 +5659,27 @@
         <v>7052.895</v>
       </c>
       <c r="G122" t="n">
+        <v>214.92</v>
+      </c>
+      <c r="H122" t="n">
         <v>215.7666666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>214</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,24 +5703,27 @@
         <v>553.2405</v>
       </c>
       <c r="G123" t="n">
+        <v>214.9533333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>215.7733333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>214</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,24 +5747,27 @@
         <v>1412.8076</v>
       </c>
       <c r="G124" t="n">
+        <v>214.98</v>
+      </c>
+      <c r="H124" t="n">
         <v>215.8466666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>214</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5153,24 +5791,27 @@
         <v>1087.9469</v>
       </c>
       <c r="G125" t="n">
+        <v>215.0000000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>215.9166666666665</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>214</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,24 +5835,27 @@
         <v>4135.2324</v>
       </c>
       <c r="G126" t="n">
+        <v>214.9266666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>216.0099999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>214</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5235,24 +5879,27 @@
         <v>1105.6619</v>
       </c>
       <c r="G127" t="n">
+        <v>215.0000000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>216.0299999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>214</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5276,24 +5923,27 @@
         <v>7.8298</v>
       </c>
       <c r="G128" t="n">
+        <v>215.0133333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>216.0516666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>214</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,24 +5967,27 @@
         <v>2146</v>
       </c>
       <c r="G129" t="n">
+        <v>215.14</v>
+      </c>
+      <c r="H129" t="n">
         <v>216.0766666666665</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>214</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,24 +6011,27 @@
         <v>141.759</v>
       </c>
       <c r="G130" t="n">
+        <v>215.2666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>216.0266666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>214</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,24 +6055,27 @@
         <v>127.3891</v>
       </c>
       <c r="G131" t="n">
+        <v>215.4533333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>215.9916666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>214</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,24 +6099,27 @@
         <v>22.93577981651376</v>
       </c>
       <c r="G132" t="n">
+        <v>215.5933333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>215.9416666666665</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>214</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5481,24 +6143,27 @@
         <v>16000</v>
       </c>
       <c r="G133" t="n">
+        <v>215.8266666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>215.9749999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>214</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,24 +6187,27 @@
         <v>1450</v>
       </c>
       <c r="G134" t="n">
+        <v>216.0266666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>215.9749999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>214</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5563,24 +6231,27 @@
         <v>6656.6732</v>
       </c>
       <c r="G135" t="n">
+        <v>216.2800000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>216.0649999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>214</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,24 +6275,27 @@
         <v>1036.1807</v>
       </c>
       <c r="G136" t="n">
+        <v>216.5200000000001</v>
+      </c>
+      <c r="H136" t="n">
         <v>216.1566666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>214</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,24 +6319,27 @@
         <v>819</v>
       </c>
       <c r="G137" t="n">
+        <v>216.8933333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>216.2799999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>214</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5686,24 +6363,27 @@
         <v>4563</v>
       </c>
       <c r="G138" t="n">
+        <v>217.3066666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>216.3899999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>214</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,24 +6407,27 @@
         <v>21000</v>
       </c>
       <c r="G139" t="n">
+        <v>217.8266666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>216.5249999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>214</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,24 +6451,27 @@
         <v>36</v>
       </c>
       <c r="G140" t="n">
+        <v>218.1666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>216.5349999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>214</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5809,24 +6495,27 @@
         <v>482</v>
       </c>
       <c r="G141" t="n">
+        <v>218.5466666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>216.5783333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>214</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,24 +6539,431 @@
         <v>4657.4165</v>
       </c>
       <c r="G142" t="n">
+        <v>219.0133333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>216.6133333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>214</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2198.6577</v>
+      </c>
+      <c r="G143" t="n">
+        <v>219.4866666666667</v>
+      </c>
+      <c r="H143" t="n">
+        <v>216.6399999999999</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>214</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5847.9783</v>
+      </c>
+      <c r="G144" t="n">
+        <v>219.8466666666667</v>
+      </c>
+      <c r="H144" t="n">
+        <v>216.6683333333332</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>214</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6959.9584</v>
+      </c>
+      <c r="G145" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>216.7233333333332</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>214</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>220.5533333333333</v>
+      </c>
+      <c r="H146" t="n">
+        <v>216.7783333333333</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>214</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1.033317757009346</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>898.7726</v>
+      </c>
+      <c r="G147" t="n">
+        <v>220.84</v>
+      </c>
+      <c r="H147" t="n">
+        <v>216.8349999999999</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>223</v>
+      </c>
+      <c r="C148" t="n">
+        <v>223</v>
+      </c>
+      <c r="D148" t="n">
+        <v>223</v>
+      </c>
+      <c r="E148" t="n">
+        <v>223</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4535.7046</v>
+      </c>
+      <c r="G148" t="n">
+        <v>221.04</v>
+      </c>
+      <c r="H148" t="n">
+        <v>216.9033333333333</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9</v>
+      </c>
+      <c r="G149" t="n">
+        <v>221.22</v>
+      </c>
+      <c r="H149" t="n">
+        <v>216.9483333333333</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C150" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>898.7726</v>
+      </c>
+      <c r="G150" t="n">
+        <v>221.5466666666667</v>
+      </c>
+      <c r="H150" t="n">
+        <v>217.0133333333333</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5306.3973</v>
+      </c>
+      <c r="G151" t="n">
+        <v>221.7733333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>217.0949999999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1225.4913</v>
+      </c>
+      <c r="G152" t="n">
+        <v>221.9666666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>217.1766666666666</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.7</v>
+        <v>214</v>
       </c>
       <c r="C2" t="n">
-        <v>211.8</v>
+        <v>214</v>
       </c>
       <c r="D2" t="n">
-        <v>211.8</v>
+        <v>214</v>
       </c>
       <c r="E2" t="n">
-        <v>211.7</v>
+        <v>214</v>
       </c>
       <c r="F2" t="n">
-        <v>6088.7357</v>
+        <v>1666.943</v>
       </c>
       <c r="G2" t="n">
-        <v>-57305.24680885597</v>
+        <v>-119789.3176134856</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>211.8</v>
+        <v>214</v>
       </c>
       <c r="C3" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D3" t="n">
-        <v>211.8</v>
+        <v>214</v>
       </c>
       <c r="E3" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F3" t="n">
-        <v>19174.2084</v>
+        <v>87.08969999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-76479.45520885597</v>
+        <v>-119789.3176134856</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" t="n">
-        <v>208.2</v>
+        <v>209</v>
       </c>
       <c r="D4" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E4" t="n">
-        <v>208.2</v>
+        <v>209</v>
       </c>
       <c r="F4" t="n">
-        <v>659.1639</v>
+        <v>5239.344</v>
       </c>
       <c r="G4" t="n">
-        <v>-75820.29130885597</v>
+        <v>-125028.6616134856</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,203 +539,245 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>215.8</v>
+        <v>214</v>
       </c>
       <c r="C5" t="n">
-        <v>215.8</v>
+        <v>210.1</v>
       </c>
       <c r="D5" t="n">
-        <v>215.8</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
-        <v>215.8</v>
+        <v>210.1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>3610.33</v>
       </c>
       <c r="G5" t="n">
-        <v>-75817.79130885597</v>
+        <v>-121418.3316134856</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>209</v>
+      </c>
+      <c r="K5" t="n">
+        <v>209</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>208.2</v>
+        <v>210.1</v>
       </c>
       <c r="C6" t="n">
-        <v>208.3</v>
+        <v>210.1</v>
       </c>
       <c r="D6" t="n">
-        <v>208.3</v>
+        <v>215</v>
       </c>
       <c r="E6" t="n">
-        <v>208.2</v>
+        <v>210.1</v>
       </c>
       <c r="F6" t="n">
-        <v>6857.4951</v>
+        <v>6403.068</v>
       </c>
       <c r="G6" t="n">
-        <v>-82675.28640885597</v>
+        <v>-121418.3316134856</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>209</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>208.3</v>
+        <v>210.1</v>
       </c>
       <c r="C7" t="n">
-        <v>214</v>
+        <v>210.1</v>
       </c>
       <c r="D7" t="n">
-        <v>214</v>
+        <v>210.1</v>
       </c>
       <c r="E7" t="n">
-        <v>208.1</v>
+        <v>210.1</v>
       </c>
       <c r="F7" t="n">
-        <v>11774.1342</v>
+        <v>7686.613</v>
       </c>
       <c r="G7" t="n">
-        <v>-70901.15220885597</v>
+        <v>-121418.3316134856</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>209</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>214</v>
+        <v>210.1</v>
       </c>
       <c r="C8" t="n">
-        <v>214</v>
+        <v>210.2</v>
       </c>
       <c r="D8" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E8" t="n">
-        <v>214</v>
+        <v>210.1</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2158</v>
+        <v>23195.8268</v>
       </c>
       <c r="G8" t="n">
-        <v>-70901.15220885597</v>
+        <v>-98222.5048134856</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>209</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>212</v>
+        <v>212.1</v>
       </c>
       <c r="C9" t="n">
-        <v>212</v>
+        <v>212.1</v>
       </c>
       <c r="D9" t="n">
-        <v>212</v>
+        <v>212.1</v>
       </c>
       <c r="E9" t="n">
-        <v>212</v>
+        <v>212.1</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>-71201.15220885597</v>
+        <v>-98219.5048134856</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>209</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C10" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D10" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E10" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F10" t="n">
-        <v>41915.8395</v>
+        <v>105.1873</v>
       </c>
       <c r="G10" t="n">
-        <v>-113116.991708856</v>
+        <v>-98114.3175134856</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,68 +786,82 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>209</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>215</v>
+      </c>
+      <c r="C11" t="n">
+        <v>215</v>
+      </c>
+      <c r="D11" t="n">
+        <v>215</v>
+      </c>
+      <c r="E11" t="n">
+        <v>215</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5980.2041</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-98114.3175134856</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
         <v>209</v>
       </c>
-      <c r="C11" t="n">
-        <v>208</v>
-      </c>
-      <c r="D11" t="n">
-        <v>209</v>
-      </c>
-      <c r="E11" t="n">
-        <v>208</v>
-      </c>
-      <c r="F11" t="n">
-        <v>276.7642</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-113116.991708856</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C12" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D12" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E12" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F12" t="n">
-        <v>8970.0491</v>
+        <v>3869.87</v>
       </c>
       <c r="G12" t="n">
-        <v>-113116.991708856</v>
+        <v>-98114.3175134856</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,173 +870,210 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>209</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>215</v>
+      </c>
+      <c r="C13" t="n">
+        <v>215</v>
+      </c>
+      <c r="D13" t="n">
+        <v>215</v>
+      </c>
+      <c r="E13" t="n">
+        <v>215</v>
+      </c>
+      <c r="F13" t="n">
+        <v>618.4324</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-98114.3175134856</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>209</v>
       </c>
-      <c r="C13" t="n">
-        <v>208</v>
-      </c>
-      <c r="D13" t="n">
-        <v>209</v>
-      </c>
-      <c r="E13" t="n">
-        <v>208</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3489.7301</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-113116.991708856</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>208</v>
+        <v>213.3</v>
       </c>
       <c r="C14" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-102114.3175134856</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
         <v>209</v>
       </c>
-      <c r="D14" t="n">
-        <v>209</v>
-      </c>
-      <c r="E14" t="n">
-        <v>208</v>
-      </c>
-      <c r="F14" t="n">
-        <v>833.1915</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-112283.800208856</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>214</v>
+      </c>
+      <c r="C15" t="n">
+        <v>215</v>
+      </c>
+      <c r="D15" t="n">
+        <v>215</v>
+      </c>
+      <c r="E15" t="n">
+        <v>214</v>
+      </c>
+      <c r="F15" t="n">
+        <v>413.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-101701.0175134856</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>209</v>
       </c>
-      <c r="C15" t="n">
-        <v>209</v>
-      </c>
-      <c r="D15" t="n">
-        <v>209</v>
-      </c>
-      <c r="E15" t="n">
-        <v>209</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6674.8824</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-112283.800208856</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>215</v>
+      </c>
+      <c r="C16" t="n">
+        <v>215</v>
+      </c>
+      <c r="D16" t="n">
+        <v>215</v>
+      </c>
+      <c r="E16" t="n">
+        <v>215</v>
+      </c>
+      <c r="F16" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-101701.0175134856</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
         <v>209</v>
       </c>
-      <c r="C16" t="n">
-        <v>209</v>
-      </c>
-      <c r="D16" t="n">
-        <v>209</v>
-      </c>
-      <c r="E16" t="n">
-        <v>209</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4151.2249</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-112283.800208856</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>209.1</v>
+        <v>215</v>
       </c>
       <c r="C17" t="n">
-        <v>209.1</v>
+        <v>215</v>
       </c>
       <c r="D17" t="n">
-        <v>209.1</v>
+        <v>215</v>
       </c>
       <c r="E17" t="n">
-        <v>209.1</v>
+        <v>215</v>
       </c>
       <c r="F17" t="n">
-        <v>1300.3563</v>
+        <v>5591.5352</v>
       </c>
       <c r="G17" t="n">
-        <v>-110983.443908856</v>
+        <v>-101701.0175134856</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1082,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>209</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C18" t="n">
-        <v>213</v>
+        <v>219.4</v>
       </c>
       <c r="D18" t="n">
-        <v>213</v>
+        <v>219.4</v>
       </c>
       <c r="E18" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F18" t="n">
-        <v>1873.2512</v>
+        <v>5672.5514</v>
       </c>
       <c r="G18" t="n">
-        <v>-109110.192708856</v>
+        <v>-96028.4661134856</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1124,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>209</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>212</v>
+        <v>216.4</v>
       </c>
       <c r="C19" t="n">
-        <v>212</v>
+        <v>216.3</v>
       </c>
       <c r="D19" t="n">
-        <v>212</v>
+        <v>216.4</v>
       </c>
       <c r="E19" t="n">
-        <v>212</v>
+        <v>216.3</v>
       </c>
       <c r="F19" t="n">
-        <v>92.52630000000001</v>
+        <v>3000</v>
       </c>
       <c r="G19" t="n">
-        <v>-109202.719008856</v>
+        <v>-99028.4661134856</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1166,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>209</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>215.1</v>
+        <v>219.9</v>
       </c>
       <c r="C20" t="n">
-        <v>213</v>
+        <v>219.9</v>
       </c>
       <c r="D20" t="n">
-        <v>215.1</v>
+        <v>219.9</v>
       </c>
       <c r="E20" t="n">
-        <v>213</v>
+        <v>219.9</v>
       </c>
       <c r="F20" t="n">
-        <v>2834.8315</v>
+        <v>1568.853</v>
       </c>
       <c r="G20" t="n">
-        <v>-106367.887508856</v>
+        <v>-97459.6131134856</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1208,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>209</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C21" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D21" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E21" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F21" t="n">
-        <v>1500</v>
+        <v>189.3262</v>
       </c>
       <c r="G21" t="n">
-        <v>-104867.887508856</v>
+        <v>-97270.2869134856</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1250,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>209</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>214</v>
+        <v>221.6</v>
       </c>
       <c r="C22" t="n">
-        <v>214</v>
+        <v>220.1</v>
       </c>
       <c r="D22" t="n">
-        <v>214</v>
+        <v>221.9</v>
       </c>
       <c r="E22" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>20676.0311</v>
       </c>
       <c r="G22" t="n">
-        <v>-104867.887508856</v>
+        <v>-76594.25581348559</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1292,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>209</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>214</v>
+        <v>220.1</v>
       </c>
       <c r="C23" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D23" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E23" t="n">
-        <v>212</v>
+        <v>220.1</v>
       </c>
       <c r="F23" t="n">
-        <v>2923.6265</v>
+        <v>13011.956</v>
       </c>
       <c r="G23" t="n">
-        <v>-107791.514008856</v>
+        <v>-63582.2998134856</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1334,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>209</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>210.1</v>
+        <v>222</v>
       </c>
       <c r="C24" t="n">
-        <v>208.7</v>
+        <v>221.9</v>
       </c>
       <c r="D24" t="n">
-        <v>210.1</v>
+        <v>222</v>
       </c>
       <c r="E24" t="n">
-        <v>208.7</v>
+        <v>221.9</v>
       </c>
       <c r="F24" t="n">
-        <v>7231.4849</v>
+        <v>4406.1673</v>
       </c>
       <c r="G24" t="n">
-        <v>-115022.998908856</v>
+        <v>-67988.46711348559</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1376,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>209</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>212</v>
+        <v>221.9</v>
       </c>
       <c r="C25" t="n">
-        <v>212</v>
+        <v>221.9</v>
       </c>
       <c r="D25" t="n">
-        <v>212</v>
+        <v>221.9</v>
       </c>
       <c r="E25" t="n">
-        <v>212</v>
+        <v>221.9</v>
       </c>
       <c r="F25" t="n">
-        <v>886.4829</v>
+        <v>26588.6478</v>
       </c>
       <c r="G25" t="n">
-        <v>-114136.516008856</v>
+        <v>-67988.46711348559</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1418,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>209</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>211.9</v>
+        <v>221.9</v>
       </c>
       <c r="C26" t="n">
-        <v>211.9</v>
+        <v>222.1</v>
       </c>
       <c r="D26" t="n">
-        <v>211.9</v>
+        <v>222.1</v>
       </c>
       <c r="E26" t="n">
-        <v>211.9</v>
+        <v>221.9</v>
       </c>
       <c r="F26" t="n">
-        <v>7248.9863</v>
+        <v>5137.5049</v>
       </c>
       <c r="G26" t="n">
-        <v>-121385.502308856</v>
+        <v>-62850.96221348559</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1460,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>209</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>213</v>
+        <v>221.9</v>
       </c>
       <c r="C27" t="n">
-        <v>213</v>
+        <v>221.9</v>
       </c>
       <c r="D27" t="n">
-        <v>213</v>
+        <v>221.9</v>
       </c>
       <c r="E27" t="n">
-        <v>213</v>
+        <v>221.9</v>
       </c>
       <c r="F27" t="n">
-        <v>130.0723</v>
+        <v>831.3898</v>
       </c>
       <c r="G27" t="n">
-        <v>-121255.430008856</v>
+        <v>-63682.35201348559</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1502,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>209</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>213</v>
+        <v>221.9</v>
       </c>
       <c r="C28" t="n">
-        <v>216</v>
+        <v>221.9</v>
       </c>
       <c r="D28" t="n">
-        <v>216</v>
+        <v>221.9</v>
       </c>
       <c r="E28" t="n">
-        <v>213</v>
+        <v>221.9</v>
       </c>
       <c r="F28" t="n">
-        <v>2314.03389537037</v>
+        <v>28152.6715</v>
       </c>
       <c r="G28" t="n">
-        <v>-118941.3961134856</v>
+        <v>-63682.35201348559</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,74 +1544,88 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>209</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>214</v>
+        <v>219.9</v>
       </c>
       <c r="C29" t="n">
-        <v>213</v>
+        <v>219.9</v>
       </c>
       <c r="D29" t="n">
-        <v>214</v>
+        <v>219.9</v>
       </c>
       <c r="E29" t="n">
-        <v>213</v>
+        <v>219.9</v>
       </c>
       <c r="F29" t="n">
-        <v>955.6238</v>
+        <v>7620.5451</v>
       </c>
       <c r="G29" t="n">
-        <v>-119897.0199134856</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>209</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
+        <v>1.047153110047847</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="C30" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="D30" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="E30" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="F30" t="n">
-        <v>514.5346</v>
+        <v>2041.2787</v>
       </c>
       <c r="G30" t="n">
-        <v>-119382.4853134856</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1633,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>216.1</v>
+        <v>219.9</v>
       </c>
       <c r="C31" t="n">
-        <v>216.1</v>
+        <v>219.9</v>
       </c>
       <c r="D31" t="n">
-        <v>216.1</v>
+        <v>219.9</v>
       </c>
       <c r="E31" t="n">
-        <v>216.1</v>
+        <v>219.9</v>
       </c>
       <c r="F31" t="n">
-        <v>108.8421</v>
+        <v>490.0644</v>
       </c>
       <c r="G31" t="n">
-        <v>-119273.6432134856</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1669,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>217</v>
+        <v>219.9</v>
       </c>
       <c r="C32" t="n">
-        <v>217.9</v>
+        <v>219.9</v>
       </c>
       <c r="D32" t="n">
-        <v>218.4</v>
+        <v>219.9</v>
       </c>
       <c r="E32" t="n">
-        <v>217</v>
+        <v>219.9</v>
       </c>
       <c r="F32" t="n">
-        <v>763.5901</v>
+        <v>321.4628</v>
       </c>
       <c r="G32" t="n">
-        <v>-118510.0531134856</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1705,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>216.8</v>
+        <v>219.9</v>
       </c>
       <c r="C33" t="n">
-        <v>216.8</v>
+        <v>219.9</v>
       </c>
       <c r="D33" t="n">
-        <v>216.8</v>
+        <v>219.9</v>
       </c>
       <c r="E33" t="n">
-        <v>216.8</v>
+        <v>219.9</v>
       </c>
       <c r="F33" t="n">
-        <v>10.36</v>
+        <v>358.7476</v>
       </c>
       <c r="G33" t="n">
-        <v>-118520.4131134856</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1741,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>216.8</v>
+        <v>222.1</v>
       </c>
       <c r="C34" t="n">
-        <v>216.8</v>
+        <v>222.1</v>
       </c>
       <c r="D34" t="n">
-        <v>216.8</v>
+        <v>222.1</v>
       </c>
       <c r="E34" t="n">
-        <v>216.8</v>
+        <v>222.1</v>
       </c>
       <c r="F34" t="n">
-        <v>6.585</v>
+        <v>7803.849</v>
       </c>
       <c r="G34" t="n">
-        <v>-118520.4131134856</v>
+        <v>-63499.04811348558</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1777,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>215.5</v>
+        <v>220</v>
       </c>
       <c r="C35" t="n">
-        <v>215.5</v>
+        <v>220</v>
       </c>
       <c r="D35" t="n">
-        <v>215.5</v>
+        <v>220</v>
       </c>
       <c r="E35" t="n">
-        <v>215.5</v>
+        <v>220</v>
       </c>
       <c r="F35" t="n">
-        <v>4.033</v>
+        <v>7000</v>
       </c>
       <c r="G35" t="n">
-        <v>-118524.4461134856</v>
+        <v>-70499.04811348558</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1813,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>215.5</v>
+        <v>220</v>
       </c>
       <c r="C36" t="n">
-        <v>215.5</v>
+        <v>219.9</v>
       </c>
       <c r="D36" t="n">
-        <v>215.5</v>
+        <v>220</v>
       </c>
       <c r="E36" t="n">
-        <v>215.5</v>
+        <v>219.9</v>
       </c>
       <c r="F36" t="n">
-        <v>9.791</v>
+        <v>2560</v>
       </c>
       <c r="G36" t="n">
-        <v>-118524.4461134856</v>
+        <v>-73059.04811348558</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,34 +1849,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>215.5</v>
+        <v>219.9</v>
       </c>
       <c r="C37" t="n">
-        <v>215.5</v>
+        <v>219.9</v>
       </c>
       <c r="D37" t="n">
-        <v>215.5</v>
+        <v>219.9</v>
       </c>
       <c r="E37" t="n">
-        <v>215.5</v>
+        <v>219.9</v>
       </c>
       <c r="F37" t="n">
-        <v>14.915</v>
+        <v>0.8804</v>
       </c>
       <c r="G37" t="n">
-        <v>-118524.4461134856</v>
+        <v>-73059.04811348558</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1885,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>215.5</v>
+        <v>217</v>
       </c>
       <c r="C38" t="n">
-        <v>215.5</v>
+        <v>215.2</v>
       </c>
       <c r="D38" t="n">
-        <v>215.5</v>
+        <v>217</v>
       </c>
       <c r="E38" t="n">
-        <v>215.5</v>
+        <v>215.2</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>5396.1973</v>
       </c>
       <c r="G38" t="n">
-        <v>-118524.4461134856</v>
+        <v>-78455.24541348558</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,28 +1921,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>215.5</v>
+        <v>216</v>
       </c>
       <c r="C39" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="D39" t="n">
-        <v>215.5</v>
+        <v>216</v>
       </c>
       <c r="E39" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="F39" t="n">
-        <v>1391.0945</v>
+        <v>440.99</v>
       </c>
       <c r="G39" t="n">
-        <v>-118524.4461134856</v>
+        <v>-78014.25541348557</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1957,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="C40" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="D40" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="E40" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="F40" t="n">
-        <v>357.4</v>
+        <v>618.4324</v>
       </c>
       <c r="G40" t="n">
-        <v>-118524.4461134856</v>
+        <v>-78014.25541348557</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1993,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>214.5</v>
+        <v>219.9</v>
       </c>
       <c r="C41" t="n">
-        <v>214.5</v>
+        <v>219.9</v>
       </c>
       <c r="D41" t="n">
-        <v>214.5</v>
+        <v>219.9</v>
       </c>
       <c r="E41" t="n">
-        <v>214.5</v>
+        <v>219.9</v>
       </c>
       <c r="F41" t="n">
-        <v>254.3749</v>
+        <v>2.3</v>
       </c>
       <c r="G41" t="n">
-        <v>-118778.8210134856</v>
+        <v>-78011.95541348557</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +2029,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>215.5</v>
+        <v>216</v>
       </c>
       <c r="C42" t="n">
-        <v>215.5</v>
+        <v>216</v>
       </c>
       <c r="D42" t="n">
-        <v>215.5</v>
+        <v>216</v>
       </c>
       <c r="E42" t="n">
-        <v>215.5</v>
+        <v>216</v>
       </c>
       <c r="F42" t="n">
-        <v>5.6368</v>
+        <v>91.9444</v>
       </c>
       <c r="G42" t="n">
-        <v>-118773.1842134856</v>
+        <v>-78103.89981348556</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +2065,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>215</v>
+        <v>215.3</v>
       </c>
       <c r="C43" t="n">
-        <v>214</v>
+        <v>215.3</v>
       </c>
       <c r="D43" t="n">
-        <v>215</v>
+        <v>215.3</v>
       </c>
       <c r="E43" t="n">
-        <v>214</v>
+        <v>215.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1016.1334</v>
+        <v>129.635</v>
       </c>
       <c r="G43" t="n">
-        <v>-119789.3176134856</v>
+        <v>-78233.53481348556</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +2101,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>214</v>
+        <v>215.4</v>
       </c>
       <c r="C44" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D44" t="n">
-        <v>214</v>
+        <v>215.4</v>
       </c>
       <c r="E44" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F44" t="n">
-        <v>1666.943</v>
+        <v>45420.7023</v>
       </c>
       <c r="G44" t="n">
-        <v>-119789.3176134856</v>
+        <v>-123654.2371134855</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +2137,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>214</v>
+        <v>211.3</v>
       </c>
       <c r="C45" t="n">
-        <v>214</v>
+        <v>211.3</v>
       </c>
       <c r="D45" t="n">
-        <v>214</v>
+        <v>211.3</v>
       </c>
       <c r="E45" t="n">
-        <v>214</v>
+        <v>211.3</v>
       </c>
       <c r="F45" t="n">
-        <v>87.08969999999999</v>
+        <v>328.382</v>
       </c>
       <c r="G45" t="n">
-        <v>-119789.3176134856</v>
+        <v>-123982.6191134855</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2173,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>214</v>
+        <v>214.7</v>
       </c>
       <c r="C46" t="n">
-        <v>209</v>
+        <v>214.7</v>
       </c>
       <c r="D46" t="n">
-        <v>214</v>
+        <v>214.7</v>
       </c>
       <c r="E46" t="n">
-        <v>209</v>
+        <v>214.7</v>
       </c>
       <c r="F46" t="n">
-        <v>5239.344</v>
+        <v>3537.2246</v>
       </c>
       <c r="G46" t="n">
-        <v>-125028.6616134856</v>
+        <v>-120445.3945134855</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2209,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>214</v>
+        <v>216.9</v>
       </c>
       <c r="C47" t="n">
-        <v>210.1</v>
+        <v>216.9</v>
       </c>
       <c r="D47" t="n">
-        <v>215</v>
+        <v>216.9</v>
       </c>
       <c r="E47" t="n">
-        <v>210.1</v>
+        <v>216.9</v>
       </c>
       <c r="F47" t="n">
-        <v>3610.33</v>
+        <v>805.9008</v>
       </c>
       <c r="G47" t="n">
-        <v>-121418.3316134856</v>
+        <v>-119639.4937134855</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2245,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>210.1</v>
+        <v>212.3</v>
       </c>
       <c r="C48" t="n">
-        <v>210.1</v>
+        <v>212.3</v>
       </c>
       <c r="D48" t="n">
-        <v>215</v>
+        <v>212.3</v>
       </c>
       <c r="E48" t="n">
-        <v>210.1</v>
+        <v>212.3</v>
       </c>
       <c r="F48" t="n">
-        <v>6403.068</v>
+        <v>164.1</v>
       </c>
       <c r="G48" t="n">
-        <v>-121418.3316134856</v>
+        <v>-119803.5937134855</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2281,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>210.1</v>
+        <v>209.2</v>
       </c>
       <c r="C49" t="n">
-        <v>210.1</v>
+        <v>209.2</v>
       </c>
       <c r="D49" t="n">
-        <v>210.1</v>
+        <v>209.2</v>
       </c>
       <c r="E49" t="n">
-        <v>210.1</v>
+        <v>209.2</v>
       </c>
       <c r="F49" t="n">
-        <v>7686.613</v>
+        <v>455.7142</v>
       </c>
       <c r="G49" t="n">
-        <v>-121418.3316134856</v>
+        <v>-120259.3079134856</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2317,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>210.1</v>
+        <v>214</v>
       </c>
       <c r="C50" t="n">
-        <v>210.2</v>
+        <v>214</v>
       </c>
       <c r="D50" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E50" t="n">
-        <v>210.1</v>
+        <v>214</v>
       </c>
       <c r="F50" t="n">
-        <v>23195.8268</v>
+        <v>4304.4918</v>
       </c>
       <c r="G50" t="n">
-        <v>-98222.5048134856</v>
+        <v>-115954.8161134855</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2353,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="C51" t="n">
-        <v>212.1</v>
+        <v>210</v>
       </c>
       <c r="D51" t="n">
-        <v>212.1</v>
+        <v>214</v>
       </c>
       <c r="E51" t="n">
-        <v>212.1</v>
+        <v>210</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>8706.247600000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-98219.5048134856</v>
+        <v>-124661.0637134855</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2389,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="C52" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="D52" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="E52" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="F52" t="n">
-        <v>105.1873</v>
+        <v>24.5516</v>
       </c>
       <c r="G52" t="n">
-        <v>-98114.3175134856</v>
+        <v>-124636.5121134855</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2425,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="C53" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="D53" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="E53" t="n">
-        <v>215</v>
+        <v>210.2</v>
       </c>
       <c r="F53" t="n">
-        <v>5980.2041</v>
+        <v>8.4533</v>
       </c>
       <c r="G53" t="n">
-        <v>-98114.3175134856</v>
+        <v>-124636.5121134855</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2461,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>215</v>
+        <v>213.8</v>
       </c>
       <c r="C54" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="D54" t="n">
-        <v>215</v>
+        <v>213.9</v>
       </c>
       <c r="E54" t="n">
-        <v>215</v>
+        <v>213.8</v>
       </c>
       <c r="F54" t="n">
-        <v>3869.87</v>
+        <v>1956.8894</v>
       </c>
       <c r="G54" t="n">
-        <v>-98114.3175134856</v>
+        <v>-122679.6227134855</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2497,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>215</v>
+        <v>213.8</v>
       </c>
       <c r="C55" t="n">
-        <v>215</v>
+        <v>213.8</v>
       </c>
       <c r="D55" t="n">
-        <v>215</v>
+        <v>213.8</v>
       </c>
       <c r="E55" t="n">
-        <v>215</v>
+        <v>213.8</v>
       </c>
       <c r="F55" t="n">
-        <v>618.4324</v>
+        <v>6754.9111</v>
       </c>
       <c r="G55" t="n">
-        <v>-98114.3175134856</v>
+        <v>-129434.5338134855</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2533,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>213.3</v>
+        <v>215.4</v>
       </c>
       <c r="C56" t="n">
-        <v>210.4</v>
+        <v>215.4</v>
       </c>
       <c r="D56" t="n">
-        <v>213.3</v>
+        <v>215.4</v>
       </c>
       <c r="E56" t="n">
-        <v>210.4</v>
+        <v>215.4</v>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>4304.4918</v>
       </c>
       <c r="G56" t="n">
-        <v>-102114.3175134856</v>
+        <v>-125130.0420134855</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2569,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>214</v>
+        <v>219.9</v>
       </c>
       <c r="C57" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="D57" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="E57" t="n">
-        <v>214</v>
+        <v>219.9</v>
       </c>
       <c r="F57" t="n">
-        <v>413.3</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-101701.0175134856</v>
+        <v>-125120.0420134855</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2605,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C58" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D58" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E58" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F58" t="n">
-        <v>189.3</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>-101701.0175134856</v>
+        <v>-125130.0420134855</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2641,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C59" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D59" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E59" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F59" t="n">
-        <v>5591.5352</v>
+        <v>514.5386179185521</v>
       </c>
       <c r="G59" t="n">
-        <v>-101701.0175134856</v>
+        <v>-124615.503395567</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2677,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C60" t="n">
-        <v>219.4</v>
+        <v>218</v>
       </c>
       <c r="D60" t="n">
-        <v>219.4</v>
+        <v>218</v>
       </c>
       <c r="E60" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F60" t="n">
-        <v>5672.5514</v>
+        <v>603.5784</v>
       </c>
       <c r="G60" t="n">
-        <v>-96028.4661134856</v>
+        <v>-125219.081795567</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2713,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>216.4</v>
+        <v>218</v>
       </c>
       <c r="C61" t="n">
-        <v>216.3</v>
+        <v>218</v>
       </c>
       <c r="D61" t="n">
-        <v>216.4</v>
+        <v>218</v>
       </c>
       <c r="E61" t="n">
-        <v>216.3</v>
+        <v>218</v>
       </c>
       <c r="F61" t="n">
-        <v>3000</v>
+        <v>1130.3368</v>
       </c>
       <c r="G61" t="n">
-        <v>-99028.4661134856</v>
+        <v>-125219.081795567</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2749,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>219.9</v>
+        <v>215</v>
       </c>
       <c r="C62" t="n">
-        <v>219.9</v>
+        <v>212.6</v>
       </c>
       <c r="D62" t="n">
-        <v>219.9</v>
+        <v>215</v>
       </c>
       <c r="E62" t="n">
-        <v>219.9</v>
+        <v>212.6</v>
       </c>
       <c r="F62" t="n">
-        <v>1568.853</v>
+        <v>1261</v>
       </c>
       <c r="G62" t="n">
-        <v>-97459.6131134856</v>
+        <v>-126480.081795567</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2785,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C63" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D63" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E63" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F63" t="n">
-        <v>189.3262</v>
+        <v>1213.512</v>
       </c>
       <c r="G63" t="n">
-        <v>-97270.2869134856</v>
+        <v>-125266.569795567</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2821,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>221.6</v>
+        <v>212.6</v>
       </c>
       <c r="C64" t="n">
-        <v>220.1</v>
+        <v>212.6</v>
       </c>
       <c r="D64" t="n">
-        <v>221.9</v>
+        <v>212.6</v>
       </c>
       <c r="E64" t="n">
-        <v>220</v>
+        <v>212.6</v>
       </c>
       <c r="F64" t="n">
-        <v>20676.0311</v>
+        <v>2514.7967</v>
       </c>
       <c r="G64" t="n">
-        <v>-76594.25581348559</v>
+        <v>-127781.366495567</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2857,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>220.1</v>
+        <v>214</v>
       </c>
       <c r="C65" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D65" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E65" t="n">
-        <v>220.1</v>
+        <v>214</v>
       </c>
       <c r="F65" t="n">
-        <v>13011.956</v>
+        <v>514.5386</v>
       </c>
       <c r="G65" t="n">
-        <v>-63582.2998134856</v>
+        <v>-127266.827895567</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2893,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C66" t="n">
-        <v>221.9</v>
+        <v>214.1</v>
       </c>
       <c r="D66" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E66" t="n">
-        <v>221.9</v>
+        <v>214.1</v>
       </c>
       <c r="F66" t="n">
-        <v>4406.1673</v>
+        <v>328.382</v>
       </c>
       <c r="G66" t="n">
-        <v>-67988.46711348559</v>
+        <v>-126938.445895567</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2929,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>221.9</v>
+        <v>218.9</v>
       </c>
       <c r="C67" t="n">
-        <v>221.9</v>
+        <v>218.9</v>
       </c>
       <c r="D67" t="n">
-        <v>221.9</v>
+        <v>218.9</v>
       </c>
       <c r="E67" t="n">
-        <v>221.9</v>
+        <v>218.9</v>
       </c>
       <c r="F67" t="n">
-        <v>26588.6478</v>
+        <v>662.8819999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-67988.46711348559</v>
+        <v>-126275.563895567</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2965,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>221.9</v>
+        <v>218.9</v>
       </c>
       <c r="C68" t="n">
-        <v>222.1</v>
+        <v>218.9</v>
       </c>
       <c r="D68" t="n">
-        <v>222.1</v>
+        <v>218.9</v>
       </c>
       <c r="E68" t="n">
-        <v>221.9</v>
+        <v>218.9</v>
       </c>
       <c r="F68" t="n">
-        <v>5137.5049</v>
+        <v>521.8676</v>
       </c>
       <c r="G68" t="n">
-        <v>-62850.96221348559</v>
+        <v>-126275.563895567</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +3001,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>221.9</v>
+        <v>220</v>
       </c>
       <c r="C69" t="n">
-        <v>221.9</v>
+        <v>220</v>
       </c>
       <c r="D69" t="n">
-        <v>221.9</v>
+        <v>220</v>
       </c>
       <c r="E69" t="n">
-        <v>221.9</v>
+        <v>220</v>
       </c>
       <c r="F69" t="n">
-        <v>831.3898</v>
+        <v>260.4676</v>
       </c>
       <c r="G69" t="n">
-        <v>-63682.35201348559</v>
+        <v>-126015.096295567</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +3037,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>221.9</v>
+        <v>220.6</v>
       </c>
       <c r="C70" t="n">
-        <v>221.9</v>
+        <v>220.6</v>
       </c>
       <c r="D70" t="n">
-        <v>221.9</v>
+        <v>220.6</v>
       </c>
       <c r="E70" t="n">
-        <v>221.9</v>
+        <v>220.6</v>
       </c>
       <c r="F70" t="n">
-        <v>28152.6715</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>-63682.35201348559</v>
+        <v>-126009.096295567</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,34 +3073,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>219.9</v>
+        <v>220.6</v>
       </c>
       <c r="C71" t="n">
-        <v>219.9</v>
+        <v>220.6</v>
       </c>
       <c r="D71" t="n">
-        <v>219.9</v>
+        <v>220.6</v>
       </c>
       <c r="E71" t="n">
-        <v>219.9</v>
+        <v>220.6</v>
       </c>
       <c r="F71" t="n">
-        <v>7620.5451</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>-71302.89711348558</v>
+        <v>-126009.096295567</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,28 +3109,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="C72" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="D72" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="E72" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="F72" t="n">
-        <v>2041.2787</v>
+        <v>260.4676</v>
       </c>
       <c r="G72" t="n">
-        <v>-71302.89711348558</v>
+        <v>-126269.563895567</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3145,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="C73" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="D73" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="E73" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="F73" t="n">
-        <v>490.0644</v>
+        <v>7283.1914</v>
       </c>
       <c r="G73" t="n">
-        <v>-71302.89711348558</v>
+        <v>-126269.563895567</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3181,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="C74" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="D74" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="E74" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="F74" t="n">
-        <v>321.4628</v>
+        <v>396</v>
       </c>
       <c r="G74" t="n">
-        <v>-71302.89711348558</v>
+        <v>-126269.563895567</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3217,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="C75" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="D75" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="E75" t="n">
-        <v>219.9</v>
+        <v>218.9</v>
       </c>
       <c r="F75" t="n">
-        <v>358.7476</v>
+        <v>0.5483</v>
       </c>
       <c r="G75" t="n">
-        <v>-71302.89711348558</v>
+        <v>-126269.563895567</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3253,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>222.1</v>
+        <v>218</v>
       </c>
       <c r="C76" t="n">
-        <v>222.1</v>
+        <v>218</v>
       </c>
       <c r="D76" t="n">
-        <v>222.1</v>
+        <v>218</v>
       </c>
       <c r="E76" t="n">
-        <v>222.1</v>
+        <v>218</v>
       </c>
       <c r="F76" t="n">
-        <v>7803.849</v>
+        <v>31.4057</v>
       </c>
       <c r="G76" t="n">
-        <v>-63499.04811348558</v>
+        <v>-126300.969595567</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,34 +3289,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C77" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E77" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F77" t="n">
-        <v>7000</v>
+        <v>130.7756</v>
       </c>
       <c r="G77" t="n">
-        <v>-70499.04811348558</v>
+        <v>-126170.193995567</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,28 +3325,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C78" t="n">
-        <v>219.9</v>
+        <v>218</v>
       </c>
       <c r="D78" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E78" t="n">
-        <v>219.9</v>
+        <v>218</v>
       </c>
       <c r="F78" t="n">
-        <v>2560</v>
+        <v>4329.0732</v>
       </c>
       <c r="G78" t="n">
-        <v>-73059.04811348558</v>
+        <v>-130499.267195567</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3361,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>219.9</v>
+        <v>218</v>
       </c>
       <c r="C79" t="n">
-        <v>219.9</v>
+        <v>218</v>
       </c>
       <c r="D79" t="n">
-        <v>219.9</v>
+        <v>218</v>
       </c>
       <c r="E79" t="n">
-        <v>219.9</v>
+        <v>218</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8804</v>
+        <v>46</v>
       </c>
       <c r="G79" t="n">
-        <v>-73059.04811348558</v>
+        <v>-130499.267195567</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3397,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C80" t="n">
-        <v>215.2</v>
+        <v>218</v>
       </c>
       <c r="D80" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E80" t="n">
-        <v>215.2</v>
+        <v>218</v>
       </c>
       <c r="F80" t="n">
-        <v>5396.1973</v>
+        <v>725.0515</v>
       </c>
       <c r="G80" t="n">
-        <v>-78455.24541348558</v>
+        <v>-130499.267195567</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3433,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C81" t="n">
-        <v>215.3</v>
+        <v>218</v>
       </c>
       <c r="D81" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E81" t="n">
-        <v>215.3</v>
+        <v>218</v>
       </c>
       <c r="F81" t="n">
-        <v>440.99</v>
+        <v>3368.4558</v>
       </c>
       <c r="G81" t="n">
-        <v>-78014.25541348557</v>
+        <v>-130499.267195567</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3469,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>215.3</v>
+        <v>218</v>
       </c>
       <c r="C82" t="n">
-        <v>215.3</v>
+        <v>217</v>
       </c>
       <c r="D82" t="n">
-        <v>215.3</v>
+        <v>218</v>
       </c>
       <c r="E82" t="n">
-        <v>215.3</v>
+        <v>217</v>
       </c>
       <c r="F82" t="n">
-        <v>618.4324</v>
+        <v>5000</v>
       </c>
       <c r="G82" t="n">
-        <v>-78014.25541348557</v>
+        <v>-135499.267195567</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3505,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>219.9</v>
+        <v>217</v>
       </c>
       <c r="C83" t="n">
-        <v>219.9</v>
+        <v>217</v>
       </c>
       <c r="D83" t="n">
-        <v>219.9</v>
+        <v>217</v>
       </c>
       <c r="E83" t="n">
-        <v>219.9</v>
+        <v>217</v>
       </c>
       <c r="F83" t="n">
-        <v>2.3</v>
+        <v>53.8834</v>
       </c>
       <c r="G83" t="n">
-        <v>-78011.95541348557</v>
+        <v>-135499.267195567</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3541,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C84" t="n">
-        <v>216</v>
+        <v>214.3</v>
       </c>
       <c r="D84" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E84" t="n">
-        <v>216</v>
+        <v>214.3</v>
       </c>
       <c r="F84" t="n">
-        <v>91.9444</v>
+        <v>5489.8025</v>
       </c>
       <c r="G84" t="n">
-        <v>-78103.89981348556</v>
+        <v>-140989.069695567</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3577,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>215.3</v>
+        <v>215</v>
       </c>
       <c r="C85" t="n">
-        <v>215.3</v>
+        <v>214.1</v>
       </c>
       <c r="D85" t="n">
-        <v>215.3</v>
+        <v>215</v>
       </c>
       <c r="E85" t="n">
-        <v>215.3</v>
+        <v>214.1</v>
       </c>
       <c r="F85" t="n">
-        <v>129.635</v>
+        <v>5702.9457</v>
       </c>
       <c r="G85" t="n">
-        <v>-78233.53481348556</v>
+        <v>-146692.015395567</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3613,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>215.4</v>
+        <v>215</v>
       </c>
       <c r="C86" t="n">
         <v>215</v>
       </c>
       <c r="D86" t="n">
-        <v>215.4</v>
+        <v>215</v>
       </c>
       <c r="E86" t="n">
         <v>215</v>
       </c>
       <c r="F86" t="n">
-        <v>45420.7023</v>
+        <v>4742.6316</v>
       </c>
       <c r="G86" t="n">
-        <v>-123654.2371134855</v>
+        <v>-141949.383795567</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3649,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>211.3</v>
+        <v>214.1</v>
       </c>
       <c r="C87" t="n">
-        <v>211.3</v>
+        <v>214.1</v>
       </c>
       <c r="D87" t="n">
-        <v>211.3</v>
+        <v>214.1</v>
       </c>
       <c r="E87" t="n">
-        <v>211.3</v>
+        <v>214.1</v>
       </c>
       <c r="F87" t="n">
-        <v>328.382</v>
+        <v>7529.4093</v>
       </c>
       <c r="G87" t="n">
-        <v>-123982.6191134855</v>
+        <v>-149478.793095567</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3685,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>214.7</v>
+        <v>212.9</v>
       </c>
       <c r="C88" t="n">
-        <v>214.7</v>
+        <v>212.9</v>
       </c>
       <c r="D88" t="n">
-        <v>214.7</v>
+        <v>212.9</v>
       </c>
       <c r="E88" t="n">
-        <v>214.7</v>
+        <v>212.9</v>
       </c>
       <c r="F88" t="n">
-        <v>3537.2246</v>
+        <v>370</v>
       </c>
       <c r="G88" t="n">
-        <v>-120445.3945134855</v>
+        <v>-149848.793095567</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,63 +3721,69 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="C89" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="D89" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="E89" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="F89" t="n">
-        <v>805.9008</v>
+        <v>1659.9888</v>
       </c>
       <c r="G89" t="n">
-        <v>-119639.4937134855</v>
+        <v>-148188.804295567</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>212.9</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>212.3</v>
+        <v>213.3</v>
       </c>
       <c r="C90" t="n">
-        <v>212.3</v>
+        <v>213.3</v>
       </c>
       <c r="D90" t="n">
-        <v>212.3</v>
+        <v>213.3</v>
       </c>
       <c r="E90" t="n">
-        <v>212.3</v>
+        <v>213.3</v>
       </c>
       <c r="F90" t="n">
-        <v>164.1</v>
+        <v>2900</v>
       </c>
       <c r="G90" t="n">
-        <v>-119803.5937134855</v>
+        <v>-145288.804295567</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,33 +3792,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>209.2</v>
+        <v>213.4</v>
       </c>
       <c r="C91" t="n">
-        <v>209.2</v>
+        <v>213.4</v>
       </c>
       <c r="D91" t="n">
-        <v>209.2</v>
+        <v>213.4</v>
       </c>
       <c r="E91" t="n">
-        <v>209.2</v>
+        <v>213.4</v>
       </c>
       <c r="F91" t="n">
-        <v>455.7142</v>
+        <v>5844.4458</v>
       </c>
       <c r="G91" t="n">
-        <v>-120259.3079134856</v>
+        <v>-139444.358495567</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3834,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>214</v>
+        <v>213.5</v>
       </c>
       <c r="C92" t="n">
-        <v>214</v>
+        <v>213.5</v>
       </c>
       <c r="D92" t="n">
-        <v>214</v>
+        <v>213.5</v>
       </c>
       <c r="E92" t="n">
-        <v>214</v>
+        <v>213.5</v>
       </c>
       <c r="F92" t="n">
-        <v>4304.4918</v>
+        <v>2340.0049</v>
       </c>
       <c r="G92" t="n">
-        <v>-115954.8161134855</v>
+        <v>-137104.353595567</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3881,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>214</v>
+        <v>216.9</v>
       </c>
       <c r="C93" t="n">
-        <v>210</v>
+        <v>216.9</v>
       </c>
       <c r="D93" t="n">
-        <v>214</v>
+        <v>216.9</v>
       </c>
       <c r="E93" t="n">
-        <v>210</v>
+        <v>216.9</v>
       </c>
       <c r="F93" t="n">
-        <v>8706.247600000001</v>
+        <v>43.6534</v>
       </c>
       <c r="G93" t="n">
-        <v>-124661.0637134855</v>
+        <v>-137060.700195567</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3917,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>210.2</v>
+        <v>213.4</v>
       </c>
       <c r="C94" t="n">
-        <v>210.2</v>
+        <v>213.4</v>
       </c>
       <c r="D94" t="n">
-        <v>210.2</v>
+        <v>213.4</v>
       </c>
       <c r="E94" t="n">
-        <v>210.2</v>
+        <v>213.4</v>
       </c>
       <c r="F94" t="n">
-        <v>24.5516</v>
+        <v>3504.4409</v>
       </c>
       <c r="G94" t="n">
-        <v>-124636.5121134855</v>
+        <v>-140565.141095567</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3953,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>210.2</v>
+        <v>213.9</v>
       </c>
       <c r="C95" t="n">
-        <v>210.2</v>
+        <v>213.9</v>
       </c>
       <c r="D95" t="n">
-        <v>210.2</v>
+        <v>213.9</v>
       </c>
       <c r="E95" t="n">
-        <v>210.2</v>
+        <v>213.9</v>
       </c>
       <c r="F95" t="n">
-        <v>8.4533</v>
+        <v>2068.1903</v>
       </c>
       <c r="G95" t="n">
-        <v>-124636.5121134855</v>
+        <v>-138496.950795567</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3989,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>213.8</v>
+        <v>214</v>
       </c>
       <c r="C96" t="n">
-        <v>213.9</v>
+        <v>214</v>
       </c>
       <c r="D96" t="n">
-        <v>213.9</v>
+        <v>214</v>
       </c>
       <c r="E96" t="n">
-        <v>213.8</v>
+        <v>214</v>
       </c>
       <c r="F96" t="n">
-        <v>1956.8894</v>
+        <v>7010.724</v>
       </c>
       <c r="G96" t="n">
-        <v>-122679.6227134855</v>
+        <v>-131486.226795567</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +4025,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>213.8</v>
+        <v>214.1</v>
       </c>
       <c r="C97" t="n">
-        <v>213.8</v>
+        <v>214.1</v>
       </c>
       <c r="D97" t="n">
-        <v>213.8</v>
+        <v>214.1</v>
       </c>
       <c r="E97" t="n">
-        <v>213.8</v>
+        <v>214.1</v>
       </c>
       <c r="F97" t="n">
-        <v>6754.9111</v>
+        <v>4239.37</v>
       </c>
       <c r="G97" t="n">
-        <v>-129434.5338134855</v>
+        <v>-127246.856795567</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +4061,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>215.4</v>
+        <v>216.9</v>
       </c>
       <c r="C98" t="n">
-        <v>215.4</v>
+        <v>216.9</v>
       </c>
       <c r="D98" t="n">
-        <v>215.4</v>
+        <v>216.9</v>
       </c>
       <c r="E98" t="n">
-        <v>215.4</v>
+        <v>216.9</v>
       </c>
       <c r="F98" t="n">
-        <v>4304.4918</v>
+        <v>25</v>
       </c>
       <c r="G98" t="n">
-        <v>-125130.0420134855</v>
+        <v>-127221.856795567</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +4097,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>219.9</v>
+        <v>214.1</v>
       </c>
       <c r="C99" t="n">
-        <v>219.9</v>
+        <v>214</v>
       </c>
       <c r="D99" t="n">
-        <v>219.9</v>
+        <v>214.1</v>
       </c>
       <c r="E99" t="n">
-        <v>219.9</v>
+        <v>214</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>6983.374</v>
       </c>
       <c r="G99" t="n">
-        <v>-125120.0420134855</v>
+        <v>-134205.230795567</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +4133,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>219</v>
+        <v>214.9</v>
       </c>
       <c r="C100" t="n">
-        <v>219</v>
+        <v>214.9</v>
       </c>
       <c r="D100" t="n">
-        <v>219</v>
+        <v>214.9</v>
       </c>
       <c r="E100" t="n">
-        <v>219</v>
+        <v>214.9</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>766.4841</v>
       </c>
       <c r="G100" t="n">
-        <v>-125130.0420134855</v>
+        <v>-133438.746695567</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4169,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>219</v>
+        <v>214.9</v>
       </c>
       <c r="C101" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D101" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E101" t="n">
-        <v>219</v>
+        <v>214.9</v>
       </c>
       <c r="F101" t="n">
-        <v>514.5386179185521</v>
+        <v>923.5448</v>
       </c>
       <c r="G101" t="n">
-        <v>-124615.503395567</v>
+        <v>-132515.201895567</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4205,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C102" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D102" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E102" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F102" t="n">
-        <v>603.5784</v>
+        <v>121.4964</v>
       </c>
       <c r="G102" t="n">
-        <v>-125219.081795567</v>
+        <v>-132515.201895567</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4241,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C103" t="n">
-        <v>218</v>
+        <v>214.1</v>
       </c>
       <c r="D103" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E103" t="n">
-        <v>218</v>
+        <v>214.1</v>
       </c>
       <c r="F103" t="n">
-        <v>1130.3368</v>
+        <v>1085</v>
       </c>
       <c r="G103" t="n">
-        <v>-125219.081795567</v>
+        <v>-133600.201895567</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4277,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="C104" t="n">
-        <v>212.6</v>
+        <v>215.9</v>
       </c>
       <c r="D104" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="E104" t="n">
-        <v>212.6</v>
+        <v>215.9</v>
       </c>
       <c r="F104" t="n">
-        <v>1261</v>
+        <v>2262.266</v>
       </c>
       <c r="G104" t="n">
-        <v>-126480.081795567</v>
+        <v>-131337.935895567</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,63 +4313,69 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105" t="n">
-        <v>214</v>
+        <v>216.5</v>
       </c>
       <c r="D105" t="n">
-        <v>215</v>
+        <v>216.5</v>
       </c>
       <c r="E105" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F105" t="n">
-        <v>1213.512</v>
+        <v>5866.2265</v>
       </c>
       <c r="G105" t="n">
-        <v>-125266.569795567</v>
+        <v>-125471.709395567</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="K105" t="n">
+        <v>215.9</v>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>212.6</v>
+        <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>212.6</v>
+        <v>215</v>
       </c>
       <c r="D106" t="n">
-        <v>212.6</v>
+        <v>215</v>
       </c>
       <c r="E106" t="n">
-        <v>212.6</v>
+        <v>215</v>
       </c>
       <c r="F106" t="n">
-        <v>2514.7967</v>
+        <v>137.2283</v>
       </c>
       <c r="G106" t="n">
-        <v>-127781.366495567</v>
+        <v>-125608.937695567</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4384,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>214</v>
+        <v>214.2</v>
       </c>
       <c r="C107" t="n">
-        <v>214</v>
+        <v>214.2</v>
       </c>
       <c r="D107" t="n">
-        <v>214</v>
+        <v>214.2</v>
       </c>
       <c r="E107" t="n">
-        <v>214</v>
+        <v>214.2</v>
       </c>
       <c r="F107" t="n">
-        <v>514.5386</v>
+        <v>5625.5011</v>
       </c>
       <c r="G107" t="n">
-        <v>-127266.827895567</v>
+        <v>-131234.438795567</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,33 +4426,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="C108" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="D108" t="n">
-        <v>215</v>
+        <v>215.9</v>
       </c>
       <c r="E108" t="n">
-        <v>214.1</v>
+        <v>215.9</v>
       </c>
       <c r="F108" t="n">
-        <v>328.382</v>
+        <v>5.1672</v>
       </c>
       <c r="G108" t="n">
-        <v>-126938.445895567</v>
+        <v>-131229.271595567</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4473,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>218.9</v>
+        <v>214.6</v>
       </c>
       <c r="C109" t="n">
-        <v>218.9</v>
+        <v>214.4</v>
       </c>
       <c r="D109" t="n">
-        <v>218.9</v>
+        <v>214.6</v>
       </c>
       <c r="E109" t="n">
-        <v>218.9</v>
+        <v>214.4</v>
       </c>
       <c r="F109" t="n">
-        <v>662.8819999999999</v>
+        <v>7052.895</v>
       </c>
       <c r="G109" t="n">
-        <v>-126275.563895567</v>
+        <v>-138282.166595567</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4509,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>218.9</v>
+        <v>214.5</v>
       </c>
       <c r="C110" t="n">
-        <v>218.9</v>
+        <v>214.4</v>
       </c>
       <c r="D110" t="n">
-        <v>218.9</v>
+        <v>214.5</v>
       </c>
       <c r="E110" t="n">
-        <v>218.9</v>
+        <v>214.4</v>
       </c>
       <c r="F110" t="n">
-        <v>521.8676</v>
+        <v>553.2405</v>
       </c>
       <c r="G110" t="n">
-        <v>-126275.563895567</v>
+        <v>-138282.166595567</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4545,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>220</v>
+        <v>214.4</v>
       </c>
       <c r="C111" t="n">
-        <v>220</v>
+        <v>214.4</v>
       </c>
       <c r="D111" t="n">
-        <v>220</v>
+        <v>214.4</v>
       </c>
       <c r="E111" t="n">
-        <v>220</v>
+        <v>214.4</v>
       </c>
       <c r="F111" t="n">
-        <v>260.4676</v>
+        <v>1412.8076</v>
       </c>
       <c r="G111" t="n">
-        <v>-126015.096295567</v>
+        <v>-138282.166595567</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4581,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>220.6</v>
+        <v>214.4</v>
       </c>
       <c r="C112" t="n">
-        <v>220.6</v>
+        <v>214.4</v>
       </c>
       <c r="D112" t="n">
-        <v>220.6</v>
+        <v>214.4</v>
       </c>
       <c r="E112" t="n">
-        <v>220.6</v>
+        <v>214.4</v>
       </c>
       <c r="F112" t="n">
-        <v>6</v>
+        <v>1087.9469</v>
       </c>
       <c r="G112" t="n">
-        <v>-126009.096295567</v>
+        <v>-138282.166595567</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4617,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>220.6</v>
+        <v>214.4</v>
       </c>
       <c r="C113" t="n">
-        <v>220.6</v>
+        <v>215.8</v>
       </c>
       <c r="D113" t="n">
-        <v>220.6</v>
+        <v>215.8</v>
       </c>
       <c r="E113" t="n">
-        <v>220.6</v>
+        <v>214.4</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>4135.2324</v>
       </c>
       <c r="G113" t="n">
-        <v>-126009.096295567</v>
+        <v>-134146.934195567</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4653,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="C114" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="D114" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="E114" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="F114" t="n">
-        <v>260.4676</v>
+        <v>1105.6619</v>
       </c>
       <c r="G114" t="n">
-        <v>-126269.563895567</v>
+        <v>-135252.596095567</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4689,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="C115" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="D115" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="E115" t="n">
-        <v>218.9</v>
+        <v>215.1</v>
       </c>
       <c r="F115" t="n">
-        <v>7283.1914</v>
+        <v>7.8298</v>
       </c>
       <c r="G115" t="n">
-        <v>-126269.563895567</v>
+        <v>-135252.596095567</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4725,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>218.9</v>
+        <v>216.5</v>
       </c>
       <c r="C116" t="n">
-        <v>218.9</v>
+        <v>216.9</v>
       </c>
       <c r="D116" t="n">
-        <v>218.9</v>
+        <v>216.9</v>
       </c>
       <c r="E116" t="n">
-        <v>218.9</v>
+        <v>216.5</v>
       </c>
       <c r="F116" t="n">
-        <v>396</v>
+        <v>2146</v>
       </c>
       <c r="G116" t="n">
-        <v>-126269.563895567</v>
+        <v>-133106.596095567</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4761,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>218.9</v>
+        <v>216.9</v>
       </c>
       <c r="C117" t="n">
-        <v>218.9</v>
+        <v>216.9</v>
       </c>
       <c r="D117" t="n">
-        <v>218.9</v>
+        <v>217</v>
       </c>
       <c r="E117" t="n">
-        <v>218.9</v>
+        <v>216.9</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5483</v>
+        <v>141.759</v>
       </c>
       <c r="G117" t="n">
-        <v>-126269.563895567</v>
+        <v>-133106.596095567</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4797,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="C118" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="D118" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="E118" t="n">
-        <v>218</v>
+        <v>216.9</v>
       </c>
       <c r="F118" t="n">
-        <v>31.4057</v>
+        <v>127.3891</v>
       </c>
       <c r="G118" t="n">
-        <v>-126300.969595567</v>
+        <v>-133106.596095567</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4833,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C119" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D119" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E119" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F119" t="n">
-        <v>130.7756</v>
+        <v>22.93577981651376</v>
       </c>
       <c r="G119" t="n">
-        <v>-126170.193995567</v>
+        <v>-133083.6603157505</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,6 +4869,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4566,19 +4879,19 @@
         <v>218</v>
       </c>
       <c r="C120" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D120" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E120" t="n">
         <v>218</v>
       </c>
       <c r="F120" t="n">
-        <v>4329.0732</v>
+        <v>16000</v>
       </c>
       <c r="G120" t="n">
-        <v>-130499.267195567</v>
+        <v>-117083.6603157505</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,6 +4905,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4610,10 +4924,10 @@
         <v>218</v>
       </c>
       <c r="F121" t="n">
-        <v>46</v>
+        <v>1450</v>
       </c>
       <c r="G121" t="n">
-        <v>-130499.267195567</v>
+        <v>-118533.6603157505</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,6 +4941,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4645,10 +4960,10 @@
         <v>218</v>
       </c>
       <c r="F122" t="n">
-        <v>725.0515</v>
+        <v>6656.6732</v>
       </c>
       <c r="G122" t="n">
-        <v>-130499.267195567</v>
+        <v>-118533.6603157505</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4977,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>218</v>
+        <v>219.5</v>
       </c>
       <c r="C123" t="n">
-        <v>218</v>
+        <v>219.5</v>
       </c>
       <c r="D123" t="n">
-        <v>218</v>
+        <v>219.5</v>
       </c>
       <c r="E123" t="n">
-        <v>218</v>
+        <v>219.5</v>
       </c>
       <c r="F123" t="n">
-        <v>3368.4558</v>
+        <v>1036.1807</v>
       </c>
       <c r="G123" t="n">
-        <v>-130499.267195567</v>
+        <v>-117497.4796157505</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +5013,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C124" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D124" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E124" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F124" t="n">
-        <v>5000</v>
+        <v>819</v>
       </c>
       <c r="G124" t="n">
-        <v>-135499.267195567</v>
+        <v>-116678.4796157505</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +5049,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C125" t="n">
-        <v>217</v>
+        <v>220.6</v>
       </c>
       <c r="D125" t="n">
-        <v>217</v>
+        <v>220.6</v>
       </c>
       <c r="E125" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F125" t="n">
-        <v>53.8834</v>
+        <v>4563</v>
       </c>
       <c r="G125" t="n">
-        <v>-135499.267195567</v>
+        <v>-112115.4796157505</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +5085,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>217</v>
+        <v>220.6</v>
       </c>
       <c r="C126" t="n">
-        <v>214.3</v>
+        <v>222.2</v>
       </c>
       <c r="D126" t="n">
-        <v>217</v>
+        <v>222.2</v>
       </c>
       <c r="E126" t="n">
-        <v>214.3</v>
+        <v>220.6</v>
       </c>
       <c r="F126" t="n">
-        <v>5489.8025</v>
+        <v>21000</v>
       </c>
       <c r="G126" t="n">
-        <v>-140989.069695567</v>
+        <v>-91115.47961575052</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +5121,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>215</v>
+        <v>221.5</v>
       </c>
       <c r="C127" t="n">
-        <v>214.1</v>
+        <v>219.5</v>
       </c>
       <c r="D127" t="n">
-        <v>215</v>
+        <v>221.5</v>
       </c>
       <c r="E127" t="n">
-        <v>214.1</v>
+        <v>219.5</v>
       </c>
       <c r="F127" t="n">
-        <v>5702.9457</v>
+        <v>36</v>
       </c>
       <c r="G127" t="n">
-        <v>-146692.015395567</v>
+        <v>-91151.47961575052</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +5157,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>215</v>
+        <v>221.5</v>
       </c>
       <c r="C128" t="n">
-        <v>215</v>
+        <v>221.5</v>
       </c>
       <c r="D128" t="n">
-        <v>215</v>
+        <v>221.5</v>
       </c>
       <c r="E128" t="n">
-        <v>215</v>
+        <v>221.5</v>
       </c>
       <c r="F128" t="n">
-        <v>4742.6316</v>
+        <v>482</v>
       </c>
       <c r="G128" t="n">
-        <v>-141949.383795567</v>
+        <v>-90669.47961575052</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5193,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>214.1</v>
+        <v>222.1</v>
       </c>
       <c r="C129" t="n">
-        <v>214.1</v>
+        <v>222.1</v>
       </c>
       <c r="D129" t="n">
-        <v>214.1</v>
+        <v>222.1</v>
       </c>
       <c r="E129" t="n">
-        <v>214.1</v>
+        <v>222.1</v>
       </c>
       <c r="F129" t="n">
-        <v>7529.4093</v>
+        <v>4657.4165</v>
       </c>
       <c r="G129" t="n">
-        <v>-149478.793095567</v>
+        <v>-86012.06311575051</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5229,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>212.9</v>
+        <v>222.2</v>
       </c>
       <c r="C130" t="n">
-        <v>212.9</v>
+        <v>222.2</v>
       </c>
       <c r="D130" t="n">
-        <v>212.9</v>
+        <v>222.2</v>
       </c>
       <c r="E130" t="n">
-        <v>212.9</v>
+        <v>222.2</v>
       </c>
       <c r="F130" t="n">
-        <v>370</v>
+        <v>2198.6577</v>
       </c>
       <c r="G130" t="n">
-        <v>-149848.793095567</v>
+        <v>-83813.40541575052</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5265,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>213</v>
+        <v>222.3</v>
       </c>
       <c r="C131" t="n">
-        <v>213</v>
+        <v>222.3</v>
       </c>
       <c r="D131" t="n">
-        <v>213</v>
+        <v>222.3</v>
       </c>
       <c r="E131" t="n">
-        <v>213</v>
+        <v>222.3</v>
       </c>
       <c r="F131" t="n">
-        <v>1659.9888</v>
+        <v>5847.9783</v>
       </c>
       <c r="G131" t="n">
-        <v>-148188.804295567</v>
+        <v>-77965.42711575051</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5301,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>213.3</v>
+        <v>222.3</v>
       </c>
       <c r="C132" t="n">
-        <v>213.3</v>
+        <v>222.2</v>
       </c>
       <c r="D132" t="n">
-        <v>213.3</v>
+        <v>222.3</v>
       </c>
       <c r="E132" t="n">
-        <v>213.3</v>
+        <v>222.2</v>
       </c>
       <c r="F132" t="n">
-        <v>2900</v>
+        <v>6959.9584</v>
       </c>
       <c r="G132" t="n">
-        <v>-145288.804295567</v>
+        <v>-84925.38551575052</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5337,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>213.4</v>
+        <v>222.2</v>
       </c>
       <c r="C133" t="n">
-        <v>213.4</v>
+        <v>222.2</v>
       </c>
       <c r="D133" t="n">
-        <v>213.4</v>
+        <v>222.2</v>
       </c>
       <c r="E133" t="n">
-        <v>213.4</v>
+        <v>222.2</v>
       </c>
       <c r="F133" t="n">
-        <v>5844.4458</v>
+        <v>1000</v>
       </c>
       <c r="G133" t="n">
-        <v>-139444.358495567</v>
+        <v>-84925.38551575052</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5373,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>213.5</v>
+        <v>222.3</v>
       </c>
       <c r="C134" t="n">
-        <v>213.5</v>
+        <v>222.3</v>
       </c>
       <c r="D134" t="n">
-        <v>213.5</v>
+        <v>222.3</v>
       </c>
       <c r="E134" t="n">
-        <v>213.5</v>
+        <v>222.3</v>
       </c>
       <c r="F134" t="n">
-        <v>2340.0049</v>
+        <v>898.7726</v>
       </c>
       <c r="G134" t="n">
-        <v>-137104.353595567</v>
+        <v>-84026.61291575052</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5409,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>216.9</v>
+        <v>223</v>
       </c>
       <c r="C135" t="n">
-        <v>216.9</v>
+        <v>223</v>
       </c>
       <c r="D135" t="n">
-        <v>216.9</v>
+        <v>223</v>
       </c>
       <c r="E135" t="n">
-        <v>216.9</v>
+        <v>223</v>
       </c>
       <c r="F135" t="n">
-        <v>43.6534</v>
+        <v>4535.7046</v>
       </c>
       <c r="G135" t="n">
-        <v>-137060.700195567</v>
+        <v>-79490.90831575052</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,34 +5445,35 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>213.4</v>
+        <v>220.7</v>
       </c>
       <c r="C136" t="n">
-        <v>213.4</v>
+        <v>220.7</v>
       </c>
       <c r="D136" t="n">
-        <v>213.4</v>
+        <v>220.7</v>
       </c>
       <c r="E136" t="n">
-        <v>213.4</v>
+        <v>220.7</v>
       </c>
       <c r="F136" t="n">
-        <v>3504.4409</v>
+        <v>9</v>
       </c>
       <c r="G136" t="n">
-        <v>-140565.141095567</v>
+        <v>-79499.90831575052</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5152,28 +5481,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>213.9</v>
+        <v>222.9</v>
       </c>
       <c r="C137" t="n">
-        <v>213.9</v>
+        <v>222.9</v>
       </c>
       <c r="D137" t="n">
-        <v>213.9</v>
+        <v>222.9</v>
       </c>
       <c r="E137" t="n">
-        <v>213.9</v>
+        <v>222.9</v>
       </c>
       <c r="F137" t="n">
-        <v>2068.1903</v>
+        <v>898.7726</v>
       </c>
       <c r="G137" t="n">
-        <v>-138496.950795567</v>
+        <v>-78601.13571575053</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5517,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>214</v>
+        <v>222.9</v>
       </c>
       <c r="C138" t="n">
-        <v>214</v>
+        <v>222.9</v>
       </c>
       <c r="D138" t="n">
-        <v>214</v>
+        <v>222.9</v>
       </c>
       <c r="E138" t="n">
-        <v>214</v>
+        <v>222.9</v>
       </c>
       <c r="F138" t="n">
-        <v>7010.724</v>
+        <v>5306.3973</v>
       </c>
       <c r="G138" t="n">
-        <v>-131486.226795567</v>
+        <v>-78601.13571575053</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,34 +5553,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>214.1</v>
+        <v>222.9</v>
       </c>
       <c r="C139" t="n">
-        <v>214.1</v>
+        <v>222.9</v>
       </c>
       <c r="D139" t="n">
-        <v>214.1</v>
+        <v>222.9</v>
       </c>
       <c r="E139" t="n">
-        <v>214.1</v>
+        <v>222.9</v>
       </c>
       <c r="F139" t="n">
-        <v>4239.37</v>
+        <v>1225.4913</v>
       </c>
       <c r="G139" t="n">
-        <v>-127246.856795567</v>
+        <v>-78601.13571575053</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5257,1684 +5589,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="C140" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="D140" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="E140" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="F140" t="n">
-        <v>25</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-127221.856795567</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>214</v>
-      </c>
-      <c r="D141" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>214</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6983.374</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-134205.230795567</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>766.4841</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-133438.746695567</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>215</v>
-      </c>
-      <c r="D143" t="n">
-        <v>215</v>
-      </c>
-      <c r="E143" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>923.5448</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-132515.201895567</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>215</v>
-      </c>
-      <c r="C144" t="n">
-        <v>215</v>
-      </c>
-      <c r="D144" t="n">
-        <v>215</v>
-      </c>
-      <c r="E144" t="n">
-        <v>215</v>
-      </c>
-      <c r="F144" t="n">
-        <v>121.4964</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-132515.201895567</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>215</v>
-      </c>
-      <c r="K144" t="n">
-        <v>215</v>
-      </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>215</v>
-      </c>
-      <c r="C145" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>215</v>
-      </c>
-      <c r="E145" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1085</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-133600.201895567</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>215</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2262.266</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-131337.935895567</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>215</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>216</v>
-      </c>
-      <c r="C147" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>216</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5866.2265</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-125471.709395567</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>215</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>215</v>
-      </c>
-      <c r="C148" t="n">
-        <v>215</v>
-      </c>
-      <c r="D148" t="n">
-        <v>215</v>
-      </c>
-      <c r="E148" t="n">
-        <v>215</v>
-      </c>
-      <c r="F148" t="n">
-        <v>137.2283</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-125608.937695567</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>215</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>5625.5011</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-131234.438795567</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>215</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="C150" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5.1672</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-131229.271595567</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>215</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>214.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>214.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>7052.895</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-138282.166595567</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>215</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="D152" t="n">
-        <v>214.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>553.2405</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-138282.166595567</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>215</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1412.8076</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-138282.166595567</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>215</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="C154" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="D154" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1087.9469</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-138282.166595567</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>215</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="C155" t="n">
-        <v>215.8</v>
-      </c>
-      <c r="D155" t="n">
-        <v>215.8</v>
-      </c>
-      <c r="E155" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>4135.2324</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-134146.934195567</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>215</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1105.6619</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-135252.596095567</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>215</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>7.8298</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-135252.596095567</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>215</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2146</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-133106.596095567</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>215</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="C159" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>217</v>
-      </c>
-      <c r="E159" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>141.759</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-133106.596095567</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>215</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="C160" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="F160" t="n">
-        <v>127.3891</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-133106.596095567</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>215</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>218</v>
-      </c>
-      <c r="C161" t="n">
-        <v>218</v>
-      </c>
-      <c r="D161" t="n">
-        <v>218</v>
-      </c>
-      <c r="E161" t="n">
-        <v>218</v>
-      </c>
-      <c r="F161" t="n">
-        <v>22.93577981651376</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-133083.6603157505</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>215</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>218</v>
-      </c>
-      <c r="C162" t="n">
-        <v>220</v>
-      </c>
-      <c r="D162" t="n">
-        <v>220</v>
-      </c>
-      <c r="E162" t="n">
-        <v>218</v>
-      </c>
-      <c r="F162" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-117083.6603157505</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>215</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>218</v>
-      </c>
-      <c r="C163" t="n">
-        <v>218</v>
-      </c>
-      <c r="D163" t="n">
-        <v>218</v>
-      </c>
-      <c r="E163" t="n">
-        <v>218</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-118533.6603157505</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>215</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>218</v>
-      </c>
-      <c r="C164" t="n">
-        <v>218</v>
-      </c>
-      <c r="D164" t="n">
-        <v>218</v>
-      </c>
-      <c r="E164" t="n">
-        <v>218</v>
-      </c>
-      <c r="F164" t="n">
-        <v>6656.6732</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-118533.6603157505</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>215</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="C165" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="D165" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="E165" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1036.1807</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-117497.4796157505</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>215</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>220</v>
-      </c>
-      <c r="C166" t="n">
-        <v>220</v>
-      </c>
-      <c r="D166" t="n">
-        <v>220</v>
-      </c>
-      <c r="E166" t="n">
-        <v>220</v>
-      </c>
-      <c r="F166" t="n">
-        <v>819</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-116678.4796157505</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>215</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>220</v>
-      </c>
-      <c r="C167" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="E167" t="n">
-        <v>220</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4563</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-112115.4796157505</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>215</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="D168" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="E168" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-91115.47961575052</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>215</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="C169" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="D169" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="E169" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>36</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-91151.47961575052</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>215</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="D170" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="E170" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="F170" t="n">
-        <v>482</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-90669.47961575052</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>215</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="E171" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4657.4165</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-86012.06311575051</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>215</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="D172" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2198.6577</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-83813.40541575052</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>215</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="E173" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="F173" t="n">
-        <v>5847.9783</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-77965.42711575051</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>215</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="D174" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="F174" t="n">
-        <v>6959.9584</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-84925.38551575052</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>215</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="D175" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="E175" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-84925.38551575052</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>215</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="D176" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="E176" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="F176" t="n">
-        <v>898.7726</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-84026.61291575052</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>215</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>223</v>
-      </c>
-      <c r="C177" t="n">
-        <v>223</v>
-      </c>
-      <c r="D177" t="n">
-        <v>223</v>
-      </c>
-      <c r="E177" t="n">
-        <v>223</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4535.7046</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-79490.90831575052</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>215</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>220.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>220.7</v>
-      </c>
-      <c r="D178" t="n">
-        <v>220.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>220.7</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-79499.90831575052</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>215</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1.021511627906977</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="C179" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="E179" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="F179" t="n">
-        <v>898.7726</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-78601.13571575053</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="C180" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="F180" t="n">
-        <v>5306.3973</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-78601.13571575053</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="C181" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="D181" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="E181" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1225.4913</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-78601.13571575053</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F2" t="n">
-        <v>1666.943</v>
+        <v>5.4739</v>
       </c>
       <c r="G2" t="n">
-        <v>-119789.3176134856</v>
+        <v>-63410.85062381053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F3" t="n">
-        <v>87.08969999999999</v>
+        <v>274.6098674528302</v>
       </c>
       <c r="G3" t="n">
-        <v>-119789.3176134856</v>
+        <v>-63685.46049126337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D4" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F4" t="n">
-        <v>5239.344</v>
+        <v>7.84433962264151</v>
       </c>
       <c r="G4" t="n">
-        <v>-125028.6616134856</v>
+        <v>-63685.46049126337</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,35 +546,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>214</v>
+        <v>210.1</v>
       </c>
       <c r="C5" t="n">
         <v>210.1</v>
       </c>
       <c r="D5" t="n">
-        <v>215</v>
+        <v>210.1</v>
       </c>
       <c r="E5" t="n">
         <v>210.1</v>
       </c>
       <c r="F5" t="n">
-        <v>3610.33</v>
+        <v>2926.0876</v>
       </c>
       <c r="G5" t="n">
-        <v>-121418.3316134856</v>
+        <v>-66611.54809126336</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>209</v>
-      </c>
-      <c r="K5" t="n">
-        <v>209</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -586,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>210.1</v>
+        <v>212</v>
       </c>
       <c r="C6" t="n">
-        <v>210.1</v>
+        <v>212</v>
       </c>
       <c r="D6" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E6" t="n">
-        <v>210.1</v>
+        <v>212</v>
       </c>
       <c r="F6" t="n">
-        <v>6403.068</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>-121418.3316134856</v>
+        <v>-66591.54809126336</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>210.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>209</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -630,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>210.1</v>
+        <v>211</v>
       </c>
       <c r="C7" t="n">
-        <v>210.1</v>
+        <v>211</v>
       </c>
       <c r="D7" t="n">
-        <v>210.1</v>
+        <v>211</v>
       </c>
       <c r="E7" t="n">
-        <v>210.1</v>
+        <v>211</v>
       </c>
       <c r="F7" t="n">
-        <v>7686.613</v>
+        <v>134.868</v>
       </c>
       <c r="G7" t="n">
-        <v>-121418.3316134856</v>
+        <v>-66726.41609126337</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>210.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>209</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -674,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>210.1</v>
+        <v>211</v>
       </c>
       <c r="C8" t="n">
-        <v>210.2</v>
+        <v>214.7</v>
       </c>
       <c r="D8" t="n">
-        <v>215</v>
+        <v>214.7</v>
       </c>
       <c r="E8" t="n">
         <v>210.1</v>
       </c>
       <c r="F8" t="n">
-        <v>23195.8268</v>
+        <v>1268.0825</v>
       </c>
       <c r="G8" t="n">
-        <v>-98222.5048134856</v>
+        <v>-65458.33359126337</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>210.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>209</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -718,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>212.1</v>
+        <v>210.1</v>
       </c>
       <c r="C9" t="n">
-        <v>212.1</v>
+        <v>210.1</v>
       </c>
       <c r="D9" t="n">
-        <v>212.1</v>
+        <v>210.1</v>
       </c>
       <c r="E9" t="n">
-        <v>212.1</v>
+        <v>210.1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4619.5838</v>
       </c>
       <c r="G9" t="n">
-        <v>-98219.5048134856</v>
+        <v>-70077.91739126337</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>209</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -762,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" t="n">
         <v>215</v>
@@ -771,13 +735,13 @@
         <v>215</v>
       </c>
       <c r="E10" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F10" t="n">
-        <v>105.1873</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>-98114.3175134856</v>
+        <v>-70071.91739126337</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -786,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>209</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -816,10 +774,10 @@
         <v>215</v>
       </c>
       <c r="F11" t="n">
-        <v>5980.2041</v>
+        <v>3.6</v>
       </c>
       <c r="G11" t="n">
-        <v>-98114.3175134856</v>
+        <v>-70071.91739126337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -828,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>209</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -858,10 +810,10 @@
         <v>215</v>
       </c>
       <c r="F12" t="n">
-        <v>3869.87</v>
+        <v>287.779</v>
       </c>
       <c r="G12" t="n">
-        <v>-98114.3175134856</v>
+        <v>-70071.91739126337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -870,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>209</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -891,19 +837,19 @@
         <v>215</v>
       </c>
       <c r="C13" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D13" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E13" t="n">
         <v>215</v>
       </c>
       <c r="F13" t="n">
-        <v>618.4324</v>
+        <v>3153.018982407407</v>
       </c>
       <c r="G13" t="n">
-        <v>-98114.3175134856</v>
+        <v>-66918.89840885597</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -912,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>209</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -930,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>213.3</v>
+        <v>216.1</v>
       </c>
       <c r="C14" t="n">
-        <v>210.4</v>
+        <v>216.1</v>
       </c>
       <c r="D14" t="n">
-        <v>213.3</v>
+        <v>216.1</v>
       </c>
       <c r="E14" t="n">
-        <v>210.4</v>
+        <v>216.1</v>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>4302.8853</v>
       </c>
       <c r="G14" t="n">
-        <v>-102114.3175134856</v>
+        <v>-62616.01310885596</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -954,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>209</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -972,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>214</v>
+        <v>216.1</v>
       </c>
       <c r="C15" t="n">
-        <v>215</v>
+        <v>216.1</v>
       </c>
       <c r="D15" t="n">
-        <v>215</v>
+        <v>216.1</v>
       </c>
       <c r="E15" t="n">
-        <v>214</v>
+        <v>216.1</v>
       </c>
       <c r="F15" t="n">
-        <v>413.3</v>
+        <v>9.1431</v>
       </c>
       <c r="G15" t="n">
-        <v>-101701.0175134856</v>
+        <v>-62616.01310885596</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>210.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>209</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1016,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>215</v>
+        <v>216.1</v>
       </c>
       <c r="C16" t="n">
-        <v>215</v>
+        <v>216.1</v>
       </c>
       <c r="D16" t="n">
-        <v>215</v>
+        <v>216.1</v>
       </c>
       <c r="E16" t="n">
-        <v>215</v>
+        <v>216.1</v>
       </c>
       <c r="F16" t="n">
-        <v>189.3</v>
+        <v>1461.884</v>
       </c>
       <c r="G16" t="n">
-        <v>-101701.0175134856</v>
+        <v>-62616.01310885596</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1040,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>209</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1058,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>215</v>
+        <v>216.1</v>
       </c>
       <c r="C17" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F17" t="n">
-        <v>5591.5352</v>
+        <v>3884.4087</v>
       </c>
       <c r="G17" t="n">
-        <v>-101701.0175134856</v>
+        <v>-58731.60440885596</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1082,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>209</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1100,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C18" t="n">
-        <v>219.4</v>
+        <v>213</v>
       </c>
       <c r="D18" t="n">
-        <v>219.4</v>
+        <v>213</v>
       </c>
       <c r="E18" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F18" t="n">
-        <v>5672.5514</v>
+        <v>1251.5285</v>
       </c>
       <c r="G18" t="n">
-        <v>-96028.4661134856</v>
+        <v>-59983.13290885597</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1124,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>209</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1142,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>216.4</v>
+        <v>215.6</v>
       </c>
       <c r="C19" t="n">
-        <v>216.3</v>
+        <v>215.6</v>
       </c>
       <c r="D19" t="n">
-        <v>216.4</v>
+        <v>215.6</v>
       </c>
       <c r="E19" t="n">
-        <v>216.3</v>
+        <v>215.6</v>
       </c>
       <c r="F19" t="n">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>-99028.4661134856</v>
+        <v>-59980.13290885597</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1166,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>209</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1184,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>219.9</v>
+        <v>212</v>
       </c>
       <c r="C20" t="n">
-        <v>219.9</v>
+        <v>212</v>
       </c>
       <c r="D20" t="n">
-        <v>219.9</v>
+        <v>212</v>
       </c>
       <c r="E20" t="n">
-        <v>219.9</v>
+        <v>212</v>
       </c>
       <c r="F20" t="n">
-        <v>1568.853</v>
+        <v>789.8663</v>
       </c>
       <c r="G20" t="n">
-        <v>-97459.6131134856</v>
+        <v>-60769.99920885597</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1208,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>209</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1226,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C21" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D21" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E21" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F21" t="n">
-        <v>189.3262</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>-97270.2869134856</v>
+        <v>-60766.99920885597</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1250,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>209</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1268,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>221.6</v>
+        <v>212</v>
       </c>
       <c r="C22" t="n">
-        <v>220.1</v>
+        <v>212</v>
       </c>
       <c r="D22" t="n">
-        <v>221.9</v>
+        <v>212</v>
       </c>
       <c r="E22" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F22" t="n">
-        <v>20676.0311</v>
+        <v>1773.0216</v>
       </c>
       <c r="G22" t="n">
-        <v>-76594.25581348559</v>
+        <v>-62540.02080885597</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1292,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>209</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1310,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>220.1</v>
+        <v>211.8</v>
       </c>
       <c r="C23" t="n">
-        <v>222</v>
+        <v>211.8</v>
       </c>
       <c r="D23" t="n">
-        <v>222</v>
+        <v>211.8</v>
       </c>
       <c r="E23" t="n">
-        <v>220.1</v>
+        <v>211.8</v>
       </c>
       <c r="F23" t="n">
-        <v>13011.956</v>
+        <v>307.7463</v>
       </c>
       <c r="G23" t="n">
-        <v>-63582.2998134856</v>
+        <v>-62847.76710885597</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1334,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>209</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1352,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>222</v>
+        <v>211.8</v>
       </c>
       <c r="C24" t="n">
-        <v>221.9</v>
+        <v>211.8</v>
       </c>
       <c r="D24" t="n">
-        <v>222</v>
+        <v>211.8</v>
       </c>
       <c r="E24" t="n">
-        <v>221.9</v>
+        <v>211.8</v>
       </c>
       <c r="F24" t="n">
-        <v>4406.1673</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-67988.46711348559</v>
+        <v>-62847.76710885597</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1376,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>209</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>221.9</v>
+        <v>210.1</v>
       </c>
       <c r="C25" t="n">
-        <v>221.9</v>
+        <v>210.8</v>
       </c>
       <c r="D25" t="n">
-        <v>221.9</v>
+        <v>210.8</v>
       </c>
       <c r="E25" t="n">
-        <v>221.9</v>
+        <v>210.1</v>
       </c>
       <c r="F25" t="n">
-        <v>26588.6478</v>
+        <v>52.4372</v>
       </c>
       <c r="G25" t="n">
-        <v>-67988.46711348559</v>
+        <v>-62900.20430885597</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1418,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>209</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>221.9</v>
+        <v>210.1</v>
       </c>
       <c r="C26" t="n">
-        <v>222.1</v>
+        <v>210.1</v>
       </c>
       <c r="D26" t="n">
-        <v>222.1</v>
+        <v>210.1</v>
       </c>
       <c r="E26" t="n">
-        <v>221.9</v>
+        <v>210.1</v>
       </c>
       <c r="F26" t="n">
-        <v>5137.5049</v>
+        <v>902.1926999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-62850.96221348559</v>
+        <v>-63802.39700885597</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1460,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>209</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1478,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>221.9</v>
+        <v>211.8</v>
       </c>
       <c r="C27" t="n">
-        <v>221.9</v>
+        <v>211.8</v>
       </c>
       <c r="D27" t="n">
-        <v>221.9</v>
+        <v>211.8</v>
       </c>
       <c r="E27" t="n">
-        <v>221.9</v>
+        <v>211.8</v>
       </c>
       <c r="F27" t="n">
-        <v>831.3898</v>
+        <v>2330.967</v>
       </c>
       <c r="G27" t="n">
-        <v>-63682.35201348559</v>
+        <v>-61471.43000885597</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1502,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>209</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1520,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>221.9</v>
+        <v>211</v>
       </c>
       <c r="C28" t="n">
-        <v>221.9</v>
+        <v>211</v>
       </c>
       <c r="D28" t="n">
-        <v>221.9</v>
+        <v>211</v>
       </c>
       <c r="E28" t="n">
-        <v>221.9</v>
+        <v>211</v>
       </c>
       <c r="F28" t="n">
-        <v>28152.6715</v>
+        <v>1922.5525</v>
       </c>
       <c r="G28" t="n">
-        <v>-63682.35201348559</v>
+        <v>-63393.98250885597</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1544,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>209</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1562,40 +1410,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>219.9</v>
+        <v>210.6</v>
       </c>
       <c r="C29" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="D29" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="E29" t="n">
-        <v>219.9</v>
+        <v>208.1</v>
       </c>
       <c r="F29" t="n">
-        <v>7620.5451</v>
+        <v>11471.9585</v>
       </c>
       <c r="G29" t="n">
-        <v>-71302.89711348558</v>
+        <v>-63393.98250885597</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>209</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>1.047153110047847</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
     </row>
@@ -1604,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="C30" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="D30" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="E30" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="F30" t="n">
-        <v>2041.2787</v>
+        <v>0.3377</v>
       </c>
       <c r="G30" t="n">
-        <v>-71302.89711348558</v>
+        <v>-63393.98250885597</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1640,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>219.9</v>
+        <v>211.7</v>
       </c>
       <c r="C31" t="n">
-        <v>219.9</v>
+        <v>211.8</v>
       </c>
       <c r="D31" t="n">
-        <v>219.9</v>
+        <v>211.8</v>
       </c>
       <c r="E31" t="n">
-        <v>219.9</v>
+        <v>211.7</v>
       </c>
       <c r="F31" t="n">
-        <v>490.0644</v>
+        <v>6088.7357</v>
       </c>
       <c r="G31" t="n">
-        <v>-71302.89711348558</v>
+        <v>-57305.24680885597</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1676,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>219.9</v>
+        <v>211.8</v>
       </c>
       <c r="C32" t="n">
-        <v>219.9</v>
+        <v>208</v>
       </c>
       <c r="D32" t="n">
-        <v>219.9</v>
+        <v>211.8</v>
       </c>
       <c r="E32" t="n">
-        <v>219.9</v>
+        <v>208</v>
       </c>
       <c r="F32" t="n">
-        <v>321.4628</v>
+        <v>19174.2084</v>
       </c>
       <c r="G32" t="n">
-        <v>-71302.89711348558</v>
+        <v>-76479.45520885597</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1712,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="C33" t="n">
-        <v>219.9</v>
+        <v>208.2</v>
       </c>
       <c r="D33" t="n">
-        <v>219.9</v>
+        <v>211</v>
       </c>
       <c r="E33" t="n">
-        <v>219.9</v>
+        <v>208.2</v>
       </c>
       <c r="F33" t="n">
-        <v>358.7476</v>
+        <v>659.1639</v>
       </c>
       <c r="G33" t="n">
-        <v>-71302.89711348558</v>
+        <v>-75820.29130885597</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1748,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>222.1</v>
+        <v>215.8</v>
       </c>
       <c r="C34" t="n">
-        <v>222.1</v>
+        <v>215.8</v>
       </c>
       <c r="D34" t="n">
-        <v>222.1</v>
+        <v>215.8</v>
       </c>
       <c r="E34" t="n">
-        <v>222.1</v>
+        <v>215.8</v>
       </c>
       <c r="F34" t="n">
-        <v>7803.849</v>
+        <v>2.5</v>
       </c>
       <c r="G34" t="n">
-        <v>-63499.04811348558</v>
+        <v>-75817.79130885597</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1784,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>220</v>
+        <v>208.2</v>
       </c>
       <c r="C35" t="n">
-        <v>220</v>
+        <v>208.3</v>
       </c>
       <c r="D35" t="n">
-        <v>220</v>
+        <v>208.3</v>
       </c>
       <c r="E35" t="n">
-        <v>220</v>
+        <v>208.2</v>
       </c>
       <c r="F35" t="n">
-        <v>7000</v>
+        <v>6857.4951</v>
       </c>
       <c r="G35" t="n">
-        <v>-70499.04811348558</v>
+        <v>-82675.28640885597</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1820,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>220</v>
+        <v>208.3</v>
       </c>
       <c r="C36" t="n">
-        <v>219.9</v>
+        <v>214</v>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E36" t="n">
-        <v>219.9</v>
+        <v>208.1</v>
       </c>
       <c r="F36" t="n">
-        <v>2560</v>
+        <v>11774.1342</v>
       </c>
       <c r="G36" t="n">
-        <v>-73059.04811348558</v>
+        <v>-70901.15220885597</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1856,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>219.9</v>
+        <v>214</v>
       </c>
       <c r="C37" t="n">
-        <v>219.9</v>
+        <v>214</v>
       </c>
       <c r="D37" t="n">
-        <v>219.9</v>
+        <v>214</v>
       </c>
       <c r="E37" t="n">
-        <v>219.9</v>
+        <v>214</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8804</v>
+        <v>263.2158</v>
       </c>
       <c r="G37" t="n">
-        <v>-73059.04811348558</v>
+        <v>-70901.15220885597</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1892,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C38" t="n">
-        <v>215.2</v>
+        <v>212</v>
       </c>
       <c r="D38" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E38" t="n">
-        <v>215.2</v>
+        <v>212</v>
       </c>
       <c r="F38" t="n">
-        <v>5396.1973</v>
+        <v>300</v>
       </c>
       <c r="G38" t="n">
-        <v>-78455.24541348558</v>
+        <v>-71201.15220885597</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1928,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C39" t="n">
-        <v>215.3</v>
+        <v>208</v>
       </c>
       <c r="D39" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E39" t="n">
-        <v>215.3</v>
+        <v>208</v>
       </c>
       <c r="F39" t="n">
-        <v>440.99</v>
+        <v>41915.8395</v>
       </c>
       <c r="G39" t="n">
-        <v>-78014.25541348557</v>
+        <v>-113116.991708856</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1964,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>215.3</v>
+        <v>209</v>
       </c>
       <c r="C40" t="n">
-        <v>215.3</v>
+        <v>208</v>
       </c>
       <c r="D40" t="n">
-        <v>215.3</v>
+        <v>209</v>
       </c>
       <c r="E40" t="n">
-        <v>215.3</v>
+        <v>208</v>
       </c>
       <c r="F40" t="n">
-        <v>618.4324</v>
+        <v>276.7642</v>
       </c>
       <c r="G40" t="n">
-        <v>-78014.25541348557</v>
+        <v>-113116.991708856</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2000,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>219.9</v>
+        <v>208</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9</v>
+        <v>208</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9</v>
+        <v>208</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9</v>
+        <v>208</v>
       </c>
       <c r="F41" t="n">
-        <v>2.3</v>
+        <v>8970.0491</v>
       </c>
       <c r="G41" t="n">
-        <v>-78011.95541348557</v>
+        <v>-113116.991708856</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2036,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C42" t="n">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D42" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E42" t="n">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F42" t="n">
-        <v>91.9444</v>
+        <v>3489.7301</v>
       </c>
       <c r="G42" t="n">
-        <v>-78103.89981348556</v>
+        <v>-113116.991708856</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2072,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>215.3</v>
+        <v>208</v>
       </c>
       <c r="C43" t="n">
-        <v>215.3</v>
+        <v>209</v>
       </c>
       <c r="D43" t="n">
-        <v>215.3</v>
+        <v>209</v>
       </c>
       <c r="E43" t="n">
-        <v>215.3</v>
+        <v>208</v>
       </c>
       <c r="F43" t="n">
-        <v>129.635</v>
+        <v>833.1915</v>
       </c>
       <c r="G43" t="n">
-        <v>-78233.53481348556</v>
+        <v>-112283.800208856</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2108,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>215.4</v>
+        <v>209</v>
       </c>
       <c r="C44" t="n">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D44" t="n">
-        <v>215.4</v>
+        <v>209</v>
       </c>
       <c r="E44" t="n">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F44" t="n">
-        <v>45420.7023</v>
+        <v>6674.8824</v>
       </c>
       <c r="G44" t="n">
-        <v>-123654.2371134855</v>
+        <v>-112283.800208856</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2144,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>211.3</v>
+        <v>209</v>
       </c>
       <c r="C45" t="n">
-        <v>211.3</v>
+        <v>209</v>
       </c>
       <c r="D45" t="n">
-        <v>211.3</v>
+        <v>209</v>
       </c>
       <c r="E45" t="n">
-        <v>211.3</v>
+        <v>209</v>
       </c>
       <c r="F45" t="n">
-        <v>328.382</v>
+        <v>4151.2249</v>
       </c>
       <c r="G45" t="n">
-        <v>-123982.6191134855</v>
+        <v>-112283.800208856</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2180,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>214.7</v>
+        <v>209.1</v>
       </c>
       <c r="C46" t="n">
-        <v>214.7</v>
+        <v>209.1</v>
       </c>
       <c r="D46" t="n">
-        <v>214.7</v>
+        <v>209.1</v>
       </c>
       <c r="E46" t="n">
-        <v>214.7</v>
+        <v>209.1</v>
       </c>
       <c r="F46" t="n">
-        <v>3537.2246</v>
+        <v>1300.3563</v>
       </c>
       <c r="G46" t="n">
-        <v>-120445.3945134855</v>
+        <v>-110983.443908856</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2216,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="C47" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="D47" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="E47" t="n">
-        <v>216.9</v>
+        <v>213</v>
       </c>
       <c r="F47" t="n">
-        <v>805.9008</v>
+        <v>1873.2512</v>
       </c>
       <c r="G47" t="n">
-        <v>-119639.4937134855</v>
+        <v>-109110.192708856</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2252,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>212.3</v>
+        <v>212</v>
       </c>
       <c r="C48" t="n">
-        <v>212.3</v>
+        <v>212</v>
       </c>
       <c r="D48" t="n">
-        <v>212.3</v>
+        <v>212</v>
       </c>
       <c r="E48" t="n">
-        <v>212.3</v>
+        <v>212</v>
       </c>
       <c r="F48" t="n">
-        <v>164.1</v>
+        <v>92.52630000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-119803.5937134855</v>
+        <v>-109202.719008856</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2288,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>209.2</v>
+        <v>215.1</v>
       </c>
       <c r="C49" t="n">
-        <v>209.2</v>
+        <v>213</v>
       </c>
       <c r="D49" t="n">
-        <v>209.2</v>
+        <v>215.1</v>
       </c>
       <c r="E49" t="n">
-        <v>209.2</v>
+        <v>213</v>
       </c>
       <c r="F49" t="n">
-        <v>455.7142</v>
+        <v>2834.8315</v>
       </c>
       <c r="G49" t="n">
-        <v>-120259.3079134856</v>
+        <v>-106367.887508856</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2336,10 +2178,10 @@
         <v>214</v>
       </c>
       <c r="F50" t="n">
-        <v>4304.4918</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="n">
-        <v>-115954.8161134855</v>
+        <v>-104867.887508856</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2363,19 +2205,19 @@
         <v>214</v>
       </c>
       <c r="C51" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D51" t="n">
         <v>214</v>
       </c>
       <c r="E51" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F51" t="n">
-        <v>8706.247600000001</v>
+        <v>50</v>
       </c>
       <c r="G51" t="n">
-        <v>-124661.0637134855</v>
+        <v>-104867.887508856</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2396,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>210.2</v>
+        <v>214</v>
       </c>
       <c r="C52" t="n">
-        <v>210.2</v>
+        <v>212</v>
       </c>
       <c r="D52" t="n">
-        <v>210.2</v>
+        <v>214</v>
       </c>
       <c r="E52" t="n">
-        <v>210.2</v>
+        <v>212</v>
       </c>
       <c r="F52" t="n">
-        <v>24.5516</v>
+        <v>2923.6265</v>
       </c>
       <c r="G52" t="n">
-        <v>-124636.5121134855</v>
+        <v>-107791.514008856</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2432,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>210.2</v>
+        <v>210.1</v>
       </c>
       <c r="C53" t="n">
-        <v>210.2</v>
+        <v>208.7</v>
       </c>
       <c r="D53" t="n">
-        <v>210.2</v>
+        <v>210.1</v>
       </c>
       <c r="E53" t="n">
-        <v>210.2</v>
+        <v>208.7</v>
       </c>
       <c r="F53" t="n">
-        <v>8.4533</v>
+        <v>7231.4849</v>
       </c>
       <c r="G53" t="n">
-        <v>-124636.5121134855</v>
+        <v>-115022.998908856</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2468,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>213.8</v>
+        <v>212</v>
       </c>
       <c r="C54" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="D54" t="n">
-        <v>213.9</v>
+        <v>212</v>
       </c>
       <c r="E54" t="n">
-        <v>213.8</v>
+        <v>212</v>
       </c>
       <c r="F54" t="n">
-        <v>1956.8894</v>
+        <v>886.4829</v>
       </c>
       <c r="G54" t="n">
-        <v>-122679.6227134855</v>
+        <v>-114136.516008856</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2504,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>213.8</v>
+        <v>211.9</v>
       </c>
       <c r="C55" t="n">
-        <v>213.8</v>
+        <v>211.9</v>
       </c>
       <c r="D55" t="n">
-        <v>213.8</v>
+        <v>211.9</v>
       </c>
       <c r="E55" t="n">
-        <v>213.8</v>
+        <v>211.9</v>
       </c>
       <c r="F55" t="n">
-        <v>6754.9111</v>
+        <v>7248.9863</v>
       </c>
       <c r="G55" t="n">
-        <v>-129434.5338134855</v>
+        <v>-121385.502308856</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2540,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>215.4</v>
+        <v>213</v>
       </c>
       <c r="C56" t="n">
-        <v>215.4</v>
+        <v>213</v>
       </c>
       <c r="D56" t="n">
-        <v>215.4</v>
+        <v>213</v>
       </c>
       <c r="E56" t="n">
-        <v>215.4</v>
+        <v>213</v>
       </c>
       <c r="F56" t="n">
-        <v>4304.4918</v>
+        <v>130.0723</v>
       </c>
       <c r="G56" t="n">
-        <v>-125130.0420134855</v>
+        <v>-121255.430008856</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2576,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>219.9</v>
+        <v>213</v>
       </c>
       <c r="C57" t="n">
-        <v>219.9</v>
+        <v>216</v>
       </c>
       <c r="D57" t="n">
-        <v>219.9</v>
+        <v>216</v>
       </c>
       <c r="E57" t="n">
-        <v>219.9</v>
+        <v>213</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>2314.03389537037</v>
       </c>
       <c r="G57" t="n">
-        <v>-125120.0420134855</v>
+        <v>-118941.3961134856</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2612,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C58" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D58" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E58" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>955.6238</v>
       </c>
       <c r="G58" t="n">
-        <v>-125130.0420134855</v>
+        <v>-119897.0199134856</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2648,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>219</v>
+        <v>215.9</v>
       </c>
       <c r="C59" t="n">
-        <v>221</v>
+        <v>215.9</v>
       </c>
       <c r="D59" t="n">
-        <v>221</v>
+        <v>215.9</v>
       </c>
       <c r="E59" t="n">
-        <v>219</v>
+        <v>215.9</v>
       </c>
       <c r="F59" t="n">
-        <v>514.5386179185521</v>
+        <v>514.5346</v>
       </c>
       <c r="G59" t="n">
-        <v>-124615.503395567</v>
+        <v>-119382.4853134856</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2684,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>218</v>
+        <v>216.1</v>
       </c>
       <c r="C60" t="n">
-        <v>218</v>
+        <v>216.1</v>
       </c>
       <c r="D60" t="n">
-        <v>218</v>
+        <v>216.1</v>
       </c>
       <c r="E60" t="n">
-        <v>218</v>
+        <v>216.1</v>
       </c>
       <c r="F60" t="n">
-        <v>603.5784</v>
+        <v>108.8421</v>
       </c>
       <c r="G60" t="n">
-        <v>-125219.081795567</v>
+        <v>-119273.6432134856</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2720,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C61" t="n">
-        <v>218</v>
+        <v>217.9</v>
       </c>
       <c r="D61" t="n">
-        <v>218</v>
+        <v>218.4</v>
       </c>
       <c r="E61" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F61" t="n">
-        <v>1130.3368</v>
+        <v>763.5901</v>
       </c>
       <c r="G61" t="n">
-        <v>-125219.081795567</v>
+        <v>-118510.0531134856</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2756,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="C62" t="n">
-        <v>212.6</v>
+        <v>216.8</v>
       </c>
       <c r="D62" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="E62" t="n">
-        <v>212.6</v>
+        <v>216.8</v>
       </c>
       <c r="F62" t="n">
-        <v>1261</v>
+        <v>10.36</v>
       </c>
       <c r="G62" t="n">
-        <v>-126480.081795567</v>
+        <v>-118520.4131134856</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2792,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="C63" t="n">
-        <v>214</v>
+        <v>216.8</v>
       </c>
       <c r="D63" t="n">
-        <v>215</v>
+        <v>216.8</v>
       </c>
       <c r="E63" t="n">
-        <v>214</v>
+        <v>216.8</v>
       </c>
       <c r="F63" t="n">
-        <v>1213.512</v>
+        <v>6.585</v>
       </c>
       <c r="G63" t="n">
-        <v>-125266.569795567</v>
+        <v>-118520.4131134856</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2828,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>212.6</v>
+        <v>215.5</v>
       </c>
       <c r="C64" t="n">
-        <v>212.6</v>
+        <v>215.5</v>
       </c>
       <c r="D64" t="n">
-        <v>212.6</v>
+        <v>215.5</v>
       </c>
       <c r="E64" t="n">
-        <v>212.6</v>
+        <v>215.5</v>
       </c>
       <c r="F64" t="n">
-        <v>2514.7967</v>
+        <v>4.033</v>
       </c>
       <c r="G64" t="n">
-        <v>-127781.366495567</v>
+        <v>-118524.4461134856</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2864,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>214</v>
+        <v>215.5</v>
       </c>
       <c r="C65" t="n">
-        <v>214</v>
+        <v>215.5</v>
       </c>
       <c r="D65" t="n">
-        <v>214</v>
+        <v>215.5</v>
       </c>
       <c r="E65" t="n">
-        <v>214</v>
+        <v>215.5</v>
       </c>
       <c r="F65" t="n">
-        <v>514.5386</v>
+        <v>9.791</v>
       </c>
       <c r="G65" t="n">
-        <v>-127266.827895567</v>
+        <v>-118524.4461134856</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2900,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="C66" t="n">
-        <v>214.1</v>
+        <v>215.5</v>
       </c>
       <c r="D66" t="n">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="E66" t="n">
-        <v>214.1</v>
+        <v>215.5</v>
       </c>
       <c r="F66" t="n">
-        <v>328.382</v>
+        <v>14.915</v>
       </c>
       <c r="G66" t="n">
-        <v>-126938.445895567</v>
+        <v>-118524.4461134856</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2936,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="C67" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="D67" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="E67" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="F67" t="n">
-        <v>662.8819999999999</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>-126275.563895567</v>
+        <v>-118524.4461134856</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2972,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="C68" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="D68" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="E68" t="n">
-        <v>218.9</v>
+        <v>215.5</v>
       </c>
       <c r="F68" t="n">
-        <v>521.8676</v>
+        <v>1391.0945</v>
       </c>
       <c r="G68" t="n">
-        <v>-126275.563895567</v>
+        <v>-118524.4461134856</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3008,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>220</v>
+        <v>215.5</v>
       </c>
       <c r="C69" t="n">
-        <v>220</v>
+        <v>215.5</v>
       </c>
       <c r="D69" t="n">
-        <v>220</v>
+        <v>215.5</v>
       </c>
       <c r="E69" t="n">
-        <v>220</v>
+        <v>215.5</v>
       </c>
       <c r="F69" t="n">
-        <v>260.4676</v>
+        <v>357.4</v>
       </c>
       <c r="G69" t="n">
-        <v>-126015.096295567</v>
+        <v>-118524.4461134856</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3044,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>220.6</v>
+        <v>214.5</v>
       </c>
       <c r="C70" t="n">
-        <v>220.6</v>
+        <v>214.5</v>
       </c>
       <c r="D70" t="n">
-        <v>220.6</v>
+        <v>214.5</v>
       </c>
       <c r="E70" t="n">
-        <v>220.6</v>
+        <v>214.5</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>254.3749</v>
       </c>
       <c r="G70" t="n">
-        <v>-126009.096295567</v>
+        <v>-118778.8210134856</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3080,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>220.6</v>
+        <v>215.5</v>
       </c>
       <c r="C71" t="n">
-        <v>220.6</v>
+        <v>215.5</v>
       </c>
       <c r="D71" t="n">
-        <v>220.6</v>
+        <v>215.5</v>
       </c>
       <c r="E71" t="n">
-        <v>220.6</v>
+        <v>215.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>5.6368</v>
       </c>
       <c r="G71" t="n">
-        <v>-126009.096295567</v>
+        <v>-118773.1842134856</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3116,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>218.9</v>
+        <v>215</v>
       </c>
       <c r="C72" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="D72" t="n">
-        <v>218.9</v>
+        <v>215</v>
       </c>
       <c r="E72" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="F72" t="n">
-        <v>260.4676</v>
+        <v>1016.1334</v>
       </c>
       <c r="G72" t="n">
-        <v>-126269.563895567</v>
+        <v>-119789.3176134856</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3152,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="C73" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="D73" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="E73" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="F73" t="n">
-        <v>7283.1914</v>
+        <v>1666.943</v>
       </c>
       <c r="G73" t="n">
-        <v>-126269.563895567</v>
+        <v>-119789.3176134856</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3188,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="C74" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="D74" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="E74" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="F74" t="n">
-        <v>396</v>
+        <v>87.08969999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-126269.563895567</v>
+        <v>-119789.3176134856</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3224,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="C75" t="n">
-        <v>218.9</v>
+        <v>209</v>
       </c>
       <c r="D75" t="n">
-        <v>218.9</v>
+        <v>214</v>
       </c>
       <c r="E75" t="n">
-        <v>218.9</v>
+        <v>209</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5483</v>
+        <v>5239.344</v>
       </c>
       <c r="G75" t="n">
-        <v>-126269.563895567</v>
+        <v>-125028.6616134856</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3260,31 +3102,35 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C76" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="D76" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E76" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="F76" t="n">
-        <v>31.4057</v>
+        <v>3610.33</v>
       </c>
       <c r="G76" t="n">
-        <v>-126300.969595567</v>
+        <v>-121418.3316134856</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>209</v>
+      </c>
+      <c r="K76" t="n">
+        <v>209</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3296,22 +3142,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>219</v>
+        <v>210.1</v>
       </c>
       <c r="C77" t="n">
-        <v>219</v>
+        <v>210.1</v>
       </c>
       <c r="D77" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E77" t="n">
-        <v>219</v>
+        <v>210.1</v>
       </c>
       <c r="F77" t="n">
-        <v>130.7756</v>
+        <v>6403.068</v>
       </c>
       <c r="G77" t="n">
-        <v>-126170.193995567</v>
+        <v>-121418.3316134856</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3320,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>209</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3332,22 +3184,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="C78" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="D78" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="E78" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="F78" t="n">
-        <v>4329.0732</v>
+        <v>7686.613</v>
       </c>
       <c r="G78" t="n">
-        <v>-130499.267195567</v>
+        <v>-121418.3316134856</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3356,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>209</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3368,32 +3226,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="C79" t="n">
-        <v>218</v>
+        <v>210.2</v>
       </c>
       <c r="D79" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E79" t="n">
-        <v>218</v>
+        <v>210.1</v>
       </c>
       <c r="F79" t="n">
-        <v>46</v>
+        <v>23195.8268</v>
       </c>
       <c r="G79" t="n">
-        <v>-130499.267195567</v>
+        <v>-98222.5048134856</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>209</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3404,32 +3270,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>218</v>
+        <v>212.1</v>
       </c>
       <c r="C80" t="n">
-        <v>218</v>
+        <v>212.1</v>
       </c>
       <c r="D80" t="n">
-        <v>218</v>
+        <v>212.1</v>
       </c>
       <c r="E80" t="n">
-        <v>218</v>
+        <v>212.1</v>
       </c>
       <c r="F80" t="n">
-        <v>725.0515</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>-130499.267195567</v>
+        <v>-98219.5048134856</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>209</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3440,22 +3314,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C81" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D81" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E81" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F81" t="n">
-        <v>3368.4558</v>
+        <v>105.1873</v>
       </c>
       <c r="G81" t="n">
-        <v>-130499.267195567</v>
+        <v>-98114.3175134856</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3464,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>209</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3476,22 +3356,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C82" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D82" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E82" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>5980.2041</v>
       </c>
       <c r="G82" t="n">
-        <v>-135499.267195567</v>
+        <v>-98114.3175134856</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3500,8 +3380,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>209</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3512,22 +3398,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C83" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D83" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E83" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F83" t="n">
-        <v>53.8834</v>
+        <v>3869.87</v>
       </c>
       <c r="G83" t="n">
-        <v>-135499.267195567</v>
+        <v>-98114.3175134856</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3536,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>209</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3440,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C84" t="n">
-        <v>214.3</v>
+        <v>215</v>
       </c>
       <c r="D84" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E84" t="n">
-        <v>214.3</v>
+        <v>215</v>
       </c>
       <c r="F84" t="n">
-        <v>5489.8025</v>
+        <v>618.4324</v>
       </c>
       <c r="G84" t="n">
-        <v>-140989.069695567</v>
+        <v>-98114.3175134856</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3572,8 +3464,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>209</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3584,22 +3482,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>215</v>
+        <v>213.3</v>
       </c>
       <c r="C85" t="n">
-        <v>214.1</v>
+        <v>210.4</v>
       </c>
       <c r="D85" t="n">
-        <v>215</v>
+        <v>213.3</v>
       </c>
       <c r="E85" t="n">
-        <v>214.1</v>
+        <v>210.4</v>
       </c>
       <c r="F85" t="n">
-        <v>5702.9457</v>
+        <v>4000</v>
       </c>
       <c r="G85" t="n">
-        <v>-146692.015395567</v>
+        <v>-102114.3175134856</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3608,8 +3506,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>209</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3620,7 +3524,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C86" t="n">
         <v>215</v>
@@ -3629,13 +3533,13 @@
         <v>215</v>
       </c>
       <c r="E86" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F86" t="n">
-        <v>4742.6316</v>
+        <v>413.3</v>
       </c>
       <c r="G86" t="n">
-        <v>-141949.383795567</v>
+        <v>-101701.0175134856</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3644,8 +3548,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>209</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3656,22 +3566,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="C87" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="D87" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="E87" t="n">
-        <v>214.1</v>
+        <v>215</v>
       </c>
       <c r="F87" t="n">
-        <v>7529.4093</v>
+        <v>189.3</v>
       </c>
       <c r="G87" t="n">
-        <v>-149478.793095567</v>
+        <v>-101701.0175134856</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3680,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>209</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +3608,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>212.9</v>
+        <v>215</v>
       </c>
       <c r="C88" t="n">
-        <v>212.9</v>
+        <v>215</v>
       </c>
       <c r="D88" t="n">
-        <v>212.9</v>
+        <v>215</v>
       </c>
       <c r="E88" t="n">
-        <v>212.9</v>
+        <v>215</v>
       </c>
       <c r="F88" t="n">
-        <v>370</v>
+        <v>5591.5352</v>
       </c>
       <c r="G88" t="n">
-        <v>-149848.793095567</v>
+        <v>-101701.0175134856</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3716,8 +3632,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>209</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3728,36 +3650,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C89" t="n">
-        <v>213</v>
+        <v>219.4</v>
       </c>
       <c r="D89" t="n">
-        <v>213</v>
+        <v>219.4</v>
       </c>
       <c r="E89" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F89" t="n">
-        <v>1659.9888</v>
+        <v>5672.5514</v>
       </c>
       <c r="G89" t="n">
-        <v>-148188.804295567</v>
+        <v>-96028.4661134856</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>212.9</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>212.9</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
+        <v>209</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3768,22 +3692,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>213.3</v>
+        <v>216.4</v>
       </c>
       <c r="C90" t="n">
-        <v>213.3</v>
+        <v>216.3</v>
       </c>
       <c r="D90" t="n">
-        <v>213.3</v>
+        <v>216.4</v>
       </c>
       <c r="E90" t="n">
-        <v>213.3</v>
+        <v>216.3</v>
       </c>
       <c r="F90" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="n">
-        <v>-145288.804295567</v>
+        <v>-99028.4661134856</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3793,11 +3717,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>212.9</v>
+        <v>209</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3810,22 +3734,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>213.4</v>
+        <v>219.9</v>
       </c>
       <c r="C91" t="n">
-        <v>213.4</v>
+        <v>219.9</v>
       </c>
       <c r="D91" t="n">
-        <v>213.4</v>
+        <v>219.9</v>
       </c>
       <c r="E91" t="n">
-        <v>213.4</v>
+        <v>219.9</v>
       </c>
       <c r="F91" t="n">
-        <v>5844.4458</v>
+        <v>1568.853</v>
       </c>
       <c r="G91" t="n">
-        <v>-139444.358495567</v>
+        <v>-97459.6131134856</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3835,11 +3759,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>212.9</v>
+        <v>209</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -3852,22 +3776,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>213.5</v>
+        <v>220</v>
       </c>
       <c r="C92" t="n">
-        <v>213.5</v>
+        <v>220</v>
       </c>
       <c r="D92" t="n">
-        <v>213.5</v>
+        <v>220</v>
       </c>
       <c r="E92" t="n">
-        <v>213.5</v>
+        <v>220</v>
       </c>
       <c r="F92" t="n">
-        <v>2340.0049</v>
+        <v>189.3262</v>
       </c>
       <c r="G92" t="n">
-        <v>-137104.353595567</v>
+        <v>-97270.2869134856</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3876,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>209</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3888,22 +3818,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>216.9</v>
+        <v>221.6</v>
       </c>
       <c r="C93" t="n">
-        <v>216.9</v>
+        <v>220.1</v>
       </c>
       <c r="D93" t="n">
-        <v>216.9</v>
+        <v>221.9</v>
       </c>
       <c r="E93" t="n">
-        <v>216.9</v>
+        <v>220</v>
       </c>
       <c r="F93" t="n">
-        <v>43.6534</v>
+        <v>20676.0311</v>
       </c>
       <c r="G93" t="n">
-        <v>-137060.700195567</v>
+        <v>-76594.25581348559</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3912,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>209</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3924,22 +3860,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>213.4</v>
+        <v>220.1</v>
       </c>
       <c r="C94" t="n">
-        <v>213.4</v>
+        <v>222</v>
       </c>
       <c r="D94" t="n">
-        <v>213.4</v>
+        <v>222</v>
       </c>
       <c r="E94" t="n">
-        <v>213.4</v>
+        <v>220.1</v>
       </c>
       <c r="F94" t="n">
-        <v>3504.4409</v>
+        <v>13011.956</v>
       </c>
       <c r="G94" t="n">
-        <v>-140565.141095567</v>
+        <v>-63582.2998134856</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3948,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>209</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3960,22 +3902,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>213.9</v>
+        <v>222</v>
       </c>
       <c r="C95" t="n">
-        <v>213.9</v>
+        <v>221.9</v>
       </c>
       <c r="D95" t="n">
-        <v>213.9</v>
+        <v>222</v>
       </c>
       <c r="E95" t="n">
-        <v>213.9</v>
+        <v>221.9</v>
       </c>
       <c r="F95" t="n">
-        <v>2068.1903</v>
+        <v>4406.1673</v>
       </c>
       <c r="G95" t="n">
-        <v>-138496.950795567</v>
+        <v>-67988.46711348559</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3984,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>209</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3996,58 +3944,66 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>214</v>
+        <v>221.9</v>
       </c>
       <c r="C96" t="n">
-        <v>214</v>
+        <v>221.9</v>
       </c>
       <c r="D96" t="n">
-        <v>214</v>
+        <v>221.9</v>
       </c>
       <c r="E96" t="n">
-        <v>214</v>
+        <v>221.9</v>
       </c>
       <c r="F96" t="n">
-        <v>7010.724</v>
+        <v>26588.6478</v>
       </c>
       <c r="G96" t="n">
-        <v>-131486.226795567</v>
+        <v>-67988.46711348559</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>209</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>1.056722488038278</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>214.1</v>
+        <v>221.9</v>
       </c>
       <c r="C97" t="n">
-        <v>214.1</v>
+        <v>222.1</v>
       </c>
       <c r="D97" t="n">
-        <v>214.1</v>
+        <v>222.1</v>
       </c>
       <c r="E97" t="n">
-        <v>214.1</v>
+        <v>221.9</v>
       </c>
       <c r="F97" t="n">
-        <v>4239.37</v>
+        <v>5137.5049</v>
       </c>
       <c r="G97" t="n">
-        <v>-127246.856795567</v>
+        <v>-62850.96221348559</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4068,28 +4024,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>216.9</v>
+        <v>221.9</v>
       </c>
       <c r="C98" t="n">
-        <v>216.9</v>
+        <v>221.9</v>
       </c>
       <c r="D98" t="n">
-        <v>216.9</v>
+        <v>221.9</v>
       </c>
       <c r="E98" t="n">
-        <v>216.9</v>
+        <v>221.9</v>
       </c>
       <c r="F98" t="n">
-        <v>25</v>
+        <v>831.3898</v>
       </c>
       <c r="G98" t="n">
-        <v>-127221.856795567</v>
+        <v>-63682.35201348559</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4104,22 +4060,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>214.1</v>
+        <v>221.9</v>
       </c>
       <c r="C99" t="n">
-        <v>214</v>
+        <v>221.9</v>
       </c>
       <c r="D99" t="n">
-        <v>214.1</v>
+        <v>221.9</v>
       </c>
       <c r="E99" t="n">
-        <v>214</v>
+        <v>221.9</v>
       </c>
       <c r="F99" t="n">
-        <v>6983.374</v>
+        <v>28152.6715</v>
       </c>
       <c r="G99" t="n">
-        <v>-134205.230795567</v>
+        <v>-63682.35201348559</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4140,28 +4096,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>214.9</v>
+        <v>219.9</v>
       </c>
       <c r="C100" t="n">
-        <v>214.9</v>
+        <v>219.9</v>
       </c>
       <c r="D100" t="n">
-        <v>214.9</v>
+        <v>219.9</v>
       </c>
       <c r="E100" t="n">
-        <v>214.9</v>
+        <v>219.9</v>
       </c>
       <c r="F100" t="n">
-        <v>766.4841</v>
+        <v>7620.5451</v>
       </c>
       <c r="G100" t="n">
-        <v>-133438.746695567</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4176,22 +4132,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>214.9</v>
+        <v>219.9</v>
       </c>
       <c r="C101" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="D101" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="E101" t="n">
-        <v>214.9</v>
+        <v>219.9</v>
       </c>
       <c r="F101" t="n">
-        <v>923.5448</v>
+        <v>2041.2787</v>
       </c>
       <c r="G101" t="n">
-        <v>-132515.201895567</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4212,22 +4168,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="C102" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="D102" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="E102" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="F102" t="n">
-        <v>121.4964</v>
+        <v>490.0644</v>
       </c>
       <c r="G102" t="n">
-        <v>-132515.201895567</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4248,22 +4204,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="C103" t="n">
-        <v>214.1</v>
+        <v>219.9</v>
       </c>
       <c r="D103" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="E103" t="n">
-        <v>214.1</v>
+        <v>219.9</v>
       </c>
       <c r="F103" t="n">
-        <v>1085</v>
+        <v>321.4628</v>
       </c>
       <c r="G103" t="n">
-        <v>-133600.201895567</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4284,22 +4240,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="C104" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="D104" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="E104" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="F104" t="n">
-        <v>2262.266</v>
+        <v>358.7476</v>
       </c>
       <c r="G104" t="n">
-        <v>-131337.935895567</v>
+        <v>-71302.89711348558</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4320,35 +4276,31 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>216</v>
+        <v>222.1</v>
       </c>
       <c r="C105" t="n">
-        <v>216.5</v>
+        <v>222.1</v>
       </c>
       <c r="D105" t="n">
-        <v>216.5</v>
+        <v>222.1</v>
       </c>
       <c r="E105" t="n">
-        <v>216</v>
+        <v>222.1</v>
       </c>
       <c r="F105" t="n">
-        <v>5866.2265</v>
+        <v>7803.849</v>
       </c>
       <c r="G105" t="n">
-        <v>-125471.709395567</v>
+        <v>-63499.04811348558</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="K105" t="n">
-        <v>215.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
@@ -4360,22 +4312,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C106" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D106" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E106" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F106" t="n">
-        <v>137.2283</v>
+        <v>7000</v>
       </c>
       <c r="G106" t="n">
-        <v>-125608.937695567</v>
+        <v>-70499.04811348558</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4384,14 +4336,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4402,22 +4348,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>214.2</v>
+        <v>220</v>
       </c>
       <c r="C107" t="n">
-        <v>214.2</v>
+        <v>219.9</v>
       </c>
       <c r="D107" t="n">
-        <v>214.2</v>
+        <v>220</v>
       </c>
       <c r="E107" t="n">
-        <v>214.2</v>
+        <v>219.9</v>
       </c>
       <c r="F107" t="n">
-        <v>5625.5011</v>
+        <v>2560</v>
       </c>
       <c r="G107" t="n">
-        <v>-131234.438795567</v>
+        <v>-73059.04811348558</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4426,14 +4372,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4444,22 +4384,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="C108" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="D108" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="E108" t="n">
-        <v>215.9</v>
+        <v>219.9</v>
       </c>
       <c r="F108" t="n">
-        <v>5.1672</v>
+        <v>0.8804</v>
       </c>
       <c r="G108" t="n">
-        <v>-131229.271595567</v>
+        <v>-73059.04811348558</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4480,22 +4420,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>214.6</v>
+        <v>217</v>
       </c>
       <c r="C109" t="n">
-        <v>214.4</v>
+        <v>215.2</v>
       </c>
       <c r="D109" t="n">
-        <v>214.6</v>
+        <v>217</v>
       </c>
       <c r="E109" t="n">
-        <v>214.4</v>
+        <v>215.2</v>
       </c>
       <c r="F109" t="n">
-        <v>7052.895</v>
+        <v>5396.1973</v>
       </c>
       <c r="G109" t="n">
-        <v>-138282.166595567</v>
+        <v>-78455.24541348558</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4516,22 +4456,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>214.5</v>
+        <v>216</v>
       </c>
       <c r="C110" t="n">
-        <v>214.4</v>
+        <v>215.3</v>
       </c>
       <c r="D110" t="n">
-        <v>214.5</v>
+        <v>216</v>
       </c>
       <c r="E110" t="n">
-        <v>214.4</v>
+        <v>215.3</v>
       </c>
       <c r="F110" t="n">
-        <v>553.2405</v>
+        <v>440.99</v>
       </c>
       <c r="G110" t="n">
-        <v>-138282.166595567</v>
+        <v>-78014.25541348557</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4552,22 +4492,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>214.4</v>
+        <v>215.3</v>
       </c>
       <c r="C111" t="n">
-        <v>214.4</v>
+        <v>215.3</v>
       </c>
       <c r="D111" t="n">
-        <v>214.4</v>
+        <v>215.3</v>
       </c>
       <c r="E111" t="n">
-        <v>214.4</v>
+        <v>215.3</v>
       </c>
       <c r="F111" t="n">
-        <v>1412.8076</v>
+        <v>618.4324</v>
       </c>
       <c r="G111" t="n">
-        <v>-138282.166595567</v>
+        <v>-78014.25541348557</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4588,22 +4528,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>214.4</v>
+        <v>219.9</v>
       </c>
       <c r="C112" t="n">
-        <v>214.4</v>
+        <v>219.9</v>
       </c>
       <c r="D112" t="n">
-        <v>214.4</v>
+        <v>219.9</v>
       </c>
       <c r="E112" t="n">
-        <v>214.4</v>
+        <v>219.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1087.9469</v>
+        <v>2.3</v>
       </c>
       <c r="G112" t="n">
-        <v>-138282.166595567</v>
+        <v>-78011.95541348557</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4624,22 +4564,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>214.4</v>
+        <v>216</v>
       </c>
       <c r="C113" t="n">
-        <v>215.8</v>
+        <v>216</v>
       </c>
       <c r="D113" t="n">
-        <v>215.8</v>
+        <v>216</v>
       </c>
       <c r="E113" t="n">
-        <v>214.4</v>
+        <v>216</v>
       </c>
       <c r="F113" t="n">
-        <v>4135.2324</v>
+        <v>91.9444</v>
       </c>
       <c r="G113" t="n">
-        <v>-134146.934195567</v>
+        <v>-78103.89981348556</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4660,22 +4600,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>215.1</v>
+        <v>215.3</v>
       </c>
       <c r="C114" t="n">
-        <v>215.1</v>
+        <v>215.3</v>
       </c>
       <c r="D114" t="n">
-        <v>215.1</v>
+        <v>215.3</v>
       </c>
       <c r="E114" t="n">
-        <v>215.1</v>
+        <v>215.3</v>
       </c>
       <c r="F114" t="n">
-        <v>1105.6619</v>
+        <v>129.635</v>
       </c>
       <c r="G114" t="n">
-        <v>-135252.596095567</v>
+        <v>-78233.53481348556</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4696,22 +4636,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>215.1</v>
+        <v>215.4</v>
       </c>
       <c r="C115" t="n">
-        <v>215.1</v>
+        <v>215</v>
       </c>
       <c r="D115" t="n">
-        <v>215.1</v>
+        <v>215.4</v>
       </c>
       <c r="E115" t="n">
-        <v>215.1</v>
+        <v>215</v>
       </c>
       <c r="F115" t="n">
-        <v>7.8298</v>
+        <v>45420.7023</v>
       </c>
       <c r="G115" t="n">
-        <v>-135252.596095567</v>
+        <v>-123654.2371134855</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4732,22 +4672,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>216.5</v>
+        <v>211.3</v>
       </c>
       <c r="C116" t="n">
-        <v>216.9</v>
+        <v>211.3</v>
       </c>
       <c r="D116" t="n">
-        <v>216.9</v>
+        <v>211.3</v>
       </c>
       <c r="E116" t="n">
-        <v>216.5</v>
+        <v>211.3</v>
       </c>
       <c r="F116" t="n">
-        <v>2146</v>
+        <v>328.382</v>
       </c>
       <c r="G116" t="n">
-        <v>-133106.596095567</v>
+        <v>-123982.6191134855</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4768,22 +4708,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>216.9</v>
+        <v>214.7</v>
       </c>
       <c r="C117" t="n">
-        <v>216.9</v>
+        <v>214.7</v>
       </c>
       <c r="D117" t="n">
-        <v>217</v>
+        <v>214.7</v>
       </c>
       <c r="E117" t="n">
-        <v>216.9</v>
+        <v>214.7</v>
       </c>
       <c r="F117" t="n">
-        <v>141.759</v>
+        <v>3537.2246</v>
       </c>
       <c r="G117" t="n">
-        <v>-133106.596095567</v>
+        <v>-120445.3945134855</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4816,10 +4756,10 @@
         <v>216.9</v>
       </c>
       <c r="F118" t="n">
-        <v>127.3891</v>
+        <v>805.9008</v>
       </c>
       <c r="G118" t="n">
-        <v>-133106.596095567</v>
+        <v>-119639.4937134855</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4840,22 +4780,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>218</v>
+        <v>212.3</v>
       </c>
       <c r="C119" t="n">
-        <v>218</v>
+        <v>212.3</v>
       </c>
       <c r="D119" t="n">
-        <v>218</v>
+        <v>212.3</v>
       </c>
       <c r="E119" t="n">
-        <v>218</v>
+        <v>212.3</v>
       </c>
       <c r="F119" t="n">
-        <v>22.93577981651376</v>
+        <v>164.1</v>
       </c>
       <c r="G119" t="n">
-        <v>-133083.6603157505</v>
+        <v>-119803.5937134855</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4876,22 +4816,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>218</v>
+        <v>209.2</v>
       </c>
       <c r="C120" t="n">
-        <v>220</v>
+        <v>209.2</v>
       </c>
       <c r="D120" t="n">
-        <v>220</v>
+        <v>209.2</v>
       </c>
       <c r="E120" t="n">
-        <v>218</v>
+        <v>209.2</v>
       </c>
       <c r="F120" t="n">
-        <v>16000</v>
+        <v>455.7142</v>
       </c>
       <c r="G120" t="n">
-        <v>-117083.6603157505</v>
+        <v>-120259.3079134856</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4912,22 +4852,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C121" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D121" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E121" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F121" t="n">
-        <v>1450</v>
+        <v>4304.4918</v>
       </c>
       <c r="G121" t="n">
-        <v>-118533.6603157505</v>
+        <v>-115954.8161134855</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4948,22 +4888,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C122" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D122" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E122" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F122" t="n">
-        <v>6656.6732</v>
+        <v>8706.247600000001</v>
       </c>
       <c r="G122" t="n">
-        <v>-118533.6603157505</v>
+        <v>-124661.0637134855</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4984,22 +4924,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>219.5</v>
+        <v>210.2</v>
       </c>
       <c r="C123" t="n">
-        <v>219.5</v>
+        <v>210.2</v>
       </c>
       <c r="D123" t="n">
-        <v>219.5</v>
+        <v>210.2</v>
       </c>
       <c r="E123" t="n">
-        <v>219.5</v>
+        <v>210.2</v>
       </c>
       <c r="F123" t="n">
-        <v>1036.1807</v>
+        <v>24.5516</v>
       </c>
       <c r="G123" t="n">
-        <v>-117497.4796157505</v>
+        <v>-124636.5121134855</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5020,22 +4960,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>220</v>
+        <v>210.2</v>
       </c>
       <c r="C124" t="n">
-        <v>220</v>
+        <v>210.2</v>
       </c>
       <c r="D124" t="n">
-        <v>220</v>
+        <v>210.2</v>
       </c>
       <c r="E124" t="n">
-        <v>220</v>
+        <v>210.2</v>
       </c>
       <c r="F124" t="n">
-        <v>819</v>
+        <v>8.4533</v>
       </c>
       <c r="G124" t="n">
-        <v>-116678.4796157505</v>
+        <v>-124636.5121134855</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5056,22 +4996,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>220</v>
+        <v>213.8</v>
       </c>
       <c r="C125" t="n">
-        <v>220.6</v>
+        <v>213.9</v>
       </c>
       <c r="D125" t="n">
-        <v>220.6</v>
+        <v>213.9</v>
       </c>
       <c r="E125" t="n">
-        <v>220</v>
+        <v>213.8</v>
       </c>
       <c r="F125" t="n">
-        <v>4563</v>
+        <v>1956.8894</v>
       </c>
       <c r="G125" t="n">
-        <v>-112115.4796157505</v>
+        <v>-122679.6227134855</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5092,22 +5032,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>220.6</v>
+        <v>213.8</v>
       </c>
       <c r="C126" t="n">
-        <v>222.2</v>
+        <v>213.8</v>
       </c>
       <c r="D126" t="n">
-        <v>222.2</v>
+        <v>213.8</v>
       </c>
       <c r="E126" t="n">
-        <v>220.6</v>
+        <v>213.8</v>
       </c>
       <c r="F126" t="n">
-        <v>21000</v>
+        <v>6754.9111</v>
       </c>
       <c r="G126" t="n">
-        <v>-91115.47961575052</v>
+        <v>-129434.5338134855</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5128,22 +5068,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>221.5</v>
+        <v>215.4</v>
       </c>
       <c r="C127" t="n">
-        <v>219.5</v>
+        <v>215.4</v>
       </c>
       <c r="D127" t="n">
-        <v>221.5</v>
+        <v>215.4</v>
       </c>
       <c r="E127" t="n">
-        <v>219.5</v>
+        <v>215.4</v>
       </c>
       <c r="F127" t="n">
-        <v>36</v>
+        <v>4304.4918</v>
       </c>
       <c r="G127" t="n">
-        <v>-91151.47961575052</v>
+        <v>-125130.0420134855</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5164,22 +5104,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>221.5</v>
+        <v>219.9</v>
       </c>
       <c r="C128" t="n">
-        <v>221.5</v>
+        <v>219.9</v>
       </c>
       <c r="D128" t="n">
-        <v>221.5</v>
+        <v>219.9</v>
       </c>
       <c r="E128" t="n">
-        <v>221.5</v>
+        <v>219.9</v>
       </c>
       <c r="F128" t="n">
-        <v>482</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>-90669.47961575052</v>
+        <v>-125120.0420134855</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5200,22 +5140,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>222.1</v>
+        <v>219</v>
       </c>
       <c r="C129" t="n">
-        <v>222.1</v>
+        <v>219</v>
       </c>
       <c r="D129" t="n">
-        <v>222.1</v>
+        <v>219</v>
       </c>
       <c r="E129" t="n">
-        <v>222.1</v>
+        <v>219</v>
       </c>
       <c r="F129" t="n">
-        <v>4657.4165</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>-86012.06311575051</v>
+        <v>-125130.0420134855</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5236,22 +5176,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>222.2</v>
+        <v>219</v>
       </c>
       <c r="C130" t="n">
-        <v>222.2</v>
+        <v>221</v>
       </c>
       <c r="D130" t="n">
-        <v>222.2</v>
+        <v>221</v>
       </c>
       <c r="E130" t="n">
-        <v>222.2</v>
+        <v>219</v>
       </c>
       <c r="F130" t="n">
-        <v>2198.6577</v>
+        <v>514.5386179185521</v>
       </c>
       <c r="G130" t="n">
-        <v>-83813.40541575052</v>
+        <v>-124615.503395567</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5272,22 +5212,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>222.3</v>
+        <v>218</v>
       </c>
       <c r="C131" t="n">
-        <v>222.3</v>
+        <v>218</v>
       </c>
       <c r="D131" t="n">
-        <v>222.3</v>
+        <v>218</v>
       </c>
       <c r="E131" t="n">
-        <v>222.3</v>
+        <v>218</v>
       </c>
       <c r="F131" t="n">
-        <v>5847.9783</v>
+        <v>603.5784</v>
       </c>
       <c r="G131" t="n">
-        <v>-77965.42711575051</v>
+        <v>-125219.081795567</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5308,22 +5248,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>222.3</v>
+        <v>218</v>
       </c>
       <c r="C132" t="n">
-        <v>222.2</v>
+        <v>218</v>
       </c>
       <c r="D132" t="n">
-        <v>222.3</v>
+        <v>218</v>
       </c>
       <c r="E132" t="n">
-        <v>222.2</v>
+        <v>218</v>
       </c>
       <c r="F132" t="n">
-        <v>6959.9584</v>
+        <v>1130.3368</v>
       </c>
       <c r="G132" t="n">
-        <v>-84925.38551575052</v>
+        <v>-125219.081795567</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5344,22 +5284,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>222.2</v>
+        <v>215</v>
       </c>
       <c r="C133" t="n">
-        <v>222.2</v>
+        <v>212.6</v>
       </c>
       <c r="D133" t="n">
-        <v>222.2</v>
+        <v>215</v>
       </c>
       <c r="E133" t="n">
-        <v>222.2</v>
+        <v>212.6</v>
       </c>
       <c r="F133" t="n">
-        <v>1000</v>
+        <v>1261</v>
       </c>
       <c r="G133" t="n">
-        <v>-84925.38551575052</v>
+        <v>-126480.081795567</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5380,22 +5320,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>222.3</v>
+        <v>215</v>
       </c>
       <c r="C134" t="n">
-        <v>222.3</v>
+        <v>214</v>
       </c>
       <c r="D134" t="n">
-        <v>222.3</v>
+        <v>215</v>
       </c>
       <c r="E134" t="n">
-        <v>222.3</v>
+        <v>214</v>
       </c>
       <c r="F134" t="n">
-        <v>898.7726</v>
+        <v>1213.512</v>
       </c>
       <c r="G134" t="n">
-        <v>-84026.61291575052</v>
+        <v>-125266.569795567</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5416,22 +5356,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>223</v>
+        <v>212.6</v>
       </c>
       <c r="C135" t="n">
-        <v>223</v>
+        <v>212.6</v>
       </c>
       <c r="D135" t="n">
-        <v>223</v>
+        <v>212.6</v>
       </c>
       <c r="E135" t="n">
-        <v>223</v>
+        <v>212.6</v>
       </c>
       <c r="F135" t="n">
-        <v>4535.7046</v>
+        <v>2514.7967</v>
       </c>
       <c r="G135" t="n">
-        <v>-79490.90831575052</v>
+        <v>-127781.366495567</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5452,28 +5392,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>220.7</v>
+        <v>214</v>
       </c>
       <c r="C136" t="n">
-        <v>220.7</v>
+        <v>214</v>
       </c>
       <c r="D136" t="n">
-        <v>220.7</v>
+        <v>214</v>
       </c>
       <c r="E136" t="n">
-        <v>220.7</v>
+        <v>214</v>
       </c>
       <c r="F136" t="n">
-        <v>9</v>
+        <v>514.5386</v>
       </c>
       <c r="G136" t="n">
-        <v>-79499.90831575052</v>
+        <v>-127266.827895567</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5488,22 +5428,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>222.9</v>
+        <v>215</v>
       </c>
       <c r="C137" t="n">
-        <v>222.9</v>
+        <v>214.1</v>
       </c>
       <c r="D137" t="n">
-        <v>222.9</v>
+        <v>215</v>
       </c>
       <c r="E137" t="n">
-        <v>222.9</v>
+        <v>214.1</v>
       </c>
       <c r="F137" t="n">
-        <v>898.7726</v>
+        <v>328.382</v>
       </c>
       <c r="G137" t="n">
-        <v>-78601.13571575053</v>
+        <v>-126938.445895567</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5524,22 +5464,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="C138" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="D138" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="E138" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="F138" t="n">
-        <v>5306.3973</v>
+        <v>662.8819999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>-78601.13571575053</v>
+        <v>-126275.563895567</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5560,28 +5500,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="C139" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="D139" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="E139" t="n">
-        <v>222.9</v>
+        <v>218.9</v>
       </c>
       <c r="F139" t="n">
-        <v>1225.4913</v>
+        <v>521.8676</v>
       </c>
       <c r="G139" t="n">
-        <v>-78601.13571575053</v>
+        <v>-126275.563895567</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5591,6 +5531,2854 @@
       </c>
       <c r="N139" t="inlineStr"/>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>220</v>
+      </c>
+      <c r="C140" t="n">
+        <v>220</v>
+      </c>
+      <c r="D140" t="n">
+        <v>220</v>
+      </c>
+      <c r="E140" t="n">
+        <v>220</v>
+      </c>
+      <c r="F140" t="n">
+        <v>260.4676</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-126015.096295567</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="C141" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-126009.096295567</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-126009.096295567</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>260.4676</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-126269.563895567</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7283.1914</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-126269.563895567</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>396</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-126269.563895567</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.5483</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-126269.563895567</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>218</v>
+      </c>
+      <c r="C147" t="n">
+        <v>218</v>
+      </c>
+      <c r="D147" t="n">
+        <v>218</v>
+      </c>
+      <c r="E147" t="n">
+        <v>218</v>
+      </c>
+      <c r="F147" t="n">
+        <v>31.4057</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-126300.969595567</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>219</v>
+      </c>
+      <c r="C148" t="n">
+        <v>219</v>
+      </c>
+      <c r="D148" t="n">
+        <v>219</v>
+      </c>
+      <c r="E148" t="n">
+        <v>219</v>
+      </c>
+      <c r="F148" t="n">
+        <v>130.7756</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-126170.193995567</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>218</v>
+      </c>
+      <c r="C149" t="n">
+        <v>218</v>
+      </c>
+      <c r="D149" t="n">
+        <v>218</v>
+      </c>
+      <c r="E149" t="n">
+        <v>218</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4329.0732</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-130499.267195567</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>218</v>
+      </c>
+      <c r="C150" t="n">
+        <v>218</v>
+      </c>
+      <c r="D150" t="n">
+        <v>218</v>
+      </c>
+      <c r="E150" t="n">
+        <v>218</v>
+      </c>
+      <c r="F150" t="n">
+        <v>46</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-130499.267195567</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>218</v>
+      </c>
+      <c r="C151" t="n">
+        <v>218</v>
+      </c>
+      <c r="D151" t="n">
+        <v>218</v>
+      </c>
+      <c r="E151" t="n">
+        <v>218</v>
+      </c>
+      <c r="F151" t="n">
+        <v>725.0515</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-130499.267195567</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>218</v>
+      </c>
+      <c r="C152" t="n">
+        <v>218</v>
+      </c>
+      <c r="D152" t="n">
+        <v>218</v>
+      </c>
+      <c r="E152" t="n">
+        <v>218</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3368.4558</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-130499.267195567</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>218</v>
+      </c>
+      <c r="C153" t="n">
+        <v>217</v>
+      </c>
+      <c r="D153" t="n">
+        <v>218</v>
+      </c>
+      <c r="E153" t="n">
+        <v>217</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-135499.267195567</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>217</v>
+      </c>
+      <c r="C154" t="n">
+        <v>217</v>
+      </c>
+      <c r="D154" t="n">
+        <v>217</v>
+      </c>
+      <c r="E154" t="n">
+        <v>217</v>
+      </c>
+      <c r="F154" t="n">
+        <v>53.8834</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-135499.267195567</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>217</v>
+      </c>
+      <c r="C155" t="n">
+        <v>214.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>217</v>
+      </c>
+      <c r="E155" t="n">
+        <v>214.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5489.8025</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-140989.069695567</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>215</v>
+      </c>
+      <c r="C156" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>215</v>
+      </c>
+      <c r="E156" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5702.9457</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-146692.015395567</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>215</v>
+      </c>
+      <c r="C157" t="n">
+        <v>215</v>
+      </c>
+      <c r="D157" t="n">
+        <v>215</v>
+      </c>
+      <c r="E157" t="n">
+        <v>215</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4742.6316</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-141949.383795567</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7529.4093</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-149478.793095567</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>370</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-149848.793095567</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>213</v>
+      </c>
+      <c r="C160" t="n">
+        <v>213</v>
+      </c>
+      <c r="D160" t="n">
+        <v>213</v>
+      </c>
+      <c r="E160" t="n">
+        <v>213</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1659.9888</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-148188.804295567</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2900</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-145288.804295567</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5844.4458</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-139444.358495567</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2340.0049</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-137104.353595567</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>43.6534</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-137060.700195567</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3504.4409</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-140565.141095567</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="D166" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2068.1903</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-138496.950795567</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>214</v>
+      </c>
+      <c r="C167" t="n">
+        <v>214</v>
+      </c>
+      <c r="D167" t="n">
+        <v>214</v>
+      </c>
+      <c r="E167" t="n">
+        <v>214</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7010.724</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-131486.226795567</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4239.37</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-127246.856795567</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="F169" t="n">
+        <v>25</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-127221.856795567</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>214</v>
+      </c>
+      <c r="D170" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>214</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6983.374</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-134205.230795567</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="K170" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>766.4841</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-133438.746695567</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>214</v>
+      </c>
+      <c r="K171" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>215</v>
+      </c>
+      <c r="D172" t="n">
+        <v>215</v>
+      </c>
+      <c r="E172" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>923.5448</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-132515.201895567</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="K172" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>215</v>
+      </c>
+      <c r="C173" t="n">
+        <v>215</v>
+      </c>
+      <c r="D173" t="n">
+        <v>215</v>
+      </c>
+      <c r="E173" t="n">
+        <v>215</v>
+      </c>
+      <c r="F173" t="n">
+        <v>121.4964</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-132515.201895567</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>215</v>
+      </c>
+      <c r="K173" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>215</v>
+      </c>
+      <c r="C174" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>215</v>
+      </c>
+      <c r="E174" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1085</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-133600.201895567</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>215</v>
+      </c>
+      <c r="K174" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2262.266</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-131337.935895567</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>216</v>
+      </c>
+      <c r="C176" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>216</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5866.2265</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-125471.709395567</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="K176" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>215</v>
+      </c>
+      <c r="C177" t="n">
+        <v>215</v>
+      </c>
+      <c r="D177" t="n">
+        <v>215</v>
+      </c>
+      <c r="E177" t="n">
+        <v>215</v>
+      </c>
+      <c r="F177" t="n">
+        <v>137.2283</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-125608.937695567</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="K177" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5625.5011</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-131234.438795567</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>215</v>
+      </c>
+      <c r="K178" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5.1672</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-131229.271595567</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="K179" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="D180" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7052.895</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-138282.166595567</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="K180" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="F181" t="n">
+        <v>553.2405</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-138282.166595567</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="K181" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1412.8076</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-138282.166595567</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="K182" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1087.9469</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-138282.166595567</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="K183" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4135.2324</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-134146.934195567</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="K184" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1105.6619</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-135252.596095567</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="K185" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>7.8298</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-135252.596095567</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2146</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-133106.596095567</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>217</v>
+      </c>
+      <c r="E188" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>141.759</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-133106.596095567</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="K188" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="C189" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="F189" t="n">
+        <v>127.3891</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-133106.596095567</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="K189" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>218</v>
+      </c>
+      <c r="C190" t="n">
+        <v>218</v>
+      </c>
+      <c r="D190" t="n">
+        <v>218</v>
+      </c>
+      <c r="E190" t="n">
+        <v>218</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22.93577981651376</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-133083.6603157505</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="K190" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>218</v>
+      </c>
+      <c r="C191" t="n">
+        <v>220</v>
+      </c>
+      <c r="D191" t="n">
+        <v>220</v>
+      </c>
+      <c r="E191" t="n">
+        <v>218</v>
+      </c>
+      <c r="F191" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-117083.6603157505</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>218</v>
+      </c>
+      <c r="C192" t="n">
+        <v>218</v>
+      </c>
+      <c r="D192" t="n">
+        <v>218</v>
+      </c>
+      <c r="E192" t="n">
+        <v>218</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-118533.6603157505</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>218</v>
+      </c>
+      <c r="C193" t="n">
+        <v>218</v>
+      </c>
+      <c r="D193" t="n">
+        <v>218</v>
+      </c>
+      <c r="E193" t="n">
+        <v>218</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6656.6732</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-118533.6603157505</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1036.1807</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-117497.4796157505</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>220</v>
+      </c>
+      <c r="C195" t="n">
+        <v>220</v>
+      </c>
+      <c r="D195" t="n">
+        <v>220</v>
+      </c>
+      <c r="E195" t="n">
+        <v>220</v>
+      </c>
+      <c r="F195" t="n">
+        <v>819</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-116678.4796157505</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>220</v>
+      </c>
+      <c r="C196" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>220</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4563</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-112115.4796157505</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-91115.47961575052</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>36</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-91151.47961575052</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>482</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-90669.47961575052</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4657.4165</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-86012.06311575051</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2198.6577</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-83813.40541575052</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="E202" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5847.9783</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-77965.42711575051</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6959.9584</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-84925.38551575052</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-84925.38551575052</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>898.7726</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-84026.61291575052</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>223</v>
+      </c>
+      <c r="C206" t="n">
+        <v>223</v>
+      </c>
+      <c r="D206" t="n">
+        <v>223</v>
+      </c>
+      <c r="E206" t="n">
+        <v>223</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4535.7046</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-79490.90831575052</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="D207" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>9</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-79499.90831575052</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D208" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E208" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="F208" t="n">
+        <v>898.7726</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-78601.13571575053</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C209" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D209" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E209" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5306.3973</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-78601.13571575053</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="C210" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D210" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E210" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1225.4913</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-78601.13571575053</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,19 @@
         <v>-112283.800208856</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>209</v>
+      </c>
+      <c r="J44" t="n">
+        <v>209</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1874,23 @@
         <v>-112283.800208856</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>209</v>
+      </c>
+      <c r="J45" t="n">
+        <v>209</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1915,23 @@
         <v>-110983.443908856</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>209</v>
+      </c>
+      <c r="J46" t="n">
+        <v>209</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1956,19 @@
         <v>-109110.192708856</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>209.1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>209.1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1995,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2034,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2073,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2106,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2139,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2172,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2205,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2238,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2271,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2304,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2337,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2370,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2403,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2436,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2469,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2502,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2535,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2568,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2601,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2634,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2667,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2700,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2733,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2766,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2799,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2832,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2865,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2898,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,22 +2929,15 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>209</v>
-      </c>
-      <c r="K76" t="n">
-        <v>209</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3162,22 +2964,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>209</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3204,22 +2997,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>209</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3244,26 +3028,21 @@
         <v>-98222.5048134856</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>210.1</v>
       </c>
-      <c r="K79" t="n">
-        <v>209</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3288,26 +3067,21 @@
         <v>-98219.5048134856</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>210.2</v>
       </c>
-      <c r="K80" t="n">
-        <v>209</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3334,22 +3108,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>209</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3376,22 +3145,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>209</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3418,22 +3182,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>209</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3460,22 +3219,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>209</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3502,22 +3256,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>209</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3544,22 +3293,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>209</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3586,22 +3330,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>209</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3628,22 +3367,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>209</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3670,22 +3404,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>209</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3712,22 +3441,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>209</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3754,22 +3478,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>209</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3796,22 +3515,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>209</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3838,22 +3552,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>209</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3880,22 +3589,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>209</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3922,22 +3626,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>209</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3964,132 +3663,126 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>209</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5137.5049</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-62850.96221348559</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>831.3898</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-63682.35201348559</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>28152.6715</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-63682.35201348559</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1.056722488038278</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5137.5049</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-62850.96221348559</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="C98" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="D98" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="E98" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="F98" t="n">
-        <v>831.3898</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-63682.35201348559</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="C99" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="E99" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>28152.6715</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-63682.35201348559</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4114,18 +3807,15 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4150,18 +3840,15 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4186,18 +3873,15 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4224,16 +3908,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4258,18 +3939,15 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4296,16 +3974,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4332,16 +4007,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4368,16 +4040,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4402,18 +4071,15 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4438,18 +4104,15 @@
         <v>-78455.24541348558</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4476,16 +4139,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4512,16 +4172,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4548,16 +4205,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4584,16 +4238,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4620,16 +4271,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4656,16 +4304,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4692,16 +4337,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4728,16 +4370,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4764,16 +4403,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4800,16 +4436,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4836,16 +4469,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4872,16 +4502,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4908,16 +4535,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4944,16 +4568,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4980,16 +4601,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5016,16 +4634,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5052,16 +4667,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5088,16 +4700,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5124,16 +4733,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5160,16 +4766,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5196,16 +4799,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5232,16 +4832,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5268,16 +4865,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5304,16 +4898,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5340,16 +4931,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5376,16 +4964,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5412,16 +4997,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5448,16 +5030,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5484,16 +5063,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5520,16 +5096,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5556,16 +5129,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5592,16 +5162,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5628,16 +5195,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5664,16 +5228,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5700,16 +5261,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5736,16 +5294,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5772,16 +5327,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5808,16 +5360,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5844,16 +5393,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5880,16 +5426,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5916,16 +5459,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5952,16 +5492,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5988,16 +5525,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6024,16 +5558,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6060,16 +5591,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6096,16 +5624,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6132,16 +5657,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6168,16 +5690,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6204,16 +5723,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6240,16 +5756,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6276,16 +5789,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6312,16 +5822,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6348,16 +5855,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6384,16 +5888,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6420,16 +5921,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6456,16 +5954,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6492,16 +5987,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6528,16 +6020,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6564,16 +6053,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6598,22 +6084,15 @@
         <v>-127221.856795567</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="K169" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6638,26 +6117,15 @@
         <v>-134205.230795567</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="K170" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6682,26 +6150,15 @@
         <v>-133438.746695567</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>214</v>
-      </c>
-      <c r="K171" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6726,26 +6183,15 @@
         <v>-132515.201895567</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>214.9</v>
-      </c>
-      <c r="K172" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6772,24 +6218,13 @@
       <c r="H173" t="n">
         <v>1</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>215</v>
-      </c>
-      <c r="K173" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6816,24 +6251,13 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>215</v>
-      </c>
-      <c r="K174" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6858,26 +6282,15 @@
         <v>-131337.935895567</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="K175" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6904,24 +6317,13 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="K176" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6948,24 +6350,13 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="K177" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6990,26 +6381,15 @@
         <v>-131234.438795567</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>215</v>
-      </c>
-      <c r="K178" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7034,26 +6414,15 @@
         <v>-131229.271595567</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="K179" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7078,26 +6447,15 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="K180" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7122,26 +6480,15 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="K181" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7166,26 +6513,15 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="K182" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7210,26 +6546,15 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="K183" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7254,26 +6579,15 @@
         <v>-134146.934195567</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="K184" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7298,26 +6612,15 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>215.8</v>
-      </c>
-      <c r="K185" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7342,26 +6645,15 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="K186" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7386,26 +6678,15 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>215.1</v>
-      </c>
-      <c r="K187" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7430,26 +6711,15 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="K188" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7474,26 +6744,15 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="K189" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7518,26 +6777,15 @@
         <v>-133083.6603157505</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="K190" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7564,22 +6812,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7606,22 +6845,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7648,22 +6878,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7690,22 +6911,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7732,22 +6944,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7774,22 +6977,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7816,22 +7010,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7858,22 +7043,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7900,22 +7076,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7942,22 +7109,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7984,22 +7142,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8026,22 +7175,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8068,22 +7208,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8110,22 +7241,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8152,22 +7274,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8194,22 +7307,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8236,22 +7340,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8278,22 +7373,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8320,22 +7406,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8360,26 +7437,17 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-63410.85062381053</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1837,14 +1837,10 @@
         <v>-112283.800208856</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>209</v>
-      </c>
-      <c r="J44" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1874,19 +1870,11 @@
         <v>-112283.800208856</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>209</v>
-      </c>
-      <c r="J45" t="n">
-        <v>209</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1903,11 @@
         <v>-110983.443908856</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>209</v>
-      </c>
-      <c r="J46" t="n">
-        <v>209</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,14 +1936,10 @@
         <v>-109110.192708856</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>209.1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>209.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
@@ -1996,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>209.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2035,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>209.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -3028,17 +2992,11 @@
         <v>-98222.5048134856</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>210.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3067,17 +3025,11 @@
         <v>-98219.5048134856</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>210.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3110,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3147,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3184,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3221,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3295,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3332,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3369,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3443,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3480,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3517,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3554,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3591,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3665,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3702,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3739,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3772,16 +3652,14 @@
         <v>-63682.35201348559</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3807,7 +3685,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3840,7 +3718,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3873,7 +3751,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3939,7 +3817,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4005,7 +3883,7 @@
         <v>-70499.04811348558</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4038,7 +3916,7 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4071,7 +3949,7 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4104,7 +3982,7 @@
         <v>-78455.24541348558</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4137,7 +4015,7 @@
         <v>-78014.25541348557</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4170,7 +4048,7 @@
         <v>-78014.25541348557</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4236,7 +4114,7 @@
         <v>-78103.89981348556</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4269,7 +4147,7 @@
         <v>-78233.53481348556</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4302,7 +4180,7 @@
         <v>-123654.2371134855</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4335,7 +4213,7 @@
         <v>-123982.6191134855</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5226,7 +5104,7 @@
         <v>-126269.563895567</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5259,7 +5137,7 @@
         <v>-126269.563895567</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6117,11 +5995,17 @@
         <v>-134205.230795567</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>216.9</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6154,7 +6038,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6187,7 +6075,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6218,9 +6110,15 @@
       <c r="H173" t="n">
         <v>1</v>
       </c>
-      <c r="I173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>215</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6251,9 +6149,15 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>215</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6286,7 +6190,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6317,9 +6225,15 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>215.9</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6350,9 +6264,15 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>216.5</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6301,17 @@
         <v>-131234.438795567</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>215</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6414,11 +6340,17 @@
         <v>-131229.271595567</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>214.2</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +6379,17 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>215.9</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6484,7 +6422,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6517,7 +6459,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6550,7 +6496,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6533,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6616,7 +6570,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +6603,17 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>215.1</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +6642,17 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>215.1</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +6681,17 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>216.9</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6744,11 +6720,17 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>216.9</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6777,11 +6759,17 @@
         <v>-133083.6603157505</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>216.9</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6814,7 +6802,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6847,7 +6839,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6880,7 +6876,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6913,7 +6913,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6946,7 +6950,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6979,7 +6987,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7012,7 +7024,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7045,7 +7061,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7078,7 +7098,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7111,7 +7135,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7144,7 +7172,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7177,7 +7209,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7210,7 +7246,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7243,7 +7283,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7276,7 +7320,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7309,7 +7357,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +7394,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7375,7 +7431,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7408,7 +7468,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7437,17 +7501,19 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-63410.85062381053</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-66918.89840885597</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-58731.60440885596</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-59983.13290885597</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-60766.99920885597</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-118773.1842134856</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-125028.6616134856</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-102114.3175134856</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-97459.6131134856</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-97270.2869134856</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-76594.25581348559</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-70499.04811348558</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-78455.24541348558</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-78014.25541348557</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-78014.25541348557</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-78103.89981348556</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-78233.53481348556</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-123654.2371134855</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-123982.6191134855</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-120445.3945134855</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-119639.4937134855</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-119803.5937134855</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-120259.3079134856</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-115954.8161134855</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-124661.0637134855</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-129434.5338134855</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-125130.0420134855</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-125120.0420134855</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-126269.563895567</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-126269.563895567</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-145288.804295567</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5995,17 +5995,11 @@
         <v>-134205.230795567</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>216.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6038,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6075,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6108,17 +6094,11 @@
         <v>-132515.201895567</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,17 +6127,11 @@
         <v>-133600.201895567</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6190,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6223,17 +6193,11 @@
         <v>-125471.709395567</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6262,17 +6226,11 @@
         <v>-125608.937695567</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6301,17 +6259,11 @@
         <v>-131234.438795567</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6340,17 +6292,11 @@
         <v>-131229.271595567</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>214.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6379,17 +6325,11 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>215.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6422,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6459,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6496,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6570,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6603,17 +6523,11 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>215.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6642,17 +6556,11 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>215.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6681,17 +6589,11 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>216.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6720,17 +6622,11 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>216.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6764,12 +6660,10 @@
       <c r="I190" t="n">
         <v>216.9</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6798,13 +6692,17 @@
         <v>-117083.6603157505</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>218</v>
+      </c>
+      <c r="J191" t="n">
+        <v>216.9</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6838,10 +6736,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>216.9</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6876,11 +6776,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6913,11 +6809,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +6842,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +6875,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7024,11 +6908,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7061,11 +6941,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7098,11 +6974,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7135,11 +7007,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7172,11 +7040,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +7073,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +7106,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7283,11 +7139,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +7172,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7357,11 +7205,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +7238,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +7271,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7468,11 +7304,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7501,19 +7333,17 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-16 BackTest VALOR.xlsx
@@ -748,7 +748,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-70071.91739126337</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-66918.89840885597</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-58731.60440885596</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-59983.13290885597</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-60766.99920885597</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-118773.1842134856</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-119789.3176134856</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-125028.6616134856</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,10 +2959,14 @@
         <v>-121418.3316134856</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>210.1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
@@ -2992,11 +2996,19 @@
         <v>-98222.5048134856</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3037,19 @@
         <v>-98219.5048134856</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3078,19 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3158,17 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3197,17 @@
         <v>-98114.3175134856</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3236,17 @@
         <v>-102114.3175134856</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3275,17 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3314,17 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3353,17 @@
         <v>-101701.0175134856</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3470,17 @@
         <v>-97459.6131134856</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3509,17 @@
         <v>-97270.2869134856</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3548,17 @@
         <v>-76594.25581348559</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3629,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,15 +3704,23 @@
         <v>-62850.96221348559</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>1.0521156592099</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3619,7 +3745,7 @@
         <v>-63682.35201348559</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3778,7 @@
         <v>-63682.35201348559</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3811,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3844,7 @@
         <v>-71302.89711348558</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3883,7 +4009,7 @@
         <v>-70499.04811348558</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4042,7 @@
         <v>-73059.04811348558</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4246,7 +4372,7 @@
         <v>-120445.3945134855</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4405,7 @@
         <v>-119639.4937134855</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4438,7 @@
         <v>-119803.5937134855</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4471,7 @@
         <v>-120259.3079134856</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4504,7 @@
         <v>-115954.8161134855</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4537,7 @@
         <v>-124661.0637134855</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4543,7 +4669,7 @@
         <v>-129434.5338134855</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4702,7 @@
         <v>-125130.0420134855</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4735,7 @@
         <v>-125120.0420134855</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5698,7 +5824,7 @@
         <v>-145288.804295567</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,10 +5857,14 @@
         <v>-139444.358495567</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>213.3</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
@@ -5767,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6094,10 +6236,14 @@
         <v>-132515.201895567</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>215</v>
+      </c>
+      <c r="J173" t="n">
+        <v>215</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6127,11 +6273,19 @@
         <v>-133600.201895567</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>215</v>
+      </c>
+      <c r="J174" t="n">
+        <v>215</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6314,19 @@
         <v>-131337.935895567</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>215</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6355,19 @@
         <v>-125471.709395567</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="J176" t="n">
+        <v>215</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6396,19 @@
         <v>-125608.937695567</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="J177" t="n">
+        <v>215</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6437,19 @@
         <v>-131234.438795567</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>215</v>
+      </c>
+      <c r="J178" t="n">
+        <v>215</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6478,19 @@
         <v>-131229.271595567</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>215</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6519,19 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="J180" t="n">
+        <v>215</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6560,19 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="J181" t="n">
+        <v>215</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6601,19 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="J182" t="n">
+        <v>215</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6642,19 @@
         <v>-138282.166595567</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="J183" t="n">
+        <v>215</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6683,19 @@
         <v>-134146.934195567</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="J184" t="n">
+        <v>215</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6724,19 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="J185" t="n">
+        <v>215</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6765,19 @@
         <v>-135252.596095567</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>215</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6806,19 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>215</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6847,19 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="J188" t="n">
+        <v>215</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6888,19 @@
         <v>-133106.596095567</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="J189" t="n">
+        <v>215</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6661,9 +6935,13 @@
         <v>216.9</v>
       </c>
       <c r="J190" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+        <v>215</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6976,11 @@
         <v>218</v>
       </c>
       <c r="J191" t="n">
-        <v>216.9</v>
+        <v>215</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6733,15 +7011,17 @@
         <v>-118533.6603157505</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>220</v>
+      </c>
       <c r="J192" t="n">
-        <v>216.9</v>
+        <v>215</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6772,11 +7052,19 @@
         <v>-118533.6603157505</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>218</v>
+      </c>
+      <c r="J193" t="n">
+        <v>215</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6805,11 +7093,19 @@
         <v>-117497.4796157505</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>218</v>
+      </c>
+      <c r="J194" t="n">
+        <v>215</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7137,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>215</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7176,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>215</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +7215,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>215</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +7254,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>215</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7293,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>215</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +7332,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>215</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7371,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>215</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7069,13 +7407,19 @@
         <v>-77965.42711575051</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>215</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>1.028953488372093</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -7102,7 +7446,7 @@
         <v>-84925.38551575052</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7135,7 +7479,7 @@
         <v>-84925.38551575052</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7168,7 +7512,7 @@
         <v>-84026.61291575052</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7201,7 +7545,7 @@
         <v>-79490.90831575052</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7234,7 +7578,7 @@
         <v>-79499.90831575052</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7267,7 +7611,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7300,7 +7644,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7333,7 +7677,7 @@
         <v>-78601.13571575053</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
